--- a/data/accounts.xlsx
+++ b/data/accounts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70349DB7-E7C1-4415-BE4D-D93E621C86F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6575F0E5-5DF3-43A5-95B8-4FAFDC3C2217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="639">
   <si>
     <r>
       <rPr>
@@ -45,1885 +45,1885 @@
     </r>
   </si>
   <si>
+    <t>A: #africanfood</t>
+  </si>
+  <si>
+    <t>A: #architecture</t>
+  </si>
+  <si>
+    <t>A: #blackouttuesday</t>
+  </si>
+  <si>
+    <t>A: #edw</t>
+  </si>
+  <si>
+    <t>A: #imthatjew</t>
+  </si>
+  <si>
+    <t>A: #jewishmemes</t>
+  </si>
+  <si>
+    <t>A: #kjwien</t>
+  </si>
+  <si>
+    <t>A: #kpalimé</t>
+  </si>
+  <si>
+    <t>A: #lesswaste</t>
+  </si>
+  <si>
+    <t>A: #mealprepping</t>
+  </si>
+  <si>
+    <t>A: #pagne</t>
+  </si>
+  <si>
+    <t>A: #plantbased</t>
+  </si>
+  <si>
+    <t>A: #secret</t>
+  </si>
+  <si>
+    <t>A: #veganbudget</t>
+  </si>
+  <si>
+    <t>A: #viennalove</t>
+  </si>
+  <si>
+    <t>A: #westafricanfood</t>
+  </si>
+  <si>
+    <t>A: #zerowaste</t>
+  </si>
+  <si>
+    <t>A: _blockaye</t>
+  </si>
+  <si>
+    <t>A: _cteen</t>
+  </si>
+  <si>
+    <t>A: _jual_bonsai_mini_</t>
+  </si>
+  <si>
+    <t>A: _nour.khelifi_</t>
+  </si>
+  <si>
+    <t>A: _skchhina</t>
+  </si>
+  <si>
+    <t>A: _zaheerali</t>
+  </si>
+  <si>
+    <t>A: 14mount8000</t>
+  </si>
+  <si>
+    <t>A: 15cek</t>
+  </si>
+  <si>
+    <t>A: 1newsnz</t>
+  </si>
+  <si>
+    <t>A: 247interiors</t>
+  </si>
+  <si>
+    <t>A: 433</t>
+  </si>
+  <si>
+    <t>A: 8nd90</t>
+  </si>
+  <si>
+    <t>A: 9gag</t>
+  </si>
+  <si>
+    <t>A: 9geiik</t>
+  </si>
+  <si>
+    <t>A: aaylingk</t>
+  </si>
+  <si>
+    <t>A: abt.paisios</t>
+  </si>
+  <si>
+    <t>A: addisonraee</t>
+  </si>
+  <si>
+    <t>A: adskulubu</t>
+  </si>
+  <si>
+    <t>A: advice</t>
+  </si>
+  <si>
+    <t>A: ajc.global</t>
+  </si>
+  <si>
+    <t>A: ajdinewz</t>
+  </si>
+  <si>
+    <t>A: ajplusarabi</t>
+  </si>
+  <si>
+    <t>A: aladinelmafaalani</t>
+  </si>
+  <si>
+    <t>A: alevi_genclik_avusturya</t>
+  </si>
+  <si>
+    <t>A: aleviiyiiz</t>
+  </si>
+  <si>
+    <t>A: aleviyizcan</t>
+  </si>
+  <si>
+    <t>A: alexgreycosm</t>
+  </si>
+  <si>
+    <t>A: alinnail_wien</t>
+  </si>
+  <si>
+    <t>A: alkoholmomente</t>
+  </si>
+  <si>
+    <t>A: allforonefulda</t>
+  </si>
+  <si>
+    <t>A: alman_memes2.0</t>
+  </si>
+  <si>
+    <t>A: almazadic</t>
+  </si>
+  <si>
+    <t>A: alpbebecom</t>
+  </si>
+  <si>
+    <t>A: alpenvereinaustria</t>
+  </si>
+  <si>
+    <t>A: alpha_leaders</t>
+  </si>
+  <si>
+    <t>A: Amaniabuzahra</t>
+  </si>
+  <si>
+    <t>A: amnesty</t>
+  </si>
+  <si>
+    <t>A: anajohnson</t>
+  </si>
+  <si>
+    <t>A: andreea.balaban</t>
+  </si>
+  <si>
+    <t>A: andreschiebler</t>
+  </si>
+  <si>
+    <t>A: andrewjacked</t>
+  </si>
+  <si>
+    <t>A: angeladoe</t>
+  </si>
+  <si>
+    <t>A: angry_radical_feminist</t>
+  </si>
+  <si>
+    <t>A: annagiambersio</t>
+  </si>
+  <si>
+    <t>A: annitheduck</t>
+  </si>
+  <si>
+    <t>A: antennesteiermark</t>
+  </si>
+  <si>
+    <t>A: anthonyjoshua</t>
+  </si>
+  <si>
+    <t>A: antifa_w</t>
+  </si>
+  <si>
+    <t>A: antifascismapparel</t>
+  </si>
+  <si>
+    <t>A: antiflirting2</t>
+  </si>
+  <si>
+    <t>A: appledsign</t>
+  </si>
+  <si>
+    <t>A: arabicwords_0</t>
+  </si>
+  <si>
+    <t>A: arhiepiskopijatv</t>
+  </si>
+  <si>
+    <t>A: Ariandebose</t>
+  </si>
+  <si>
+    <t>A: arte.tv</t>
+  </si>
+  <si>
+    <t>A: asiri_kafagrup</t>
+  </si>
+  <si>
+    <t>A: asmaaiad</t>
+  </si>
+  <si>
+    <t>A: astrology_daily_horoscopes</t>
+  </si>
+  <si>
+    <t>A: astroolojim</t>
+  </si>
+  <si>
+    <t>A: atleticomadrid</t>
+  </si>
+  <si>
+    <t>A: awiblumenfeld</t>
+  </si>
+  <si>
+    <t>A: aylinkarabulut</t>
+  </si>
+  <si>
+    <t>A: b.netanyahu</t>
+  </si>
+  <si>
+    <t>A: baagiyodhey</t>
+  </si>
+  <si>
+    <t>A: baba.banta.singh.ji</t>
+  </si>
+  <si>
+    <t>A: babyentenbackup</t>
+  </si>
+  <si>
+    <t>A: baschly</t>
+  </si>
+  <si>
+    <t>A: baseberlin</t>
+  </si>
+  <si>
+    <t>A: basicsofsikhi</t>
+  </si>
+  <si>
+    <t>A: bbcnews</t>
+  </si>
+  <si>
+    <t>A: bbyoaustria</t>
+  </si>
+  <si>
+    <t>A: beatthemiles</t>
+  </si>
+  <si>
+    <t>A: berlinauslandermemes</t>
+  </si>
+  <si>
+    <t>A: berviansworld</t>
+  </si>
+  <si>
+    <t>A: bible.verses.a.day</t>
+  </si>
+  <si>
+    <t>A: bischof_stephan</t>
+  </si>
+  <si>
+    <t>A: bischofstefanoster</t>
+  </si>
+  <si>
+    <t>A: bitch</t>
+  </si>
+  <si>
+    <t>A: bitch.rising</t>
+  </si>
+  <si>
+    <t>A: bjennymontero</t>
+  </si>
+  <si>
+    <t>A: blairimani</t>
+  </si>
+  <si>
+    <t>A: bneiakiva.dorot</t>
+  </si>
+  <si>
+    <t>A: bneiakiva.wien</t>
+  </si>
+  <si>
+    <t>A: bneiakivade</t>
+  </si>
+  <si>
+    <t>A: bneiakivaschweiz</t>
+  </si>
+  <si>
+    <t>A: bnp.passau</t>
+  </si>
+  <si>
+    <t>A: boatico_yachting</t>
+  </si>
+  <si>
+    <t>A: bocadolobo</t>
+  </si>
+  <si>
+    <t>A: bodoschaefer</t>
+  </si>
+  <si>
+    <t>A: bodyengineers</t>
+  </si>
+  <si>
+    <t>A: bogorodicinhrambec</t>
+  </si>
+  <si>
+    <t>A: bongo_juden</t>
+  </si>
+  <si>
+    <t>A: bongoviennajuden</t>
+  </si>
+  <si>
+    <t>A: breakfastatfreddys</t>
+  </si>
+  <si>
+    <t>A: brittany_broski</t>
+  </si>
+  <si>
+    <t>A: brutalistbeton</t>
+  </si>
+  <si>
+    <t>A: bsiultimate</t>
+  </si>
+  <si>
+    <t>A: Bundesjugendvertretung</t>
+  </si>
+  <si>
+    <t>A: butchware</t>
+  </si>
+  <si>
+    <t>A: butunsirribozdun</t>
+  </si>
+  <si>
+    <t>A: bviral</t>
+  </si>
+  <si>
+    <t>A: cambridgecentralmosque</t>
+  </si>
+  <si>
+    <t>A: Cambridgemosque</t>
+  </si>
+  <si>
+    <t>A: candik_lein</t>
+  </si>
+  <si>
+    <t>A: canlilardunyasi</t>
+  </si>
+  <si>
+    <t>A: carryminati</t>
+  </si>
+  <si>
+    <t>A: carsisimsek1</t>
+  </si>
+  <si>
+    <t>A: catholicfaithformation</t>
+  </si>
+  <si>
+    <t>A: celli_1000</t>
+  </si>
+  <si>
+    <t>A: champagnerkraft</t>
+  </si>
+  <si>
+    <t>A: championsleague</t>
+  </si>
+  <si>
+    <t>A: chandlerbingunofficialfriends</t>
+  </si>
+  <si>
+    <t>A: changiyan_sachiyan_glaan</t>
+  </si>
+  <si>
+    <t>A: chatdiss_</t>
+  </si>
+  <si>
+    <t>A: chiaraseidl</t>
+  </si>
+  <si>
+    <t>A: chriswiederkehr</t>
+  </si>
+  <si>
+    <t>A: churchmemesministry</t>
+  </si>
+  <si>
+    <t>A: clips</t>
+  </si>
+  <si>
+    <t>A: come2stay</t>
+  </si>
+  <si>
+    <t>A: comm3mes</t>
+  </si>
+  <si>
+    <t>A: commentfasheee5</t>
+  </si>
+  <si>
+    <t>A: corinnamilborn</t>
+  </si>
+  <si>
+    <t>A: coverageduo</t>
+  </si>
+  <si>
+    <t>A: crankbrothers</t>
+  </si>
+  <si>
+    <t>A: crimson_day_</t>
+  </si>
+  <si>
+    <t>A: crkva_diseldorf</t>
+  </si>
+  <si>
+    <t>A: crnogorcevic_ivan</t>
+  </si>
+  <si>
+    <t>A: crvenazvezdafk</t>
+  </si>
+  <si>
+    <t>A: csiriano</t>
+  </si>
+  <si>
+    <t>A: cznburak</t>
+  </si>
+  <si>
+    <t>A: danaemercer</t>
+  </si>
+  <si>
+    <t>A: danica_crnogorcevic</t>
+  </si>
+  <si>
+    <t>A: dankjewish</t>
+  </si>
+  <si>
+    <t>A: dariadaria</t>
+  </si>
+  <si>
+    <t>A: dasbibelprojekt</t>
+  </si>
+  <si>
+    <t>A: deinbeichtstuhl</t>
+  </si>
+  <si>
+    <t>A: derfunke.at</t>
+  </si>
+  <si>
+    <t>A: derstandardat</t>
+  </si>
+  <si>
+    <t>A: derzwuckundich</t>
+  </si>
+  <si>
+    <t>A: desi.sarcasm</t>
+  </si>
+  <si>
+    <t>A: dianagoldbergmusic</t>
+  </si>
+  <si>
+    <t>A: diegruenen</t>
+  </si>
+  <si>
+    <t>A: dietagespresse</t>
+  </si>
+  <si>
+    <t>A: dirkeggercrv</t>
+  </si>
+  <si>
+    <t>A: discoverearth</t>
+  </si>
+  <si>
+    <t>A: discoverwildlife</t>
+  </si>
+  <si>
     <t>A: dissociadid</t>
   </si>
   <si>
+    <t>A: dnevnadozabeograda</t>
+  </si>
+  <si>
+    <t>A: downbadpolice</t>
+  </si>
+  <si>
+    <t>A: dr._ali_oezdil</t>
+  </si>
+  <si>
+    <t>A: dr.nikolausraab</t>
+  </si>
+  <si>
+    <t>A: dr.raniaawaad</t>
+  </si>
+  <si>
+    <t>A: drjohanneshartl</t>
+  </si>
+  <si>
+    <t>A: dtv_verlag</t>
+  </si>
+  <si>
+    <t>A: duhovne_pouke_</t>
+  </si>
+  <si>
+    <t>A: eatinghealthytoday</t>
+  </si>
+  <si>
+    <t>A: ecoindianenfrance</t>
+  </si>
+  <si>
+    <t>A: edgymemesforworthlessteens</t>
+  </si>
+  <si>
+    <t>A: eine.reise.ins.ungewisse</t>
+  </si>
+  <si>
+    <t>A: elevation_cycling</t>
+  </si>
+  <si>
+    <t>A: elevationworship</t>
+  </si>
+  <si>
+    <t>A: elhotzo</t>
+  </si>
+  <si>
+    <t>A: enews</t>
+  </si>
+  <si>
+    <t>A: englishwithnab</t>
+  </si>
+  <si>
+    <t>A: epicchristianmemes</t>
+  </si>
+  <si>
+    <t>A: erkeklerinicsesi</t>
+  </si>
+  <si>
+    <t>A: erzbistumhamburg</t>
+  </si>
+  <si>
+    <t>A: erzdioezesewien</t>
+  </si>
+  <si>
+    <t>A: espn</t>
+  </si>
+  <si>
+    <t>A: espnmma</t>
+  </si>
+  <si>
+    <t>A: esraezmecii</t>
+  </si>
+  <si>
+    <t>A: esraxgram</t>
+  </si>
+  <si>
+    <t>A: eujs_official</t>
+  </si>
+  <si>
+    <t>A: everydayrefugees</t>
+  </si>
+  <si>
+    <t>A: exotiquetv</t>
+  </si>
+  <si>
+    <t>A: eyesneverliechico</t>
+  </si>
+  <si>
+    <t>A: ezhel06</t>
+  </si>
+  <si>
+    <t>A: faktastisch</t>
+  </si>
+  <si>
+    <t>A: falakenoorboutique</t>
+  </si>
+  <si>
+    <t>A: faridbangbang</t>
+  </si>
+  <si>
+    <t>A: fathimehmettmacogluu</t>
+  </si>
+  <si>
+    <t>A: faz</t>
+  </si>
+  <si>
+    <t>A: fcbarcelona</t>
+  </si>
+  <si>
+    <t>A: fcbayern</t>
+  </si>
+  <si>
+    <t>A: fdpbt</t>
+  </si>
+  <si>
+    <t>A: felleis_knittelfelder</t>
+  </si>
+  <si>
+    <t>A: fenerbahce</t>
+  </si>
+  <si>
+    <t>A: fereidooni.karim</t>
+  </si>
+  <si>
+    <t>A: feridheider</t>
+  </si>
+  <si>
+    <t>A: ferithafez</t>
+  </si>
+  <si>
+    <t>A: filmup.co</t>
+  </si>
+  <si>
+    <t>A: filthy.meme.whore.v2</t>
+  </si>
+  <si>
+    <t>A: financialprofessional</t>
+  </si>
+  <si>
+    <t>A: fitinn.at</t>
+  </si>
+  <si>
+    <t>A: fkaustriawien</t>
+  </si>
+  <si>
+    <t>A: followmeifyouarehappy</t>
+  </si>
+  <si>
+    <t>A: forbes</t>
+  </si>
+  <si>
+    <t>A: freundship</t>
+  </si>
+  <si>
+    <t>A: fuerstfoto</t>
+  </si>
+  <si>
+    <t>A: funk</t>
+  </si>
+  <si>
+    <t>A: furkan.perg</t>
+  </si>
+  <si>
+    <t>A: gameofthronesnotofficial</t>
+  </si>
+  <si>
+    <t>A: garyvee</t>
+  </si>
+  <si>
+    <t>A: gatewayworship</t>
+  </si>
+  <si>
+    <t>A: getevidenced</t>
+  </si>
+  <si>
+    <t>A: gfgmbh</t>
+  </si>
+  <si>
+    <t>A: ghantaa</t>
+  </si>
+  <si>
+    <t>A: giani_sant_singh_maskeen</t>
+  </si>
+  <si>
+    <t>A: gjmoesterreich</t>
+  </si>
+  <si>
+    <t>A: goalglobal</t>
+  </si>
+  <si>
+    <t>A: godisgrey</t>
+  </si>
+  <si>
+    <t>A: gottfriedundsoehne</t>
+  </si>
+  <si>
+    <t>A: greenpeaceaustria</t>
+  </si>
+  <si>
+    <t>A: grg21.franklinstrasse21</t>
+  </si>
+  <si>
+    <t>A: grupyorumofficial</t>
+  </si>
+  <si>
+    <t>A: guardian</t>
+  </si>
+  <si>
+    <t>A: gurbani.quotes_</t>
+  </si>
+  <si>
+    <t>A: gurbani_n_quotes</t>
+  </si>
+  <si>
+    <t>A: gurmati_vichar</t>
+  </si>
+  <si>
+    <t>A: hasidiminusa</t>
+  </si>
+  <si>
+    <t>A: hayaomiyazaki</t>
+  </si>
+  <si>
+    <t>A: hebrewmemes</t>
+  </si>
+  <si>
+    <t>A: herbststrasse</t>
+  </si>
+  <si>
+    <t>A: herkessbirazdelidir</t>
+  </si>
+  <si>
+    <t>A: herzstaerkend</t>
+  </si>
+  <si>
+    <t>A: hey.alma</t>
+  </si>
+  <si>
+    <t>A: hiighholder</t>
+  </si>
+  <si>
+    <t>A: hillsong</t>
+  </si>
+  <si>
+    <t>A: hnaftali</t>
+  </si>
+  <si>
+    <t>A: hodakatebi</t>
+  </si>
+  <si>
+    <t>A: hoenest</t>
+  </si>
+  <si>
+    <t>A: hoer.oesterreich</t>
+  </si>
+  <si>
+    <t>A: homechurch_salzburg</t>
+  </si>
+  <si>
+    <t>A: horrordatestorys</t>
+  </si>
+  <si>
+    <t>A: hram.vaskrsenja.bec</t>
+  </si>
+  <si>
+    <t>A: hudas_welten_blog</t>
+  </si>
+  <si>
+    <t>A: humansofjudaism</t>
+  </si>
+  <si>
+    <t>A: iamchristlclear</t>
+  </si>
+  <si>
+    <t>A: iamstudent_at</t>
+  </si>
+  <si>
+    <t>A: ibrahimtenekeci</t>
+  </si>
+  <si>
+    <t>A: idf</t>
+  </si>
+  <si>
+    <t>A: idfonline</t>
+  </si>
+  <si>
+    <t>A: ikartoglu</t>
+  </si>
+  <si>
+    <t>A: ilsedelangemusic</t>
+  </si>
+  <si>
+    <t>A: imaginetrip__</t>
+  </si>
+  <si>
+    <t>A: imamomarsuleiman</t>
+  </si>
+  <si>
+    <t>A: imjustbesti</t>
+  </si>
+  <si>
+    <t>A: in_dubio_pro_mindermeinung</t>
+  </si>
+  <si>
+    <t>A: inesw.bs</t>
+  </si>
+  <si>
+    <t>A: insta.jews</t>
+  </si>
+  <si>
+    <t>A: insta_desli</t>
+  </si>
+  <si>
+    <t>A: insta_frum</t>
+  </si>
+  <si>
+    <t>A: interestingengineering</t>
+  </si>
+  <si>
+    <t>A: iof_orienteering</t>
+  </si>
+  <si>
+    <t>A: irg.sbg</t>
+  </si>
+  <si>
+    <t>A: ishaq.calligraphy</t>
+  </si>
+  <si>
+    <t>A: islamchanneltv</t>
+  </si>
+  <si>
+    <t>A: islamictreasures</t>
+  </si>
+  <si>
+    <t>A: islamify</t>
+  </si>
+  <si>
+    <t>A: islamischeFakten</t>
+  </si>
+  <si>
+    <t>A: israelipm</t>
+  </si>
+  <si>
+    <t>A: isyoufunny</t>
+  </si>
+  <si>
+    <t>A: izwien</t>
+  </si>
+  <si>
+    <t>A: j.community</t>
+  </si>
+  <si>
+    <t>A: ja.und.amen</t>
+  </si>
+  <si>
+    <t>A: jad_bejad</t>
+  </si>
+  <si>
+    <t>A: jakob_koordinierungsstelle</t>
+  </si>
+  <si>
+    <t>A: jattisjattsaleo</t>
+  </si>
+  <si>
+    <t>A: jeanettemokosch</t>
+  </si>
+  <si>
+    <t>A: jessicaoutofthecloset</t>
+  </si>
+  <si>
+    <t>A: jesus.ch</t>
+  </si>
+  <si>
+    <t>A: jesusarmy.official</t>
+  </si>
+  <si>
+    <t>A: jesusistmeinleben</t>
+  </si>
+  <si>
+    <t>A: jesusmemes</t>
+  </si>
+  <si>
+    <t>A: jewishbreakingnews</t>
+  </si>
+  <si>
+    <t>A: jewishgirlprobs</t>
+  </si>
+  <si>
+    <t>A: jewishmemes</t>
+  </si>
+  <si>
+    <t>A: jewishmuseumvienna</t>
+  </si>
+  <si>
+    <t>A: jewishvibes</t>
+  </si>
+  <si>
+    <t>A: jews_of_ny</t>
+  </si>
+  <si>
+    <t>A: JimmySnowtss</t>
+  </si>
+  <si>
+    <t>A: joehwien</t>
+  </si>
+  <si>
+    <t>A: johanna.mikl.leitner</t>
+  </si>
+  <si>
+    <t>A: johannesbartl</t>
+  </si>
+  <si>
+    <t>A: johnlcooper</t>
+  </si>
+  <si>
+    <t>A: jokezar</t>
+  </si>
+  <si>
+    <t>A: jovlekaline</t>
+  </si>
+  <si>
+    <t>A: jrichardnoel</t>
+  </si>
+  <si>
+    <t>A: jsud_official</t>
+  </si>
+  <si>
+    <t>A: juan_son_1210</t>
+  </si>
+  <si>
+    <t>A: jubileemedia</t>
+  </si>
+  <si>
+    <t>A: jufodig</t>
+  </si>
+  <si>
+    <t>A: jugendtreffen</t>
+  </si>
+  <si>
+    <t>A: jukowien</t>
+  </si>
+  <si>
+    <t>A: juliaandgil</t>
+  </si>
+  <si>
+    <t>A: juliandthechurch</t>
+  </si>
+  <si>
+    <t>A: jungekirchewien</t>
+  </si>
+  <si>
+    <t>A: jungmediziner</t>
+  </si>
+  <si>
+    <t>A: kakaotschifrau</t>
+  </si>
+  <si>
+    <t>A: kaneki_kiss</t>
+  </si>
+  <si>
+    <t>A: kardinalwien</t>
+  </si>
+  <si>
+    <t>A: karen_millen</t>
+  </si>
+  <si>
+    <t>A: karikaturhane</t>
+  </si>
+  <si>
+    <t>A: karimjamael</t>
+  </si>
+  <si>
+    <t>A: karsudonmez</t>
+  </si>
+  <si>
+    <t>A: katholischejugendwien</t>
+  </si>
+  <si>
+    <t>A: keineinsamerbaum</t>
+  </si>
+  <si>
+    <t>A: kelebackstage</t>
+  </si>
+  <si>
+    <t>A: kentelamal</t>
+  </si>
+  <si>
+    <t>A: keshet_de</t>
+  </si>
+  <si>
+    <t>A: keto.fit.meal</t>
+  </si>
+  <si>
+    <t>A: ketodiettracker</t>
+  </si>
+  <si>
+    <t>A: key2life_festival</t>
+  </si>
+  <si>
+    <t>A: khabib_nurmagomedov</t>
+  </si>
+  <si>
+    <t>A: khalsa_aid</t>
+  </si>
+  <si>
+    <t>A: kirchgasser_photography</t>
+  </si>
+  <si>
+    <t>A: kisanektamorcha</t>
+  </si>
+  <si>
+    <t>A: kizlarinicesesiiii</t>
+  </si>
+  <si>
+    <t>A: kjooe</t>
+  </si>
+  <si>
+    <t>A: kleinexpoetin</t>
+  </si>
+  <si>
+    <t>A: kleinezeitungnext</t>
+  </si>
+  <si>
+    <t>A: klostermariaschutz</t>
+  </si>
+  <si>
+    <t>A: kochrezpete</t>
+  </si>
+  <si>
+    <t>A: kspacewien</t>
+  </si>
+  <si>
+    <t>A: kumarskitchenaustria</t>
+  </si>
+  <si>
+    <t>A: kurtisconner</t>
+  </si>
+  <si>
+    <t>A: lacasadepapel</t>
+  </si>
+  <si>
+    <t>A: lachkrampfbilder</t>
+  </si>
+  <si>
+    <t>A: lafashionfiles</t>
+  </si>
+  <si>
+    <t>A: latenightberlin</t>
+  </si>
+  <si>
+    <t>A: leanwithlilly</t>
+  </si>
+  <si>
+    <t>A: leighturnerfcdo</t>
+  </si>
+  <si>
+    <t>A: leni_lafayette</t>
+  </si>
+  <si>
+    <t>A: lesbiancinema</t>
+  </si>
+  <si>
+    <t>A: Likrat_Austria</t>
+  </si>
+  <si>
+    <t>A: linkswien</t>
+  </si>
+  <si>
+    <t>A: linlouuu</t>
+  </si>
+  <si>
+    <t>A: liorsuchard</t>
+  </si>
+  <si>
+    <t>A: lisafasl</t>
+  </si>
+  <si>
+    <t>A: lisamarie_schiffner</t>
+  </si>
+  <si>
+    <t>A: liverpoolfc</t>
+  </si>
+  <si>
     <t>A: logos.ai</t>
   </si>
   <si>
+    <t>A: lolmemesop</t>
+  </si>
+  <si>
+    <t>A: lordposts</t>
+  </si>
+  <si>
+    <t>A: loretto_wiennoe</t>
+  </si>
+  <si>
+    <t>A: lorettogemeinschaft</t>
+  </si>
+  <si>
+    <t>A: lutherische_stadtkirche_wien</t>
+  </si>
+  <si>
+    <t>A: m10_official</t>
+  </si>
+  <si>
+    <t>A: m3_jugend</t>
+  </si>
+  <si>
+    <t>A: maapilim_vienna</t>
+  </si>
+  <si>
+    <t>A: magda.bachi</t>
+  </si>
+  <si>
+    <t>A: makeupartvienna</t>
+  </si>
+  <si>
+    <t>A: mallofmemes</t>
+  </si>
+  <si>
+    <t>A: manitateroru</t>
+  </si>
+  <si>
+    <t>A: manshingaar</t>
+  </si>
+  <si>
+    <t>A: markruffalo</t>
+  </si>
+  <si>
+    <t>A: marvel</t>
+  </si>
+  <si>
+    <t>A: marvelstudios</t>
+  </si>
+  <si>
+    <t>A: mateitulban</t>
+  </si>
+  <si>
+    <t>A: mati.randow</t>
+  </si>
+  <si>
+    <t>A: matthewmeyerart</t>
+  </si>
+  <si>
+    <t>A: maxfromtax</t>
+  </si>
+  <si>
+    <t>A: meduniwien</t>
+  </si>
+  <si>
+    <t>A: meilechkohn</t>
+  </si>
+  <si>
+    <t>A: memelord</t>
+  </si>
+  <si>
     <t>A: memesaz</t>
   </si>
   <si>
+    <t>A: memesforjesus</t>
+  </si>
+  <si>
+    <t>A: memeshiach</t>
+  </si>
+  <si>
+    <t>A: memesofjudaism</t>
+  </si>
+  <si>
+    <t>A: memezar</t>
+  </si>
+  <si>
+    <t>A: michaelbonvalot</t>
+  </si>
+  <si>
+    <t>A: michaelludwig_official</t>
+  </si>
+  <si>
+    <t>A: migrantifawien</t>
+  </si>
+  <si>
+    <t>A: mikiza.blog</t>
+  </si>
+  <si>
+    <t>A: millanefriesen</t>
+  </si>
+  <si>
+    <t>A: mindsetofgreatness</t>
+  </si>
+  <si>
+    <t>A: miradadelasierra</t>
+  </si>
+  <si>
+    <t>A: mirafloresvienna</t>
+  </si>
+  <si>
+    <t>A: missio_at</t>
+  </si>
+  <si>
+    <t>A: mitchleeuwe</t>
+  </si>
+  <si>
+    <t>A: mjoe_official</t>
+  </si>
+  <si>
+    <t>A: mmd</t>
+  </si>
+  <si>
+    <t>A: modeblogg</t>
+  </si>
+  <si>
+    <t>A: moralifashion</t>
+  </si>
+  <si>
+    <t>A: moroccoworldnews</t>
+  </si>
+  <si>
+    <t>A: mosalah</t>
+  </si>
+  <si>
+    <t>A: moshiverse</t>
+  </si>
+  <si>
+    <t>A: mosquitos_ultimate</t>
+  </si>
+  <si>
+    <t>A: motivationalmoments</t>
+  </si>
+  <si>
+    <t>A: muftimenkofficial</t>
+  </si>
+  <si>
+    <t>A: muftimenkreminders</t>
+  </si>
+  <si>
+    <t>A: muna.duzdar</t>
+  </si>
+  <si>
+    <t>A: musiciantee</t>
+  </si>
+  <si>
+    <t>A: muslim</t>
+  </si>
+  <si>
+    <t>A: muslimsoftheworld</t>
+  </si>
+  <si>
+    <t>A: mvslimhumor</t>
+  </si>
+  <si>
+    <t>A: nanolive_sa</t>
+  </si>
+  <si>
+    <t>A: natgeoadventures</t>
+  </si>
+  <si>
+    <t>A: nazjuju</t>
+  </si>
+  <si>
+    <t>A: NBA</t>
+  </si>
+  <si>
+    <t>A: nemouel_</t>
+  </si>
+  <si>
+    <t>A: neos_eu</t>
+  </si>
+  <si>
+    <t>A: neos_wien</t>
+  </si>
+  <si>
+    <t>A: netflixnmovies</t>
+  </si>
+  <si>
+    <t>A: neumannsofie</t>
+  </si>
+  <si>
+    <t>A: never.again.right.now</t>
+  </si>
+  <si>
+    <t>A: ninastrehl</t>
+  </si>
+  <si>
+    <t>A: nissimofficial</t>
+  </si>
+  <si>
+    <t>A: noodnik_</t>
+  </si>
+  <si>
+    <t>A: noumanalikhanofficial</t>
+  </si>
+  <si>
+    <t>A: novritsch</t>
+  </si>
+  <si>
+    <t>A: now_you_see_me_moria</t>
+  </si>
+  <si>
+    <t>A: noway_srib</t>
+  </si>
+  <si>
+    <t>A: nowhitesaviors</t>
+  </si>
+  <si>
+    <t>A: nugget</t>
+  </si>
+  <si>
+    <t>A: obros_official</t>
+  </si>
+  <si>
+    <t>A: ofek_beratung</t>
+  </si>
+  <si>
+    <t>A: officialbenshapiro</t>
+  </si>
+  <si>
     <t>A: ohlafrance</t>
   </si>
   <si>
+    <t>A: orf.at</t>
+  </si>
+  <si>
+    <t>A: ornad.vienna</t>
+  </si>
+  <si>
+    <t>A: otacastvo</t>
+  </si>
+  <si>
+    <t>A: overflow.wrneustadt</t>
+  </si>
+  <si>
+    <t>A: oxford_uni</t>
+  </si>
+  <si>
+    <t>A: pablohaseloficial</t>
+  </si>
+  <si>
+    <t>A: pakalupapitocamel</t>
+  </si>
+  <si>
+    <t>A: palidelights</t>
+  </si>
+  <si>
+    <t>A: pamela_rf</t>
+  </si>
+  <si>
+    <t>A: papalpreet_singh</t>
+  </si>
+  <si>
+    <t>A: pbfspc</t>
+  </si>
+  <si>
+    <t>A: perla.danoch</t>
+  </si>
+  <si>
+    <t>A: persianpoetics</t>
+  </si>
+  <si>
+    <t>A: peter_hacker_wien</t>
+  </si>
+  <si>
+    <t>A: pilotviking</t>
+  </si>
+  <si>
+    <t>A: piques</t>
+  </si>
+  <si>
+    <t>A: popcultureinpictures_</t>
+  </si>
+  <si>
+    <t>A: popserbian</t>
+  </si>
+  <si>
+    <t>A: prageru</t>
+  </si>
+  <si>
+    <t>A: premierleague</t>
+  </si>
+  <si>
+    <t>A: presse_service_vie</t>
+  </si>
+  <si>
+    <t>A: priesterseminarregensburg</t>
+  </si>
+  <si>
+    <t>A: prijatelji_manastira_hilandara</t>
+  </si>
+  <si>
+    <t>A: pubity</t>
+  </si>
+  <si>
+    <t>A: pubitypets</t>
+  </si>
+  <si>
+    <t>A: pun_bible</t>
+  </si>
+  <si>
+    <t>A: punjabi______tadka</t>
+  </si>
+  <si>
+    <t>A: punjabiwebsite</t>
+  </si>
+  <si>
+    <t>A: quransayings</t>
+  </si>
+  <si>
+    <t>A: rachel0ates</t>
+  </si>
+  <si>
+    <t>A: raf_camora</t>
+  </si>
+  <si>
+    <t>A: rafftar_rai</t>
+  </si>
+  <si>
+    <t>A: rakic_ufc</t>
+  </si>
+  <si>
+    <t>A: rav_albert_offiziell</t>
+  </si>
+  <si>
+    <t>A: recordjet</t>
+  </si>
+  <si>
+    <t>A: redfishstream</t>
+  </si>
+  <si>
+    <t>A: redmediakollektiv</t>
+  </si>
+  <si>
+    <t>A: redstarbelgrade.rs</t>
+  </si>
+  <si>
+    <t>A: reflab.ch</t>
+  </si>
+  <si>
+    <t>A: regloloji</t>
+  </si>
+  <si>
+    <t>A: reneeelisegoldsberry</t>
+  </si>
+  <si>
+    <t>A: renklii_mutfagmm</t>
+  </si>
+  <si>
+    <t>A: revolt_cg</t>
+  </si>
+  <si>
+    <t>A: ruthe_offiziell</t>
+  </si>
+  <si>
+    <t>A: s.ferox</t>
+  </si>
+  <si>
+    <t>A: saintverse</t>
+  </si>
+  <si>
+    <t>A: salam.oida</t>
+  </si>
+  <si>
+    <t>A: salamfm.de</t>
+  </si>
+  <si>
+    <t>A: sankt.jugend</t>
+  </si>
+  <si>
+    <t>A: sapphic_energy</t>
+  </si>
+  <si>
+    <t>A: sarahmariepoetry</t>
+  </si>
+  <si>
+    <t>A: sarkilardanparcalar</t>
+  </si>
+  <si>
+    <t>A: savastyanov71</t>
+  </si>
+  <si>
+    <t>A: saykoturkeys</t>
+  </si>
+  <si>
+    <t>A: schwarzenegger</t>
+  </si>
+  <si>
+    <t>A: science.jesus.memes</t>
+  </si>
+  <si>
+    <t>A: seawatchcrew</t>
+  </si>
+  <si>
+    <t>A: sebastiankurz</t>
+  </si>
+  <si>
+    <t>A: seekersguidanceorg</t>
+  </si>
+  <si>
+    <t>A: seize_the_memes</t>
+  </si>
+  <si>
+    <t>A: seligkeitsdinge_</t>
+  </si>
+  <si>
+    <t>A: sewstine</t>
+  </si>
+  <si>
+    <t>A: sgoe.at</t>
+  </si>
+  <si>
+    <t>A: shakir.amena</t>
+  </si>
+  <si>
+    <t>A: shakira</t>
+  </si>
+  <si>
+    <t>A: sharghzadeh</t>
+  </si>
+  <si>
+    <t>A: shiurinternational</t>
+  </si>
+  <si>
+    <t>A: shonenworld_</t>
+  </si>
+  <si>
+    <t>A: shop.LTK</t>
+  </si>
+  <si>
+    <t>A: sigmundfreudprivatuni</t>
+  </si>
+  <si>
+    <t>A: sikhexpo</t>
+  </si>
+  <si>
+    <t>A: sikhi2go</t>
+  </si>
+  <si>
+    <t>A: sikhreddit</t>
+  </si>
+  <si>
+    <t>A: sikhyouthuk</t>
+  </si>
+  <si>
+    <t>A: simseklergrubu</t>
+  </si>
+  <si>
+    <t>A: singh_speaks</t>
+  </si>
+  <si>
+    <t>A: skimania.it</t>
+  </si>
+  <si>
+    <t>A: socmod</t>
+  </si>
+  <si>
+    <t>A: sonnenflume</t>
+  </si>
+  <si>
+    <t>A: sostrenegrene</t>
+  </si>
+  <si>
+    <t>A: sosyalistmizah</t>
+  </si>
+  <si>
+    <t>A: soulfood_cafe_wien</t>
+  </si>
+  <si>
+    <t>A: spongebob.memepage</t>
+  </si>
+  <si>
+    <t>A: srpskacast</t>
+  </si>
+  <si>
+    <t>A: srpskapravoslavnacrkvagmunden</t>
+  </si>
+  <si>
+    <t>A: standwithus</t>
+  </si>
+  <si>
+    <t>A: struthless69</t>
+  </si>
+  <si>
+    <t>A: subwayhands</t>
+  </si>
+  <si>
+    <t>A: subwaytherapy</t>
+  </si>
+  <si>
+    <t>A: success.portal</t>
+  </si>
+  <si>
+    <t>A: sumeyyelambrecht</t>
+  </si>
+  <si>
+    <t>A: svoboda.anton</t>
+  </si>
+  <si>
+    <t>A: sweatybetty</t>
+  </si>
+  <si>
+    <t>A: tagesschau</t>
+  </si>
+  <si>
+    <t>A: talhataskinsoyx</t>
+  </si>
+  <si>
+    <t>A: tarek_bae</t>
+  </si>
+  <si>
+    <t>A: tarik_mete</t>
+  </si>
+  <si>
+    <t>A: taz.die_tageszeitung</t>
+  </si>
+  <si>
+    <t>A: teamcevans</t>
+  </si>
+  <si>
+    <t>A: teamdeefit</t>
+  </si>
+  <si>
+    <t>A: teddysphotos</t>
+  </si>
+  <si>
+    <t>A: the.vulva.gallery</t>
+  </si>
+  <si>
+    <t>A: the_protestant_christian</t>
+  </si>
+  <si>
+    <t>A: thebestchristianmemes</t>
+  </si>
+  <si>
+    <t>A: thecakinggirl</t>
+  </si>
+  <si>
+    <t>A: thecircle_sessions</t>
+  </si>
+  <si>
+    <t>A: thegoodquote</t>
+  </si>
+  <si>
+    <t>A: theinkquisites</t>
+  </si>
+  <si>
+    <t>A: thejerusalem_post</t>
+  </si>
+  <si>
+    <t>A: thenaughtytrolls</t>
+  </si>
+  <si>
+    <t>A: therealfatih</t>
+  </si>
+  <si>
+    <t>A: therefinedwoman</t>
+  </si>
+  <si>
+    <t>A: therock</t>
+  </si>
+  <si>
+    <t>A: thesweetfactory.at</t>
+  </si>
+  <si>
+    <t>A: theturntjew</t>
+  </si>
+  <si>
+    <t>A: thevoicekids</t>
+  </si>
+  <si>
+    <t>A: thewonderofmercy</t>
+  </si>
+  <si>
+    <t>A: thiememe_verlag</t>
+  </si>
+  <si>
+    <t>A: thom_bushcraftprotal_cz</t>
+  </si>
+  <si>
+    <t>A: thom_wien</t>
+  </si>
+  <si>
+    <t>A: thuglifeaustria</t>
+  </si>
+  <si>
+    <t>A: tipgenelmerkez</t>
+  </si>
+  <si>
+    <t>A: tobiashiems</t>
+  </si>
+  <si>
+    <t>A: tomholland2013</t>
+  </si>
+  <si>
+    <t>A: toogoodtogo.at</t>
+  </si>
+  <si>
+    <t>A: topfakten</t>
+  </si>
+  <si>
+    <t>A: topsknives</t>
+  </si>
+  <si>
+    <t>A: torahdaily</t>
+  </si>
+  <si>
+    <t>A: towardseternity</t>
+  </si>
+  <si>
+    <t>A: trollpunjab</t>
+  </si>
+  <si>
+    <t>A: trollvid.s</t>
+  </si>
+  <si>
+    <t>A: trtdeutsch</t>
+  </si>
+  <si>
+    <t>A: truth_israel</t>
+  </si>
+  <si>
+    <t>A: tubaerguen</t>
+  </si>
+  <si>
+    <t>A: tupoka.o</t>
+  </si>
+  <si>
+    <t>A: ufcbtsport</t>
+  </si>
+  <si>
+    <t>A: uglies</t>
+  </si>
+  <si>
+    <t>A: unitednations</t>
+  </si>
+  <si>
+    <t>A: uyenthininh</t>
+  </si>
+  <si>
+    <t>A: vagt_1210</t>
+  </si>
+  <si>
+    <t>A: vanderbellen</t>
+  </si>
+  <si>
+    <t>A: vanillaholica</t>
+  </si>
+  <si>
+    <t>A: veganbowls</t>
+  </si>
+  <si>
+    <t>A: veganewunder</t>
+  </si>
+  <si>
+    <t>A: velvetcoke</t>
+  </si>
+  <si>
+    <t>A: vicdeangelis</t>
+  </si>
+  <si>
+    <t>A: vice_de</t>
+  </si>
+  <si>
+    <t>A: vicky_spielfrau</t>
+  </si>
+  <si>
+    <t>A: vienna.house.stories</t>
+  </si>
+  <si>
+    <t>A: viennawurstelstand</t>
+  </si>
+  <si>
+    <t>A: viyana_aleviler_toplumu</t>
+  </si>
+  <si>
+    <t>A: volim_pravoslavlje</t>
+  </si>
+  <si>
+    <t>A: vshred</t>
+  </si>
+  <si>
+    <t>A: vtrakit.official</t>
+  </si>
+  <si>
+    <t>A: vural.uemit</t>
+  </si>
+  <si>
+    <t>A: wafa.salam.kensho</t>
+  </si>
+  <si>
     <t>A: walking_through_history</t>
   </si>
   <si>
-    <t>A: karsudonmez</t>
-  </si>
-  <si>
-    <t>A: #kpalimé</t>
-  </si>
-  <si>
-    <t>A: mvslimhumor</t>
-  </si>
-  <si>
-    <t>A: millanefriesen</t>
-  </si>
-  <si>
-    <t>A: _blockaye</t>
-  </si>
-  <si>
-    <t>A: rachel0ates</t>
-  </si>
-  <si>
-    <t>A: inesw.bs</t>
-  </si>
-  <si>
-    <t>A: discoverwildlife</t>
-  </si>
-  <si>
-    <t>A: eujs_official</t>
-  </si>
-  <si>
-    <t>A: ferithafez</t>
-  </si>
-  <si>
-    <t>A: adskulubu</t>
-  </si>
-  <si>
-    <t>A: modeblogg</t>
-  </si>
-  <si>
-    <t>A: hey.alma</t>
-  </si>
-  <si>
-    <t>A: noodnik_</t>
-  </si>
-  <si>
-    <t>A: sigmundfreudprivatuni</t>
-  </si>
-  <si>
-    <t>A: carryminati</t>
+    <t>A: wearmoidancewear</t>
+  </si>
+  <si>
+    <t>A: weedhumor</t>
+  </si>
+  <si>
+    <t>A: weinausderhoelle</t>
+  </si>
+  <si>
+    <t>A: welsh_comrade</t>
+  </si>
+  <si>
+    <t>A: westoestlicherpoet</t>
+  </si>
+  <si>
+    <t>A: wieneralltagspoeten</t>
+  </si>
+  <si>
+    <t>A: wienerlinien</t>
+  </si>
+  <si>
+    <t>A: wienzufuss</t>
+  </si>
+  <si>
+    <t>A: wisdoms_of_vienna</t>
+  </si>
+  <si>
+    <t>A: womanslook</t>
+  </si>
+  <si>
+    <t>A: wordsbytaher</t>
+  </si>
+  <si>
+    <t>A: worldbneiakiva</t>
+  </si>
+  <si>
+    <t>A: worldjewishcongress</t>
+  </si>
+  <si>
+    <t>A: worldofbrands</t>
+  </si>
+  <si>
+    <t>A: wujs_official</t>
+  </si>
+  <si>
+    <t>A: xaviernaidoo</t>
+  </si>
+  <si>
+    <t>A: yadvashem</t>
+  </si>
+  <si>
+    <t>A: yannick.chaumont</t>
+  </si>
+  <si>
+    <t>A: yannickshetty</t>
+  </si>
+  <si>
+    <t>A: yoelyweiss</t>
+  </si>
+  <si>
+    <t>A: youcancallmeaz</t>
+  </si>
+  <si>
+    <t>A: youmagazintherealstuff</t>
   </si>
   <si>
     <t>A: younesjones</t>
   </si>
   <si>
-    <t>A: sapphic_energy</t>
-  </si>
-  <si>
-    <t>A: _jual_bonsai_mini_</t>
-  </si>
-  <si>
-    <t>A: sikhyouthuk</t>
-  </si>
-  <si>
-    <t>A: derfunke.at</t>
-  </si>
-  <si>
-    <t>A: iamchristlclear</t>
-  </si>
-  <si>
-    <t>A: skimania.it</t>
-  </si>
-  <si>
-    <t>A: karikaturhane</t>
-  </si>
-  <si>
-    <t>A: dtv_verlag</t>
-  </si>
-  <si>
-    <t>A: gottfriedundsoehne</t>
-  </si>
-  <si>
-    <t>A: topsknives</t>
-  </si>
-  <si>
-    <t>A: appledsign</t>
-  </si>
-  <si>
-    <t>A: catholicfaithformation</t>
-  </si>
-  <si>
-    <t>A: leni_lafayette</t>
-  </si>
-  <si>
-    <t>A: sewstine</t>
-  </si>
-  <si>
-    <t>A: musiciantee</t>
-  </si>
-  <si>
-    <t>A: perla.danoch</t>
-  </si>
-  <si>
-    <t>A: maxfromtax</t>
-  </si>
-  <si>
-    <t>A: baseberlin</t>
+    <t>A: yudale_restaurant</t>
+  </si>
+  <si>
+    <t>A: yugojokes</t>
+  </si>
+  <si>
+    <t>A: yungblud</t>
+  </si>
+  <si>
+    <t>A: zahraa_muslim_lifestyle</t>
+  </si>
+  <si>
+    <t>A: zaknotwack</t>
   </si>
   <si>
     <t>A: zdfheute</t>
   </si>
   <si>
-    <t>A: tarik_mete</t>
-  </si>
-  <si>
-    <t>A: memesofjudaism</t>
-  </si>
-  <si>
-    <t>A: mirafloresvienna</t>
-  </si>
-  <si>
-    <t>A: gfgmbh</t>
-  </si>
-  <si>
-    <t>A: jewishbreakingnews</t>
-  </si>
-  <si>
-    <t>A: socmod</t>
-  </si>
-  <si>
-    <t>A: cznburak</t>
-  </si>
-  <si>
-    <t>A: gurmati_vichar</t>
-  </si>
-  <si>
-    <t>A: seligkeitsdinge_</t>
-  </si>
-  <si>
-    <t>A: sgoe.at</t>
-  </si>
-  <si>
-    <t>A: awiblumenfeld</t>
-  </si>
-  <si>
-    <t>A: boatico_yachting</t>
-  </si>
-  <si>
-    <t>A: giani_sant_singh_maskeen</t>
-  </si>
-  <si>
-    <t>A: arte.tv</t>
-  </si>
-  <si>
-    <t>A: dr._ali_oezdil</t>
-  </si>
-  <si>
-    <t>A: wisdoms_of_vienna</t>
-  </si>
-  <si>
-    <t>A: brutalistbeton</t>
-  </si>
-  <si>
-    <t>A: imaginetrip__</t>
-  </si>
-  <si>
-    <t>A: irg.sbg</t>
-  </si>
-  <si>
-    <t>A: rakic_ufc</t>
-  </si>
-  <si>
-    <t>A: westoestlicherpoet</t>
-  </si>
-  <si>
-    <t>A: aylinkarabulut</t>
-  </si>
-  <si>
-    <t>A: muslim</t>
-  </si>
-  <si>
-    <t>A: _nour.khelifi_</t>
-  </si>
-  <si>
-    <t>A: lorettogemeinschaft</t>
-  </si>
-  <si>
-    <t>A: sharghzadeh</t>
-  </si>
-  <si>
-    <t>A: thesweetfactory.at</t>
-  </si>
-  <si>
-    <t>A: fuerstfoto</t>
-  </si>
-  <si>
-    <t>A: uglies</t>
-  </si>
-  <si>
-    <t>A: jukowien</t>
-  </si>
-  <si>
-    <t>A: bodoschaefer</t>
-  </si>
-  <si>
-    <t>A: wieneralltagspoeten</t>
-  </si>
-  <si>
-    <t>A: pubitypets</t>
-  </si>
-  <si>
-    <t>A: tubaerguen</t>
-  </si>
-  <si>
-    <t>A: jewishvibes</t>
-  </si>
-  <si>
-    <t>A: thuglifeaustria</t>
-  </si>
-  <si>
-    <t>A: manshingaar</t>
-  </si>
-  <si>
-    <t>A: welsh_comrade</t>
-  </si>
-  <si>
-    <t>A: homechurch_salzburg</t>
-  </si>
-  <si>
-    <t>A: struthless69</t>
-  </si>
-  <si>
-    <t>A: kentelamal</t>
-  </si>
-  <si>
-    <t>A: hoer.oesterreich</t>
-  </si>
-  <si>
-    <t>A: muftimenkreminders</t>
-  </si>
-  <si>
-    <t>A: johannesbartl</t>
-  </si>
-  <si>
-    <t>A: seize_the_memes</t>
-  </si>
-  <si>
-    <t>A: talhataskinsoyx</t>
-  </si>
-  <si>
-    <t>A: ufcbtsport</t>
-  </si>
-  <si>
-    <t>A: 9gag</t>
-  </si>
-  <si>
-    <t>A: cambridgecentralmosque</t>
-  </si>
-  <si>
-    <t>A: baagiyodhey</t>
-  </si>
-  <si>
-    <t>A: elevation_cycling</t>
-  </si>
-  <si>
-    <t>A: comm3mes</t>
-  </si>
-  <si>
-    <t>A: celli_1000</t>
-  </si>
-  <si>
-    <t>A: gjmoesterreich</t>
-  </si>
-  <si>
-    <t>A: liorsuchard</t>
-  </si>
-  <si>
-    <t>A: bocadolobo</t>
-  </si>
-  <si>
-    <t>A: hebrewmemes</t>
-  </si>
-  <si>
-    <t>A: jewishmuseumvienna</t>
-  </si>
-  <si>
-    <t>A: changiyan_sachiyan_glaan</t>
-  </si>
-  <si>
-    <t>A: youcancallmeaz</t>
-  </si>
-  <si>
-    <t>A: jubileemedia</t>
-  </si>
-  <si>
-    <t>A: forbes</t>
-  </si>
-  <si>
-    <t>A: duhovne_pouke_</t>
-  </si>
-  <si>
-    <t>A: viyana_aleviler_toplumu</t>
-  </si>
-  <si>
-    <t>A: fenerbahce</t>
-  </si>
-  <si>
-    <t>A: yoelyweiss</t>
-  </si>
-  <si>
-    <t>A: saykoturkeys</t>
-  </si>
-  <si>
-    <t>A: sebastiankurz</t>
-  </si>
-  <si>
-    <t>A: dr.nikolausraab</t>
-  </si>
-  <si>
-    <t>A: faz</t>
-  </si>
-  <si>
-    <t>A: kakaotschifrau</t>
-  </si>
-  <si>
-    <t>A: JimmySnowtss</t>
-  </si>
-  <si>
-    <t>A: baba.banta.singh.ji</t>
-  </si>
-  <si>
-    <t>A: m3_jugend</t>
-  </si>
-  <si>
-    <t>A: humansofjudaism</t>
-  </si>
-  <si>
-    <t>A: #blackouttuesday</t>
-  </si>
-  <si>
-    <t>A: dirkeggercrv</t>
-  </si>
-  <si>
-    <t>A: islamify</t>
-  </si>
-  <si>
-    <t>A: isyoufunny</t>
-  </si>
-  <si>
-    <t>A: hram.vaskrsenja.bec</t>
-  </si>
-  <si>
-    <t>A: jewishgirlprobs</t>
-  </si>
-  <si>
-    <t>A: therock</t>
-  </si>
-  <si>
-    <t>A: gurbani.quotes_</t>
-  </si>
-  <si>
-    <t>A: loretto_wiennoe</t>
-  </si>
-  <si>
-    <t>A: reflab.ch</t>
-  </si>
-  <si>
-    <t>A: jufodig</t>
-  </si>
-  <si>
-    <t>A: csiriano</t>
-  </si>
-  <si>
-    <t>A: elhotzo</t>
-  </si>
-  <si>
-    <t>A: feridheider</t>
-  </si>
-  <si>
-    <t>A: goalglobal</t>
-  </si>
-  <si>
-    <t>A: kurtisconner</t>
-  </si>
-  <si>
-    <t>A: jesusistmeinleben</t>
-  </si>
-  <si>
-    <t>A: kochrezpete</t>
-  </si>
-  <si>
-    <t>A: michaelbonvalot</t>
-  </si>
-  <si>
-    <t>A: allforonefulda</t>
-  </si>
-  <si>
-    <t>A: officialbenshapiro</t>
-  </si>
-  <si>
-    <t>A: jad_bejad</t>
-  </si>
-  <si>
-    <t>A: vural.uemit</t>
-  </si>
-  <si>
-    <t>A: makeupartvienna</t>
-  </si>
-  <si>
-    <t>A: popserbian</t>
-  </si>
-  <si>
-    <t>A: ruthe_offiziell</t>
-  </si>
-  <si>
-    <t>A: #edw</t>
-  </si>
-  <si>
-    <t>A: thebestchristianmemes</t>
-  </si>
-  <si>
-    <t>A: 9geiik</t>
-  </si>
-  <si>
-    <t>A: otacastvo</t>
-  </si>
-  <si>
-    <t>A: orf.at</t>
-  </si>
-  <si>
-    <t>A: kardinalwien</t>
-  </si>
-  <si>
-    <t>A: bodyengineers</t>
-  </si>
-  <si>
-    <t>A: jovlekaline</t>
-  </si>
-  <si>
-    <t>A: palidelights</t>
-  </si>
-  <si>
-    <t>A: #kjwien</t>
-  </si>
-  <si>
-    <t>A: youmagazintherealstuff</t>
-  </si>
-  <si>
-    <t>A: worldofbrands</t>
-  </si>
-  <si>
-    <t>A: teamcevans</t>
-  </si>
-  <si>
-    <t>A: now_you_see_me_moria</t>
-  </si>
-  <si>
-    <t>A: filthy.meme.whore.v2</t>
-  </si>
-  <si>
-    <t>A: missio_at</t>
-  </si>
-  <si>
-    <t>A: vtrakit.official</t>
-  </si>
-  <si>
-    <t>A: aladinelmafaalani</t>
-  </si>
-  <si>
-    <t>A: nemouel_</t>
-  </si>
-  <si>
-    <t>A: khalsa_aid</t>
-  </si>
-  <si>
-    <t>A: Ariandebose</t>
-  </si>
-  <si>
-    <t>A: mikiza.blog</t>
-  </si>
-  <si>
-    <t>A: b.netanyahu</t>
-  </si>
-  <si>
-    <t>A: bnp.passau</t>
-  </si>
-  <si>
-    <t>A: 8nd90</t>
-  </si>
-  <si>
-    <t>A: vanillaholica</t>
-  </si>
-  <si>
-    <t>A: alinnail_wien</t>
-  </si>
-  <si>
-    <t>A: teddysphotos</t>
-  </si>
-  <si>
-    <t>A: antiflirting2</t>
-  </si>
-  <si>
-    <t>A: brittany_broski</t>
-  </si>
-  <si>
-    <t>A: matthewmeyerart</t>
-  </si>
-  <si>
-    <t>A: trollpunjab</t>
-  </si>
-  <si>
-    <t>A: sonnenflume</t>
-  </si>
-  <si>
-    <t>A: novritsch</t>
-  </si>
-  <si>
-    <t>A: priesterseminarregensburg</t>
-  </si>
-  <si>
-    <t>A: baschly</t>
-  </si>
-  <si>
-    <t>A: erzdioezesewien</t>
-  </si>
-  <si>
-    <t>A: yudale_restaurant</t>
-  </si>
-  <si>
-    <t>A: aaylingk</t>
-  </si>
-  <si>
-    <t>A: kleinezeitungnext</t>
-  </si>
-  <si>
-    <t>A: angry_radical_feminist</t>
-  </si>
-  <si>
-    <t>A: mati.randow</t>
-  </si>
-  <si>
-    <t>A: chatdiss_</t>
-  </si>
-  <si>
-    <t>A: pamela_rf</t>
-  </si>
-  <si>
-    <t>A: wordsbytaher</t>
-  </si>
-  <si>
-    <t>A: #zerowaste</t>
-  </si>
-  <si>
-    <t>A: almazadic</t>
-  </si>
-  <si>
-    <t>A: liverpoolfc</t>
-  </si>
-  <si>
-    <t>A: therefinedwoman</t>
-  </si>
-  <si>
-    <t>A: englishwithnab</t>
-  </si>
-  <si>
-    <t>A: furkan.perg</t>
-  </si>
-  <si>
-    <t>A: m10_official</t>
-  </si>
-  <si>
-    <t>A: leanwithlilly</t>
-  </si>
-  <si>
-    <t>A: alpbebecom</t>
-  </si>
-  <si>
-    <t>A: peter_hacker_wien</t>
-  </si>
-  <si>
-    <t>A: _cteen</t>
-  </si>
-  <si>
-    <t>A: fereidooni.karim</t>
-  </si>
-  <si>
-    <t>A: vienna.house.stories</t>
-  </si>
-  <si>
-    <t>A: iof_orienteering</t>
-  </si>
-  <si>
-    <t>A: bitch.rising</t>
-  </si>
-  <si>
-    <t>A: #secret</t>
-  </si>
-  <si>
-    <t>A: butunsirribozdun</t>
-  </si>
-  <si>
-    <t>A: shiurinternational</t>
-  </si>
-  <si>
-    <t>A: tagesschau</t>
-  </si>
-  <si>
-    <t>A: everydayrefugees</t>
-  </si>
-  <si>
-    <t>A: bsiultimate</t>
-  </si>
-  <si>
-    <t>A: yadvashem</t>
-  </si>
-  <si>
-    <t>A: torahdaily</t>
-  </si>
-  <si>
-    <t>A: #mealprepping</t>
-  </si>
-  <si>
-    <t>A: muna.duzdar</t>
-  </si>
-  <si>
-    <t>A: herzstaerkend</t>
-  </si>
-  <si>
-    <t>A: savastyanov71</t>
-  </si>
-  <si>
-    <t>A: sumeyyelambrecht</t>
-  </si>
-  <si>
-    <t>A: jews_of_ny</t>
-  </si>
-  <si>
-    <t>A: weinausderhoelle</t>
-  </si>
-  <si>
-    <t>A: astroolojim</t>
-  </si>
-  <si>
-    <t>A: chiaraseidl</t>
-  </si>
-  <si>
-    <t>A: maapilim_vienna</t>
-  </si>
-  <si>
-    <t>A: kaneki_kiss</t>
-  </si>
-  <si>
-    <t>A: thewonderofmercy</t>
-  </si>
-  <si>
-    <t>A: breakfastatfreddys</t>
-  </si>
-  <si>
-    <t>A: faktastisch</t>
-  </si>
-  <si>
-    <t>A: jokezar</t>
-  </si>
-  <si>
-    <t>A: spongebob.memepage</t>
-  </si>
-  <si>
-    <t>A: guardian</t>
-  </si>
-  <si>
-    <t>A: bneiakiva.dorot</t>
-  </si>
-  <si>
-    <t>A: vagt_1210</t>
-  </si>
-  <si>
-    <t>A: jewishmemes</t>
-  </si>
-  <si>
-    <t>A: revolt_cg</t>
-  </si>
-  <si>
-    <t>A: godisgrey</t>
-  </si>
-  <si>
-    <t>A: fathimehmettmacogluu</t>
-  </si>
-  <si>
-    <t>A: crkva_diseldorf</t>
-  </si>
-  <si>
-    <t>A: lisamarie_schiffner</t>
-  </si>
-  <si>
-    <t>A: #africanfood</t>
-  </si>
-  <si>
-    <t>A: ishaq.calligraphy</t>
-  </si>
-  <si>
-    <t>A: linkswien</t>
-  </si>
-  <si>
-    <t>A: jattisjattsaleo</t>
-  </si>
-  <si>
-    <t>A: sosyalistmizah</t>
-  </si>
-  <si>
-    <t>A: moshiverse</t>
-  </si>
-  <si>
-    <t>A: karen_millen</t>
-  </si>
-  <si>
-    <t>A: theturntjew</t>
-  </si>
-  <si>
-    <t>A: noway_srib</t>
-  </si>
-  <si>
-    <t>A: karimjamael</t>
-  </si>
-  <si>
-    <t>A: ketodiettracker</t>
-  </si>
-  <si>
-    <t>A: wienzufuss</t>
-  </si>
-  <si>
-    <t>A: izwien</t>
-  </si>
-  <si>
-    <t>A: fcbayern</t>
-  </si>
-  <si>
-    <t>A: anthonyjoshua</t>
-  </si>
-  <si>
-    <t>A: shakira</t>
-  </si>
-  <si>
-    <t>A: asmaaiad</t>
-  </si>
-  <si>
-    <t>A: overflow.wrneustadt</t>
-  </si>
-  <si>
-    <t>A: bitch</t>
-  </si>
-  <si>
-    <t>A: ghantaa</t>
-  </si>
-  <si>
-    <t>A: sikhi2go</t>
-  </si>
-  <si>
-    <t>A: memesforjesus</t>
-  </si>
-  <si>
-    <t>A: success.portal</t>
-  </si>
-  <si>
-    <t>A: ecoindianenfrance</t>
-  </si>
-  <si>
-    <t>A: thom_bushcraftprotal_cz</t>
-  </si>
-  <si>
-    <t>A: berviansworld</t>
-  </si>
-  <si>
-    <t>A: jeanettemokosch</t>
-  </si>
-  <si>
-    <t>A: towardseternity</t>
-  </si>
-  <si>
-    <t>A: seawatchcrew</t>
-  </si>
-  <si>
-    <t>A: ornad.vienna</t>
-  </si>
-  <si>
-    <t>A: memeshiach</t>
-  </si>
-  <si>
-    <t>A: angeladoe</t>
-  </si>
-  <si>
-    <t>A: hodakatebi</t>
-  </si>
-  <si>
-    <t>A: eyesneverliechico</t>
-  </si>
-  <si>
-    <t>A: womanslook</t>
-  </si>
-  <si>
-    <t>A: jsud_official</t>
-  </si>
-  <si>
-    <t>A: exotiquetv</t>
-  </si>
-  <si>
-    <t>A: neos_wien</t>
-  </si>
-  <si>
-    <t>A: jrichardnoel</t>
-  </si>
-  <si>
-    <t>A: mmd</t>
-  </si>
-  <si>
-    <t>A: presse_service_vie</t>
-  </si>
-  <si>
-    <t>A: abt.paisios</t>
-  </si>
-  <si>
-    <t>A: jugendtreffen</t>
-  </si>
-  <si>
-    <t>A: jakob_koordinierungsstelle</t>
-  </si>
-  <si>
-    <t>A: worldjewishcongress</t>
-  </si>
-  <si>
-    <t>A: pun_bible</t>
-  </si>
-  <si>
-    <t>A: ajdinewz</t>
-  </si>
-  <si>
-    <t>A: NBA</t>
-  </si>
-  <si>
-    <t>A: saintverse</t>
-  </si>
-  <si>
-    <t>A: #architecture</t>
-  </si>
-  <si>
-    <t>A: sikhreddit</t>
-  </si>
-  <si>
-    <t>A: natgeoadventures</t>
-  </si>
-  <si>
-    <t>A: bongo_juden</t>
-  </si>
-  <si>
-    <t>A: srpskacast</t>
-  </si>
-  <si>
-    <t>A: ikartoglu</t>
-  </si>
-  <si>
-    <t>A: kisanektamorcha</t>
-  </si>
-  <si>
-    <t>A: punjabi______tadka</t>
-  </si>
-  <si>
-    <t>A: felleis_knittelfelder</t>
-  </si>
-  <si>
-    <t>A: vanderbellen</t>
-  </si>
-  <si>
-    <t>A: dankjewish</t>
-  </si>
-  <si>
-    <t>A: katholischejugendwien</t>
-  </si>
-  <si>
-    <t>A: muftimenkofficial</t>
-  </si>
-  <si>
-    <t>A: #imthatjew</t>
-  </si>
-  <si>
-    <t>A: tomholland2013</t>
-  </si>
-  <si>
-    <t>A: markruffalo</t>
-  </si>
-  <si>
-    <t>A: punjabiwebsite</t>
-  </si>
-  <si>
-    <t>A: alexgreycosm</t>
-  </si>
-  <si>
-    <t>A: bjennymontero</t>
-  </si>
-  <si>
-    <t>A: filmup.co</t>
-  </si>
-  <si>
-    <t>A: lacasadepapel</t>
-  </si>
-  <si>
-    <t>A: sarahmariepoetry</t>
-  </si>
-  <si>
-    <t>A: vice_de</t>
-  </si>
-  <si>
-    <t>A: esraxgram</t>
-  </si>
-  <si>
-    <t>A: shakir.amena</t>
-  </si>
-  <si>
-    <t>A: veganewunder</t>
-  </si>
-  <si>
-    <t>A: subwaytherapy</t>
-  </si>
-  <si>
-    <t>A: yannickshetty</t>
-  </si>
-  <si>
-    <t>A: wujs_official</t>
-  </si>
-  <si>
-    <t>A: pbfspc</t>
-  </si>
-  <si>
-    <t>A: memelord</t>
-  </si>
-  <si>
-    <t>A: #westafricanfood</t>
-  </si>
-  <si>
-    <t>A: sweatybetty</t>
-  </si>
-  <si>
-    <t>A: dnevnadozabeograda</t>
-  </si>
-  <si>
-    <t>A: topfakten</t>
-  </si>
-  <si>
-    <t>A: crnogorcevic_ivan</t>
-  </si>
-  <si>
-    <t>A: herkessbirazdelidir</t>
-  </si>
-  <si>
-    <t>A: trollvid.s</t>
-  </si>
-  <si>
-    <t>A: keshet_de</t>
-  </si>
-  <si>
-    <t>A: velvetcoke</t>
-  </si>
-  <si>
-    <t>A: bneiakiva.wien</t>
-  </si>
-  <si>
-    <t>A: aleviiyiiz</t>
-  </si>
-  <si>
-    <t>A: basicsofsikhi</t>
-  </si>
-  <si>
-    <t>A: alpenvereinaustria</t>
-  </si>
-  <si>
-    <t>A: dasbibelprojekt</t>
-  </si>
-  <si>
-    <t>A: sikhexpo</t>
-  </si>
-  <si>
-    <t>A: thenaughtytrolls</t>
-  </si>
-  <si>
-    <t>A: rafftar_rai</t>
-  </si>
-  <si>
-    <t>A: mindsetofgreatness</t>
-  </si>
-  <si>
-    <t>A: bbcnews</t>
-  </si>
-  <si>
-    <t>A: yungblud</t>
-  </si>
-  <si>
-    <t>A: sankt.jugend</t>
-  </si>
-  <si>
-    <t>A: s.ferox</t>
-  </si>
-  <si>
-    <t>A: oxford_uni</t>
+    <t>A: zeitimbild</t>
+  </si>
+  <si>
+    <t>A: zelophchads_toechter</t>
+  </si>
+  <si>
+    <t>A: zendaya</t>
+  </si>
+  <si>
+    <t>A: zentrumjp2</t>
   </si>
   <si>
     <t>A: zooviennaschonbrunn</t>
-  </si>
-  <si>
-    <t>A: freundship</t>
-  </si>
-  <si>
-    <t>A: epicchristianmemes</t>
-  </si>
-  <si>
-    <t>A: prageru</t>
-  </si>
-  <si>
-    <t>A: berlinauslandermemes</t>
-  </si>
-  <si>
-    <t>A: sostrenegrene</t>
-  </si>
-  <si>
-    <t>A: chandlerbingunofficialfriends</t>
-  </si>
-  <si>
-    <t>A: insta_frum</t>
-  </si>
-  <si>
-    <t>A: #plantbased</t>
-  </si>
-  <si>
-    <t>A: pablohaseloficial</t>
-  </si>
-  <si>
-    <t>A: zahraa_muslim_lifestyle</t>
-  </si>
-  <si>
-    <t>A: followmeifyouarehappy</t>
-  </si>
-  <si>
-    <t>A: fdpbt</t>
-  </si>
-  <si>
-    <t>A: funk</t>
-  </si>
-  <si>
-    <t>A: latenightberlin</t>
-  </si>
-  <si>
-    <t>A: ajc.global</t>
-  </si>
-  <si>
-    <t>A: thegoodquote</t>
-  </si>
-  <si>
-    <t>A: insta.jews</t>
-  </si>
-  <si>
-    <t>A: hoenest</t>
-  </si>
-  <si>
-    <t>A: nazjuju</t>
-  </si>
-  <si>
-    <t>A: dr.raniaawaad</t>
-  </si>
-  <si>
-    <t>A: financialprofessional</t>
-  </si>
-  <si>
-    <t>A: derzwuckundich</t>
-  </si>
-  <si>
-    <t>A: championsleague</t>
-  </si>
-  <si>
-    <t>A: yugojokes</t>
-  </si>
-  <si>
-    <t>A: lesbiancinema</t>
-  </si>
-  <si>
-    <t>A: lordposts</t>
-  </si>
-  <si>
-    <t>A: grupyorumofficial</t>
-  </si>
-  <si>
-    <t>A: greenpeaceaustria</t>
-  </si>
-  <si>
-    <t>A: tipgenelmerkez</t>
-  </si>
-  <si>
-    <t>A: clips</t>
-  </si>
-  <si>
-    <t>A: tobiashiems</t>
-  </si>
-  <si>
-    <t>A: kumarskitchenaustria</t>
-  </si>
-  <si>
-    <t>A: ofek_beratung</t>
-  </si>
-  <si>
-    <t>A: falakenoorboutique</t>
-  </si>
-  <si>
-    <t>A: svoboda.anton</t>
-  </si>
-  <si>
-    <t>A: redstarbelgrade.rs</t>
-  </si>
-  <si>
-    <t>A: commentfasheee5</t>
-  </si>
-  <si>
-    <t>A: j.community</t>
-  </si>
-  <si>
-    <t>A: advice</t>
-  </si>
-  <si>
-    <t>A: thecircle_sessions</t>
-  </si>
-  <si>
-    <t>A: subwayhands</t>
-  </si>
-  <si>
-    <t>A: zeitimbild</t>
-  </si>
-  <si>
-    <t>A: theinkquisites</t>
-  </si>
-  <si>
-    <t>A: danaemercer</t>
-  </si>
-  <si>
-    <t>A: truth_israel</t>
-  </si>
-  <si>
-    <t>A: edgymemesforworthlessteens</t>
-  </si>
-  <si>
-    <t>A: seekersguidanceorg</t>
-  </si>
-  <si>
-    <t>A: #lesswaste</t>
-  </si>
-  <si>
-    <t>A: lachkrampfbilder</t>
-  </si>
-  <si>
-    <t>A: the_protestant_christian</t>
-  </si>
-  <si>
-    <t>A: bneiakivaschweiz</t>
-  </si>
-  <si>
-    <t>A: linlouuu</t>
-  </si>
-  <si>
-    <t>A: meduniwien</t>
-  </si>
-  <si>
-    <t>A: pakalupapitocamel</t>
-  </si>
-  <si>
-    <t>A: volim_pravoslavlje</t>
-  </si>
-  <si>
-    <t>A: fcbarcelona</t>
-  </si>
-  <si>
-    <t>A: bischof_stephan</t>
-  </si>
-  <si>
-    <t>A: aleviyizcan</t>
-  </si>
-  <si>
-    <t>A: nissimofficial</t>
-  </si>
-  <si>
-    <t>A: pubity</t>
-  </si>
-  <si>
-    <t>A: alevi_genclik_avusturya</t>
-  </si>
-  <si>
-    <t>A: islamictreasures</t>
-  </si>
-  <si>
-    <t>A: migrantifawien</t>
-  </si>
-  <si>
-    <t>A: babyentenbackup</t>
-  </si>
-  <si>
-    <t>A: moralifashion</t>
-  </si>
-  <si>
-    <t>A: dianagoldbergmusic</t>
-  </si>
-  <si>
-    <t>A: jungekirchewien</t>
-  </si>
-  <si>
-    <t>A: erkeklerinicsesi</t>
-  </si>
-  <si>
-    <t>A: lafashionfiles</t>
-  </si>
-  <si>
-    <t>A: michaelludwig_official</t>
-  </si>
-  <si>
-    <t>A: schwarzenegger</t>
-  </si>
-  <si>
-    <t>A: astrology_daily_horoscopes</t>
-  </si>
-  <si>
-    <t>A: xaviernaidoo</t>
-  </si>
-  <si>
-    <t>A: hiighholder</t>
-  </si>
-  <si>
-    <t>A: andreea.balaban</t>
-  </si>
-  <si>
-    <t>A: #jewishmemes</t>
-  </si>
-  <si>
-    <t>A: mitchleeuwe</t>
-  </si>
-  <si>
-    <t>A: regloloji</t>
-  </si>
-  <si>
-    <t>A: #viennalove</t>
-  </si>
-  <si>
-    <t>A: hasidiminusa</t>
-  </si>
-  <si>
-    <t>A: ajplusarabi</t>
-  </si>
-  <si>
-    <t>A: erzbistumhamburg</t>
-  </si>
-  <si>
-    <t>A: standwithus</t>
-  </si>
-  <si>
-    <t>A: enews</t>
-  </si>
-  <si>
-    <t>A: islamchanneltv</t>
-  </si>
-  <si>
-    <t>A: derstandardat</t>
-  </si>
-  <si>
-    <t>A: therealfatih</t>
-  </si>
-  <si>
-    <t>A: noumanalikhanofficial</t>
-  </si>
-  <si>
-    <t>A: bischofstefanoster</t>
-  </si>
-  <si>
-    <t>A: Likrat_Austria</t>
-  </si>
-  <si>
-    <t>A: crimson_day_</t>
-  </si>
-  <si>
-    <t>A: crankbrothers</t>
-  </si>
-  <si>
-    <t>A: espn</t>
-  </si>
-  <si>
-    <t>A: shop.LTK</t>
-  </si>
-  <si>
-    <t>A: kirchgasser_photography</t>
-  </si>
-  <si>
-    <t>A: muslimsoftheworld</t>
-  </si>
-  <si>
-    <t>A: addisonraee</t>
-  </si>
-  <si>
-    <t>A: srpskapravoslavnacrkvagmunden</t>
-  </si>
-  <si>
-    <t>A: kizlarinicesesiiii</t>
-  </si>
-  <si>
-    <t>A: Bundesjugendvertretung</t>
-  </si>
-  <si>
-    <t>A: jesusmemes</t>
-  </si>
-  <si>
-    <t>A: wienerlinien</t>
-  </si>
-  <si>
-    <t>A: atleticomadrid</t>
-  </si>
-  <si>
-    <t>A: herbststrasse</t>
-  </si>
-  <si>
-    <t>A: tarek_bae</t>
-  </si>
-  <si>
-    <t>A: amnesty</t>
-  </si>
-  <si>
-    <t>A: raf_camora</t>
-  </si>
-  <si>
-    <t>A: zaknotwack</t>
-  </si>
-  <si>
-    <t>A: pilotviking</t>
-  </si>
-  <si>
-    <t>A: shonenworld_</t>
-  </si>
-  <si>
-    <t>A: hillsong</t>
-  </si>
-  <si>
-    <t>A: annitheduck</t>
-  </si>
-  <si>
-    <t>A: idfonline</t>
-  </si>
-  <si>
-    <t>A: johnlcooper</t>
-  </si>
-  <si>
-    <t>A: in_dubio_pro_mindermeinung</t>
-  </si>
-  <si>
-    <t>A: garyvee</t>
-  </si>
-  <si>
-    <t>A: thevoicekids</t>
-  </si>
-  <si>
-    <t>A: reneeelisegoldsberry</t>
-  </si>
-  <si>
-    <t>A: lolmemesop</t>
-  </si>
-  <si>
-    <t>A: worldbneiakiva</t>
-  </si>
-  <si>
-    <t>A: mosalah</t>
-  </si>
-  <si>
-    <t>A: hayaomiyazaki</t>
-  </si>
-  <si>
-    <t>A: alpha_leaders</t>
-  </si>
-  <si>
-    <t>A: thiememe_verlag</t>
-  </si>
-  <si>
-    <t>A: magda.bachi</t>
-  </si>
-  <si>
-    <t>A: interestingengineering</t>
-  </si>
-  <si>
-    <t>A: hudas_welten_blog</t>
-  </si>
-  <si>
-    <t>A: carsisimsek1</t>
-  </si>
-  <si>
-    <t>A: teamdeefit</t>
-  </si>
-  <si>
-    <t>A: joehwien</t>
-  </si>
-  <si>
-    <t>A: arhiepiskopijatv</t>
-  </si>
-  <si>
-    <t>A: imjustbesti</t>
-  </si>
-  <si>
-    <t>A: diegruenen</t>
-  </si>
-  <si>
-    <t>A: nugget</t>
-  </si>
-  <si>
-    <t>A: trtdeutsch</t>
-  </si>
-  <si>
-    <t>A: nowhitesaviors</t>
-  </si>
-  <si>
-    <t>A: mosquitos_ultimate</t>
-  </si>
-  <si>
-    <t>A: wafa.salam.kensho</t>
-  </si>
-  <si>
-    <t>A: coverageduo</t>
-  </si>
-  <si>
-    <t>A: fkaustriawien</t>
-  </si>
-  <si>
-    <t>A: salamfm.de</t>
-  </si>
-  <si>
-    <t>A: 433</t>
-  </si>
-  <si>
-    <t>A: neos_eu</t>
-  </si>
-  <si>
-    <t>A: ezhel06</t>
-  </si>
-  <si>
-    <t>A: bible.verses.a.day</t>
-  </si>
-  <si>
-    <t>A: marvelstudios</t>
-  </si>
-  <si>
-    <t>A: miradadelasierra</t>
-  </si>
-  <si>
-    <t>A: lisafasl</t>
-  </si>
-  <si>
-    <t>A: simseklergrubu</t>
-  </si>
-  <si>
-    <t>A: butchware</t>
-  </si>
-  <si>
-    <t>A: bbyoaustria</t>
-  </si>
-  <si>
-    <t>A: discoverearth</t>
-  </si>
-  <si>
-    <t>A: motivationalmoments</t>
-  </si>
-  <si>
-    <t>A: thom_wien</t>
-  </si>
-  <si>
-    <t>A: never.again.right.now</t>
-  </si>
-  <si>
-    <t>A: imamomarsuleiman</t>
-  </si>
-  <si>
-    <t>A: gurbani_n_quotes</t>
-  </si>
-  <si>
-    <t>A: elevationworship</t>
-  </si>
-  <si>
-    <t>A: nanolive_sa</t>
-  </si>
-  <si>
-    <t>A: beatthemiles</t>
-  </si>
-  <si>
-    <t>A: churchmemesministry</t>
-  </si>
-  <si>
-    <t>A: jesusarmy.official</t>
-  </si>
-  <si>
-    <t>A: gameofthronesnotofficial</t>
-  </si>
-  <si>
-    <t>A: johanna.mikl.leitner</t>
-  </si>
-  <si>
-    <t>A: 14mount8000</t>
-  </si>
-  <si>
-    <t>A: chriswiederkehr</t>
-  </si>
-  <si>
-    <t>A: juliaandgil</t>
-  </si>
-  <si>
-    <t>A: taz.die_tageszeitung</t>
-  </si>
-  <si>
-    <t>A: leighturnerfcdo</t>
-  </si>
-  <si>
-    <t>A: thecakinggirl</t>
-  </si>
-  <si>
-    <t>A: mjoe_official</t>
-  </si>
-  <si>
-    <t>A: wearmoidancewear</t>
-  </si>
-  <si>
-    <t>A: mateitulban</t>
-  </si>
-  <si>
-    <t>A: drjohanneshartl</t>
-  </si>
-  <si>
-    <t>A: tupoka.o</t>
-  </si>
-  <si>
-    <t>A: ilsedelangemusic</t>
-  </si>
-  <si>
-    <t>A: downbadpolice</t>
-  </si>
-  <si>
-    <t>A: zentrumjp2</t>
-  </si>
-  <si>
-    <t>A: papalpreet_singh</t>
-  </si>
-  <si>
-    <t>A: 15cek</t>
-  </si>
-  <si>
-    <t>A: alkoholmomente</t>
-  </si>
-  <si>
-    <t>A: crvenazvezdafk</t>
-  </si>
-  <si>
-    <t>A: jungmediziner</t>
-  </si>
-  <si>
-    <t>A: idf</t>
-  </si>
-  <si>
-    <t>A: israelipm</t>
-  </si>
-  <si>
-    <t>A: faridbangbang</t>
-  </si>
-  <si>
-    <t>A: esraezmecii</t>
-  </si>
-  <si>
-    <t>A: 247interiors</t>
-  </si>
-  <si>
-    <t>A: ja.und.amen</t>
-  </si>
-  <si>
-    <t>A: getevidenced</t>
-  </si>
-  <si>
-    <t>A: insta_desli</t>
-  </si>
-  <si>
-    <t>A: juliandthechurch</t>
-  </si>
-  <si>
-    <t>A: jesus.ch</t>
-  </si>
-  <si>
-    <t>A: quransayings</t>
-  </si>
-  <si>
-    <t>A: fitinn.at</t>
-  </si>
-  <si>
-    <t>A: veganbowls</t>
-  </si>
-  <si>
-    <t>A: renklii_mutfagmm</t>
-  </si>
-  <si>
-    <t>A: recordjet</t>
-  </si>
-  <si>
-    <t>A: kelebackstage</t>
-  </si>
-  <si>
-    <t>A: marvel</t>
-  </si>
-  <si>
-    <t>A: klostermariaschutz</t>
-  </si>
-  <si>
-    <t>A: kjooe</t>
-  </si>
-  <si>
-    <t>A: gatewayworship</t>
-  </si>
-  <si>
-    <t>A: eine.reise.ins.ungewisse</t>
-  </si>
-  <si>
-    <t>A: premierleague</t>
-  </si>
-  <si>
-    <t>A: come2stay</t>
-  </si>
-  <si>
-    <t>A: keineinsamerbaum</t>
-  </si>
-  <si>
-    <t>A: unitednations</t>
-  </si>
-  <si>
-    <t>A: annagiambersio</t>
-  </si>
-  <si>
-    <t>A: salam.oida</t>
-  </si>
-  <si>
-    <t>A: horrordatestorys</t>
-  </si>
-  <si>
-    <t>A: danica_crnogorcevic</t>
-  </si>
-  <si>
-    <t>A: uyenthininh</t>
-  </si>
-  <si>
-    <t>A: blairimani</t>
-  </si>
-  <si>
-    <t>A: toogoodtogo.at</t>
-  </si>
-  <si>
-    <t>A: manitateroru</t>
-  </si>
-  <si>
-    <t>A: arabicwords_0</t>
-  </si>
-  <si>
-    <t>A: piques</t>
-  </si>
-  <si>
-    <t>A: prijatelji_manastira_hilandara</t>
-  </si>
-  <si>
-    <t>A: antifascismapparel</t>
-  </si>
-  <si>
-    <t>A: antifa_w</t>
-  </si>
-  <si>
-    <t>A: andreschiebler</t>
-  </si>
-  <si>
-    <t>A: candik_lein</t>
-  </si>
-  <si>
-    <t>A: _zaheerali</t>
-  </si>
-  <si>
-    <t>A: viennawurstelstand</t>
-  </si>
-  <si>
-    <t>A: science.jesus.memes</t>
-  </si>
-  <si>
-    <t>A: anajohnson</t>
-  </si>
-  <si>
-    <t>A: kspacewien</t>
-  </si>
-  <si>
-    <t>A: key2life_festival</t>
-  </si>
-  <si>
-    <t>A: dariadaria</t>
-  </si>
-  <si>
-    <t>A: iamstudent_at</t>
-  </si>
-  <si>
-    <t>A: andrewjacked</t>
-  </si>
-  <si>
-    <t>A: bogorodicinhrambec</t>
-  </si>
-  <si>
-    <t>A: _skchhina</t>
-  </si>
-  <si>
-    <t>A: singh_speaks</t>
-  </si>
-  <si>
-    <t>A: rav_albert_offiziell</t>
-  </si>
-  <si>
-    <t>A: antennesteiermark</t>
-  </si>
-  <si>
-    <t>A: bongoviennajuden</t>
-  </si>
-  <si>
-    <t>A: eatinghealthytoday</t>
-  </si>
-  <si>
-    <t>A: kleinexpoetin</t>
-  </si>
-  <si>
-    <t>A: deinbeichtstuhl</t>
-  </si>
-  <si>
-    <t>A: grg21.franklinstrasse21</t>
-  </si>
-  <si>
-    <t>A: popcultureinpictures_</t>
-  </si>
-  <si>
-    <t>A: soulfood_cafe_wien</t>
-  </si>
-  <si>
-    <t>A: hnaftali</t>
-  </si>
-  <si>
-    <t>A: canlilardunyasi</t>
-  </si>
-  <si>
-    <t>A: the.vulva.gallery</t>
-  </si>
-  <si>
-    <t>A: meilechkohn</t>
-  </si>
-  <si>
-    <t>A: asiri_kafagrup</t>
-  </si>
-  <si>
-    <t>A: bviral</t>
-  </si>
-  <si>
-    <t>A: vshred</t>
-  </si>
-  <si>
-    <t>A: bneiakivade</t>
-  </si>
-  <si>
-    <t>A: redfishstream</t>
-  </si>
-  <si>
-    <t>A: mallofmemes</t>
-  </si>
-  <si>
-    <t>A: khabib_nurmagomedov</t>
-  </si>
-  <si>
-    <t>A: 1newsnz</t>
-  </si>
-  <si>
-    <t>A: keto.fit.meal</t>
-  </si>
-  <si>
-    <t>A: netflixnmovies</t>
-  </si>
-  <si>
-    <t>A: zendaya</t>
-  </si>
-  <si>
-    <t>A: yannick.chaumont</t>
-  </si>
-  <si>
-    <t>A: #pagne</t>
-  </si>
-  <si>
-    <t>A: juan_son_1210</t>
-  </si>
-  <si>
-    <t>A: lutherische_stadtkirche_wien</t>
-  </si>
-  <si>
-    <t>A: alman_memes2.0</t>
-  </si>
-  <si>
-    <t>A: desi.sarcasm</t>
-  </si>
-  <si>
-    <t>A: redmediakollektiv</t>
-  </si>
-  <si>
-    <t>A: thejerusalem_post</t>
-  </si>
-  <si>
-    <t>A: obros_official</t>
-  </si>
-  <si>
-    <t>A: sarkilardanparcalar</t>
-  </si>
-  <si>
-    <t>A: islamischeFakten</t>
-  </si>
-  <si>
-    <t>A: ninastrehl</t>
-  </si>
-  <si>
-    <t>A: champagnerkraft</t>
-  </si>
-  <si>
-    <t>A: vicdeangelis</t>
-  </si>
-  <si>
-    <t>A: zelophchads_toechter</t>
-  </si>
-  <si>
-    <t>A: #veganbudget</t>
-  </si>
-  <si>
-    <t>A: dietagespresse</t>
-  </si>
-  <si>
-    <t>A: memezar</t>
-  </si>
-  <si>
-    <t>A: jessicaoutofthecloset</t>
-  </si>
-  <si>
-    <t>A: corinnamilborn</t>
-  </si>
-  <si>
-    <t>A: weedhumor</t>
-  </si>
-  <si>
-    <t>A: Cambridgemosque</t>
-  </si>
-  <si>
-    <t>A: neumannsofie</t>
-  </si>
-  <si>
-    <t>A: vicky_spielfrau</t>
-  </si>
-  <si>
-    <t>A: Amaniabuzahra</t>
-  </si>
-  <si>
-    <t>A: espnmma</t>
-  </si>
-  <si>
-    <t>A: persianpoetics</t>
-  </si>
-  <si>
-    <t>A: moroccoworldnews</t>
-  </si>
-  <si>
-    <t>A: ibrahimtenekeci</t>
   </si>
   <si>
     <r>
@@ -1979,21 +1979,7 @@
     </r>
   </si>
   <si>
-    <t>13.01.2023 - 09:35:22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Suchbegriff</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">A: </t>
+    <t>24.01.2023 - 11:00:48</t>
   </si>
   <si>
     <r>
@@ -2386,11 +2372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6081DB-88D9-4D75-B0F7-567B18AC7735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24439223-6684-42F4-848A-DDB0233A83A2}">
   <dimension ref="A1:C628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C628"/>
     </sheetView>
   </sheetViews>
@@ -2415,7 +2401,7 @@
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C65" si="0">"https://instagram.com/"&amp;(RIGHT(B2,LEN(B2)-3))</f>
-        <v>https://instagram.com/dissociadid</v>
+        <v>https://instagram.com/#africanfood</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2427,7 +2413,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/logos.ai</v>
+        <v>https://instagram.com/#architecture</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2439,7 +2425,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/memesaz</v>
+        <v>https://instagram.com/#blackouttuesday</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2451,7 +2437,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/ohlafrance</v>
+        <v>https://instagram.com/#edw</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2463,7 +2449,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/walking_through_history</v>
+        <v>https://instagram.com/#imthatjew</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2475,7 +2461,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/karsudonmez</v>
+        <v>https://instagram.com/#jewishmemes</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2487,7 +2473,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/#kpalimé</v>
+        <v>https://instagram.com/#kjwien</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2499,7 +2485,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/mvslimhumor</v>
+        <v>https://instagram.com/#kpalimé</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2511,7 +2497,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/millanefriesen</v>
+        <v>https://instagram.com/#lesswaste</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2523,7 +2509,7 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/_blockaye</v>
+        <v>https://instagram.com/#mealprepping</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2535,7 +2521,7 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/rachel0ates</v>
+        <v>https://instagram.com/#pagne</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2547,7 +2533,7 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/inesw.bs</v>
+        <v>https://instagram.com/#plantbased</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2559,7 +2545,7 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/discoverwildlife</v>
+        <v>https://instagram.com/#secret</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2571,7 +2557,7 @@
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/eujs_official</v>
+        <v>https://instagram.com/#veganbudget</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2583,7 +2569,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/ferithafez</v>
+        <v>https://instagram.com/#viennalove</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2595,7 +2581,7 @@
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/adskulubu</v>
+        <v>https://instagram.com/#westafricanfood</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2607,7 +2593,7 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/modeblogg</v>
+        <v>https://instagram.com/#zerowaste</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2619,7 +2605,7 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/hey.alma</v>
+        <v>https://instagram.com/_blockaye</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2631,7 +2617,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/noodnik_</v>
+        <v>https://instagram.com/_cteen</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2643,7 +2629,7 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/sigmundfreudprivatuni</v>
+        <v>https://instagram.com/_jual_bonsai_mini_</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2655,7 +2641,7 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/carryminati</v>
+        <v>https://instagram.com/_nour.khelifi_</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2667,7 +2653,7 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/younesjones</v>
+        <v>https://instagram.com/_skchhina</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2679,7 +2665,7 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/sapphic_energy</v>
+        <v>https://instagram.com/_zaheerali</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2691,7 +2677,7 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/_jual_bonsai_mini_</v>
+        <v>https://instagram.com/14mount8000</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2703,7 +2689,7 @@
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/sikhyouthuk</v>
+        <v>https://instagram.com/15cek</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2715,7 +2701,7 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/derfunke.at</v>
+        <v>https://instagram.com/1newsnz</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2727,7 +2713,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/iamchristlclear</v>
+        <v>https://instagram.com/247interiors</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2739,7 +2725,7 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/skimania.it</v>
+        <v>https://instagram.com/433</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2751,7 +2737,7 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/karikaturhane</v>
+        <v>https://instagram.com/8nd90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2763,7 +2749,7 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/dtv_verlag</v>
+        <v>https://instagram.com/9gag</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2775,7 +2761,7 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/gottfriedundsoehne</v>
+        <v>https://instagram.com/9geiik</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2787,7 +2773,7 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/topsknives</v>
+        <v>https://instagram.com/aaylingk</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2799,7 +2785,7 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/appledsign</v>
+        <v>https://instagram.com/abt.paisios</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2811,7 +2797,7 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/catholicfaithformation</v>
+        <v>https://instagram.com/addisonraee</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2823,7 +2809,7 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/leni_lafayette</v>
+        <v>https://instagram.com/adskulubu</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2835,7 +2821,7 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/sewstine</v>
+        <v>https://instagram.com/advice</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2847,7 +2833,7 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/musiciantee</v>
+        <v>https://instagram.com/ajc.global</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2859,7 +2845,7 @@
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/perla.danoch</v>
+        <v>https://instagram.com/ajdinewz</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2871,7 +2857,7 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/maxfromtax</v>
+        <v>https://instagram.com/ajplusarabi</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2883,7 +2869,7 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/baseberlin</v>
+        <v>https://instagram.com/aladinelmafaalani</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2895,7 +2881,7 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/zdfheute</v>
+        <v>https://instagram.com/alevi_genclik_avusturya</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2907,7 +2893,7 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/tarik_mete</v>
+        <v>https://instagram.com/aleviiyiiz</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2919,7 +2905,7 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/memesofjudaism</v>
+        <v>https://instagram.com/aleviyizcan</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2931,7 +2917,7 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/mirafloresvienna</v>
+        <v>https://instagram.com/alexgreycosm</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2943,7 +2929,7 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/gfgmbh</v>
+        <v>https://instagram.com/alinnail_wien</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2955,7 +2941,7 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/jewishbreakingnews</v>
+        <v>https://instagram.com/alkoholmomente</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2967,7 +2953,7 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/socmod</v>
+        <v>https://instagram.com/allforonefulda</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2979,7 +2965,7 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/cznburak</v>
+        <v>https://instagram.com/alman_memes2.0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -2991,7 +2977,7 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/gurmati_vichar</v>
+        <v>https://instagram.com/almazadic</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3003,7 +2989,7 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/seligkeitsdinge_</v>
+        <v>https://instagram.com/alpbebecom</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3015,7 +3001,7 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/sgoe.at</v>
+        <v>https://instagram.com/alpenvereinaustria</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3027,7 +3013,7 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/awiblumenfeld</v>
+        <v>https://instagram.com/alpha_leaders</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3039,7 +3025,7 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/boatico_yachting</v>
+        <v>https://instagram.com/Amaniabuzahra</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3051,7 +3037,7 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/giani_sant_singh_maskeen</v>
+        <v>https://instagram.com/amnesty</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3063,7 +3049,7 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/arte.tv</v>
+        <v>https://instagram.com/anajohnson</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3075,7 +3061,7 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/dr._ali_oezdil</v>
+        <v>https://instagram.com/andreea.balaban</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3087,7 +3073,7 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/wisdoms_of_vienna</v>
+        <v>https://instagram.com/andreschiebler</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3099,7 +3085,7 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/brutalistbeton</v>
+        <v>https://instagram.com/andrewjacked</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3111,7 +3097,7 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/imaginetrip__</v>
+        <v>https://instagram.com/angeladoe</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3123,7 +3109,7 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/irg.sbg</v>
+        <v>https://instagram.com/angry_radical_feminist</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3135,7 +3121,7 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/rakic_ufc</v>
+        <v>https://instagram.com/annagiambersio</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3147,7 +3133,7 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/westoestlicherpoet</v>
+        <v>https://instagram.com/annitheduck</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3159,7 +3145,7 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/aylinkarabulut</v>
+        <v>https://instagram.com/antennesteiermark</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3171,7 +3157,7 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
-        <v>https://instagram.com/muslim</v>
+        <v>https://instagram.com/anthonyjoshua</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3183,7 +3169,7 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="1">"https://instagram.com/"&amp;(RIGHT(B66,LEN(B66)-3))</f>
-        <v>https://instagram.com/_nour.khelifi_</v>
+        <v>https://instagram.com/antifa_w</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3195,7 +3181,7 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/lorettogemeinschaft</v>
+        <v>https://instagram.com/antifascismapparel</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3207,7 +3193,7 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/sharghzadeh</v>
+        <v>https://instagram.com/antiflirting2</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3219,7 +3205,7 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/thesweetfactory.at</v>
+        <v>https://instagram.com/appledsign</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3231,7 +3217,7 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/fuerstfoto</v>
+        <v>https://instagram.com/arabicwords_0</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3243,7 +3229,7 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/uglies</v>
+        <v>https://instagram.com/arhiepiskopijatv</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3255,7 +3241,7 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jukowien</v>
+        <v>https://instagram.com/Ariandebose</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3267,7 +3253,7 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/bodoschaefer</v>
+        <v>https://instagram.com/arte.tv</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3279,7 +3265,7 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/wieneralltagspoeten</v>
+        <v>https://instagram.com/asiri_kafagrup</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3291,7 +3277,7 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/pubitypets</v>
+        <v>https://instagram.com/asmaaiad</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3303,7 +3289,7 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/tubaerguen</v>
+        <v>https://instagram.com/astrology_daily_horoscopes</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3315,7 +3301,7 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jewishvibes</v>
+        <v>https://instagram.com/astroolojim</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3327,7 +3313,7 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/thuglifeaustria</v>
+        <v>https://instagram.com/atleticomadrid</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3339,7 +3325,7 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/manshingaar</v>
+        <v>https://instagram.com/awiblumenfeld</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3351,7 +3337,7 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/welsh_comrade</v>
+        <v>https://instagram.com/aylinkarabulut</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3363,7 +3349,7 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/homechurch_salzburg</v>
+        <v>https://instagram.com/b.netanyahu</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3375,7 +3361,7 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/struthless69</v>
+        <v>https://instagram.com/baagiyodhey</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3387,7 +3373,7 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/kentelamal</v>
+        <v>https://instagram.com/baba.banta.singh.ji</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3399,7 +3385,7 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/hoer.oesterreich</v>
+        <v>https://instagram.com/babyentenbackup</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3411,7 +3397,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/muftimenkreminders</v>
+        <v>https://instagram.com/baschly</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3423,7 +3409,7 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/johannesbartl</v>
+        <v>https://instagram.com/baseberlin</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3435,7 +3421,7 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/seize_the_memes</v>
+        <v>https://instagram.com/basicsofsikhi</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3447,7 +3433,7 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/talhataskinsoyx</v>
+        <v>https://instagram.com/bbcnews</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3459,7 +3445,7 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/ufcbtsport</v>
+        <v>https://instagram.com/bbyoaustria</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3471,7 +3457,7 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/9gag</v>
+        <v>https://instagram.com/beatthemiles</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3483,7 +3469,7 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/cambridgecentralmosque</v>
+        <v>https://instagram.com/berlinauslandermemes</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3495,7 +3481,7 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/baagiyodhey</v>
+        <v>https://instagram.com/berviansworld</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3507,7 +3493,7 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/elevation_cycling</v>
+        <v>https://instagram.com/bible.verses.a.day</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3519,7 +3505,7 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/comm3mes</v>
+        <v>https://instagram.com/bischof_stephan</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3531,7 +3517,7 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/celli_1000</v>
+        <v>https://instagram.com/bischofstefanoster</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3543,7 +3529,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/gjmoesterreich</v>
+        <v>https://instagram.com/bitch</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3555,7 +3541,7 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/liorsuchard</v>
+        <v>https://instagram.com/bitch.rising</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3567,7 +3553,7 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/bocadolobo</v>
+        <v>https://instagram.com/bjennymontero</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3579,7 +3565,7 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/hebrewmemes</v>
+        <v>https://instagram.com/blairimani</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3591,7 +3577,7 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jewishmuseumvienna</v>
+        <v>https://instagram.com/bneiakiva.dorot</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3603,7 +3589,7 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/changiyan_sachiyan_glaan</v>
+        <v>https://instagram.com/bneiakiva.wien</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3615,7 +3601,7 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/youcancallmeaz</v>
+        <v>https://instagram.com/bneiakivade</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3627,7 +3613,7 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jubileemedia</v>
+        <v>https://instagram.com/bneiakivaschweiz</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3639,7 +3625,7 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/forbes</v>
+        <v>https://instagram.com/bnp.passau</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3651,7 +3637,7 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/duhovne_pouke_</v>
+        <v>https://instagram.com/boatico_yachting</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3663,7 +3649,7 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/viyana_aleviler_toplumu</v>
+        <v>https://instagram.com/bocadolobo</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3675,7 +3661,7 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/fenerbahce</v>
+        <v>https://instagram.com/bodoschaefer</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3687,7 +3673,7 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/yoelyweiss</v>
+        <v>https://instagram.com/bodyengineers</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3699,7 +3685,7 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/saykoturkeys</v>
+        <v>https://instagram.com/bogorodicinhrambec</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3711,7 +3697,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/sebastiankurz</v>
+        <v>https://instagram.com/bongo_juden</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3723,7 +3709,7 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/dr.nikolausraab</v>
+        <v>https://instagram.com/bongoviennajuden</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3735,7 +3721,7 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/faz</v>
+        <v>https://instagram.com/breakfastatfreddys</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3747,7 +3733,7 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/kakaotschifrau</v>
+        <v>https://instagram.com/brittany_broski</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3759,7 +3745,7 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/JimmySnowtss</v>
+        <v>https://instagram.com/brutalistbeton</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3771,7 +3757,7 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/baba.banta.singh.ji</v>
+        <v>https://instagram.com/bsiultimate</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3783,7 +3769,7 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/m3_jugend</v>
+        <v>https://instagram.com/Bundesjugendvertretung</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3795,7 +3781,7 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/humansofjudaism</v>
+        <v>https://instagram.com/butchware</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3807,7 +3793,7 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/#blackouttuesday</v>
+        <v>https://instagram.com/butunsirribozdun</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3819,7 +3805,7 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/dirkeggercrv</v>
+        <v>https://instagram.com/bviral</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3831,7 +3817,7 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/islamify</v>
+        <v>https://instagram.com/cambridgecentralmosque</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3843,7 +3829,7 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/isyoufunny</v>
+        <v>https://instagram.com/Cambridgemosque</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3855,7 +3841,7 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/hram.vaskrsenja.bec</v>
+        <v>https://instagram.com/candik_lein</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3867,7 +3853,7 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jewishgirlprobs</v>
+        <v>https://instagram.com/canlilardunyasi</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3879,7 +3865,7 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/therock</v>
+        <v>https://instagram.com/carryminati</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3891,7 +3877,7 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/gurbani.quotes_</v>
+        <v>https://instagram.com/carsisimsek1</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3903,7 +3889,7 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/loretto_wiennoe</v>
+        <v>https://instagram.com/catholicfaithformation</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3915,7 +3901,7 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/reflab.ch</v>
+        <v>https://instagram.com/celli_1000</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3927,7 +3913,7 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/jufodig</v>
+        <v>https://instagram.com/champagnerkraft</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3939,7 +3925,7 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="1"/>
-        <v>https://instagram.com/csiriano</v>
+        <v>https://instagram.com/championsleague</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3951,7 +3937,7 @@
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="2">"https://instagram.com/"&amp;(RIGHT(B130,LEN(B130)-3))</f>
-        <v>https://instagram.com/elhotzo</v>
+        <v>https://instagram.com/chandlerbingunofficialfriends</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3963,7 +3949,7 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/feridheider</v>
+        <v>https://instagram.com/changiyan_sachiyan_glaan</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3975,7 +3961,7 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/goalglobal</v>
+        <v>https://instagram.com/chatdiss_</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3987,7 +3973,7 @@
       </c>
       <c r="C133" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/kurtisconner</v>
+        <v>https://instagram.com/chiaraseidl</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -3999,7 +3985,7 @@
       </c>
       <c r="C134" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/jesusistmeinleben</v>
+        <v>https://instagram.com/chriswiederkehr</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4011,7 +3997,7 @@
       </c>
       <c r="C135" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/kochrezpete</v>
+        <v>https://instagram.com/churchmemesministry</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4023,7 +4009,7 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/michaelbonvalot</v>
+        <v>https://instagram.com/clips</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4035,7 +4021,7 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/allforonefulda</v>
+        <v>https://instagram.com/come2stay</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4047,7 +4033,7 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/officialbenshapiro</v>
+        <v>https://instagram.com/comm3mes</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4059,7 +4045,7 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/jad_bejad</v>
+        <v>https://instagram.com/commentfasheee5</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4071,7 +4057,7 @@
       </c>
       <c r="C140" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/vural.uemit</v>
+        <v>https://instagram.com/corinnamilborn</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4083,7 +4069,7 @@
       </c>
       <c r="C141" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/makeupartvienna</v>
+        <v>https://instagram.com/coverageduo</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4095,7 +4081,7 @@
       </c>
       <c r="C142" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/popserbian</v>
+        <v>https://instagram.com/crankbrothers</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4107,7 +4093,7 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/ruthe_offiziell</v>
+        <v>https://instagram.com/crimson_day_</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4119,7 +4105,7 @@
       </c>
       <c r="C144" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/#edw</v>
+        <v>https://instagram.com/crkva_diseldorf</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4131,7 +4117,7 @@
       </c>
       <c r="C145" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/thebestchristianmemes</v>
+        <v>https://instagram.com/crnogorcevic_ivan</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4143,7 +4129,7 @@
       </c>
       <c r="C146" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/9geiik</v>
+        <v>https://instagram.com/crvenazvezdafk</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4155,7 +4141,7 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/otacastvo</v>
+        <v>https://instagram.com/csiriano</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4167,7 +4153,7 @@
       </c>
       <c r="C148" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/orf.at</v>
+        <v>https://instagram.com/cznburak</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4179,7 +4165,7 @@
       </c>
       <c r="C149" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/kardinalwien</v>
+        <v>https://instagram.com/danaemercer</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4191,7 +4177,7 @@
       </c>
       <c r="C150" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/bodyengineers</v>
+        <v>https://instagram.com/danica_crnogorcevic</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4203,7 +4189,7 @@
       </c>
       <c r="C151" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/jovlekaline</v>
+        <v>https://instagram.com/dankjewish</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4215,7 +4201,7 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/palidelights</v>
+        <v>https://instagram.com/dariadaria</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4227,7 +4213,7 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/#kjwien</v>
+        <v>https://instagram.com/dasbibelprojekt</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4239,7 +4225,7 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/youmagazintherealstuff</v>
+        <v>https://instagram.com/deinbeichtstuhl</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4251,7 +4237,7 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/worldofbrands</v>
+        <v>https://instagram.com/derfunke.at</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4263,7 +4249,7 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/teamcevans</v>
+        <v>https://instagram.com/derstandardat</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4275,7 +4261,7 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/now_you_see_me_moria</v>
+        <v>https://instagram.com/derzwuckundich</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4287,7 +4273,7 @@
       </c>
       <c r="C158" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/filthy.meme.whore.v2</v>
+        <v>https://instagram.com/desi.sarcasm</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4299,7 +4285,7 @@
       </c>
       <c r="C159" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/missio_at</v>
+        <v>https://instagram.com/dianagoldbergmusic</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4311,7 +4297,7 @@
       </c>
       <c r="C160" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/vtrakit.official</v>
+        <v>https://instagram.com/diegruenen</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4323,7 +4309,7 @@
       </c>
       <c r="C161" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/aladinelmafaalani</v>
+        <v>https://instagram.com/dietagespresse</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4335,7 +4321,7 @@
       </c>
       <c r="C162" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/nemouel_</v>
+        <v>https://instagram.com/dirkeggercrv</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4347,7 +4333,7 @@
       </c>
       <c r="C163" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/khalsa_aid</v>
+        <v>https://instagram.com/discoverearth</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4359,7 +4345,7 @@
       </c>
       <c r="C164" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/Ariandebose</v>
+        <v>https://instagram.com/discoverwildlife</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4371,7 +4357,7 @@
       </c>
       <c r="C165" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/mikiza.blog</v>
+        <v>https://instagram.com/dissociadid</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4383,7 +4369,7 @@
       </c>
       <c r="C166" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/b.netanyahu</v>
+        <v>https://instagram.com/dnevnadozabeograda</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4395,7 +4381,7 @@
       </c>
       <c r="C167" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/bnp.passau</v>
+        <v>https://instagram.com/downbadpolice</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4407,7 +4393,7 @@
       </c>
       <c r="C168" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/8nd90</v>
+        <v>https://instagram.com/dr._ali_oezdil</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4419,7 +4405,7 @@
       </c>
       <c r="C169" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/vanillaholica</v>
+        <v>https://instagram.com/dr.nikolausraab</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4431,7 +4417,7 @@
       </c>
       <c r="C170" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/alinnail_wien</v>
+        <v>https://instagram.com/dr.raniaawaad</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4443,7 +4429,7 @@
       </c>
       <c r="C171" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/teddysphotos</v>
+        <v>https://instagram.com/drjohanneshartl</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4455,7 +4441,7 @@
       </c>
       <c r="C172" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/antiflirting2</v>
+        <v>https://instagram.com/dtv_verlag</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4467,7 +4453,7 @@
       </c>
       <c r="C173" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/brittany_broski</v>
+        <v>https://instagram.com/duhovne_pouke_</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4479,7 +4465,7 @@
       </c>
       <c r="C174" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/matthewmeyerart</v>
+        <v>https://instagram.com/eatinghealthytoday</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4491,7 +4477,7 @@
       </c>
       <c r="C175" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/trollpunjab</v>
+        <v>https://instagram.com/ecoindianenfrance</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4503,7 +4489,7 @@
       </c>
       <c r="C176" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/sonnenflume</v>
+        <v>https://instagram.com/edgymemesforworthlessteens</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4515,7 +4501,7 @@
       </c>
       <c r="C177" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/novritsch</v>
+        <v>https://instagram.com/eine.reise.ins.ungewisse</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4527,7 +4513,7 @@
       </c>
       <c r="C178" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/priesterseminarregensburg</v>
+        <v>https://instagram.com/elevation_cycling</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4539,7 +4525,7 @@
       </c>
       <c r="C179" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/baschly</v>
+        <v>https://instagram.com/elevationworship</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4551,7 +4537,7 @@
       </c>
       <c r="C180" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/erzdioezesewien</v>
+        <v>https://instagram.com/elhotzo</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4563,7 +4549,7 @@
       </c>
       <c r="C181" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/yudale_restaurant</v>
+        <v>https://instagram.com/enews</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4575,7 +4561,7 @@
       </c>
       <c r="C182" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/aaylingk</v>
+        <v>https://instagram.com/englishwithnab</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4587,7 +4573,7 @@
       </c>
       <c r="C183" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/kleinezeitungnext</v>
+        <v>https://instagram.com/epicchristianmemes</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4599,7 +4585,7 @@
       </c>
       <c r="C184" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/angry_radical_feminist</v>
+        <v>https://instagram.com/erkeklerinicsesi</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4611,7 +4597,7 @@
       </c>
       <c r="C185" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/mati.randow</v>
+        <v>https://instagram.com/erzbistumhamburg</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4623,7 +4609,7 @@
       </c>
       <c r="C186" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/chatdiss_</v>
+        <v>https://instagram.com/erzdioezesewien</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4635,7 +4621,7 @@
       </c>
       <c r="C187" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/pamela_rf</v>
+        <v>https://instagram.com/espn</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4647,7 +4633,7 @@
       </c>
       <c r="C188" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/wordsbytaher</v>
+        <v>https://instagram.com/espnmma</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4659,7 +4645,7 @@
       </c>
       <c r="C189" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/#zerowaste</v>
+        <v>https://instagram.com/esraezmecii</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4671,7 +4657,7 @@
       </c>
       <c r="C190" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/almazadic</v>
+        <v>https://instagram.com/esraxgram</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4683,7 +4669,7 @@
       </c>
       <c r="C191" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/liverpoolfc</v>
+        <v>https://instagram.com/eujs_official</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4695,7 +4681,7 @@
       </c>
       <c r="C192" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/therefinedwoman</v>
+        <v>https://instagram.com/everydayrefugees</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4707,7 +4693,7 @@
       </c>
       <c r="C193" t="str">
         <f t="shared" si="2"/>
-        <v>https://instagram.com/englishwithnab</v>
+        <v>https://instagram.com/exotiquetv</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4719,7 +4705,7 @@
       </c>
       <c r="C194" t="str">
         <f t="shared" ref="C194:C257" si="3">"https://instagram.com/"&amp;(RIGHT(B194,LEN(B194)-3))</f>
-        <v>https://instagram.com/furkan.perg</v>
+        <v>https://instagram.com/eyesneverliechico</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4731,7 +4717,7 @@
       </c>
       <c r="C195" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/m10_official</v>
+        <v>https://instagram.com/ezhel06</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4743,7 +4729,7 @@
       </c>
       <c r="C196" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/leanwithlilly</v>
+        <v>https://instagram.com/faktastisch</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4755,7 +4741,7 @@
       </c>
       <c r="C197" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/alpbebecom</v>
+        <v>https://instagram.com/falakenoorboutique</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4767,7 +4753,7 @@
       </c>
       <c r="C198" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/peter_hacker_wien</v>
+        <v>https://instagram.com/faridbangbang</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4779,7 +4765,7 @@
       </c>
       <c r="C199" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/_cteen</v>
+        <v>https://instagram.com/fathimehmettmacogluu</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4791,7 +4777,7 @@
       </c>
       <c r="C200" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/fereidooni.karim</v>
+        <v>https://instagram.com/faz</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4803,7 +4789,7 @@
       </c>
       <c r="C201" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/vienna.house.stories</v>
+        <v>https://instagram.com/fcbarcelona</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4815,7 +4801,7 @@
       </c>
       <c r="C202" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/iof_orienteering</v>
+        <v>https://instagram.com/fcbayern</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4827,7 +4813,7 @@
       </c>
       <c r="C203" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/bitch.rising</v>
+        <v>https://instagram.com/fdpbt</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4839,7 +4825,7 @@
       </c>
       <c r="C204" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/#secret</v>
+        <v>https://instagram.com/felleis_knittelfelder</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4851,7 +4837,7 @@
       </c>
       <c r="C205" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/butunsirribozdun</v>
+        <v>https://instagram.com/fenerbahce</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4863,7 +4849,7 @@
       </c>
       <c r="C206" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/shiurinternational</v>
+        <v>https://instagram.com/fereidooni.karim</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4875,7 +4861,7 @@
       </c>
       <c r="C207" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/tagesschau</v>
+        <v>https://instagram.com/feridheider</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4887,7 +4873,7 @@
       </c>
       <c r="C208" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/everydayrefugees</v>
+        <v>https://instagram.com/ferithafez</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4899,7 +4885,7 @@
       </c>
       <c r="C209" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/bsiultimate</v>
+        <v>https://instagram.com/filmup.co</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4911,7 +4897,7 @@
       </c>
       <c r="C210" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/yadvashem</v>
+        <v>https://instagram.com/filthy.meme.whore.v2</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4923,7 +4909,7 @@
       </c>
       <c r="C211" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/torahdaily</v>
+        <v>https://instagram.com/financialprofessional</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4935,7 +4921,7 @@
       </c>
       <c r="C212" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/#mealprepping</v>
+        <v>https://instagram.com/fitinn.at</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4947,7 +4933,7 @@
       </c>
       <c r="C213" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/muna.duzdar</v>
+        <v>https://instagram.com/fkaustriawien</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4959,7 +4945,7 @@
       </c>
       <c r="C214" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/herzstaerkend</v>
+        <v>https://instagram.com/followmeifyouarehappy</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4971,7 +4957,7 @@
       </c>
       <c r="C215" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/savastyanov71</v>
+        <v>https://instagram.com/forbes</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4983,7 +4969,7 @@
       </c>
       <c r="C216" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/sumeyyelambrecht</v>
+        <v>https://instagram.com/freundship</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -4995,7 +4981,7 @@
       </c>
       <c r="C217" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/jews_of_ny</v>
+        <v>https://instagram.com/fuerstfoto</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5007,7 +4993,7 @@
       </c>
       <c r="C218" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/weinausderhoelle</v>
+        <v>https://instagram.com/funk</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5019,7 +5005,7 @@
       </c>
       <c r="C219" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/astroolojim</v>
+        <v>https://instagram.com/furkan.perg</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5031,7 +5017,7 @@
       </c>
       <c r="C220" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/chiaraseidl</v>
+        <v>https://instagram.com/gameofthronesnotofficial</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5043,7 +5029,7 @@
       </c>
       <c r="C221" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/maapilim_vienna</v>
+        <v>https://instagram.com/garyvee</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5055,7 +5041,7 @@
       </c>
       <c r="C222" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/kaneki_kiss</v>
+        <v>https://instagram.com/gatewayworship</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5067,7 +5053,7 @@
       </c>
       <c r="C223" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/thewonderofmercy</v>
+        <v>https://instagram.com/getevidenced</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5079,7 +5065,7 @@
       </c>
       <c r="C224" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/breakfastatfreddys</v>
+        <v>https://instagram.com/gfgmbh</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5091,7 +5077,7 @@
       </c>
       <c r="C225" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/faktastisch</v>
+        <v>https://instagram.com/ghantaa</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5103,7 +5089,7 @@
       </c>
       <c r="C226" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/jokezar</v>
+        <v>https://instagram.com/giani_sant_singh_maskeen</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5115,7 +5101,7 @@
       </c>
       <c r="C227" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/spongebob.memepage</v>
+        <v>https://instagram.com/gjmoesterreich</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5127,7 +5113,7 @@
       </c>
       <c r="C228" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/guardian</v>
+        <v>https://instagram.com/goalglobal</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5139,7 +5125,7 @@
       </c>
       <c r="C229" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/bneiakiva.dorot</v>
+        <v>https://instagram.com/godisgrey</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5151,7 +5137,7 @@
       </c>
       <c r="C230" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/vagt_1210</v>
+        <v>https://instagram.com/gottfriedundsoehne</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5163,7 +5149,7 @@
       </c>
       <c r="C231" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/jewishmemes</v>
+        <v>https://instagram.com/greenpeaceaustria</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5175,7 +5161,7 @@
       </c>
       <c r="C232" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/revolt_cg</v>
+        <v>https://instagram.com/grg21.franklinstrasse21</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5187,7 +5173,7 @@
       </c>
       <c r="C233" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/godisgrey</v>
+        <v>https://instagram.com/grupyorumofficial</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5199,7 +5185,7 @@
       </c>
       <c r="C234" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/fathimehmettmacogluu</v>
+        <v>https://instagram.com/guardian</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5211,7 +5197,7 @@
       </c>
       <c r="C235" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/crkva_diseldorf</v>
+        <v>https://instagram.com/gurbani.quotes_</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5223,7 +5209,7 @@
       </c>
       <c r="C236" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/lisamarie_schiffner</v>
+        <v>https://instagram.com/gurbani_n_quotes</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5235,7 +5221,7 @@
       </c>
       <c r="C237" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/#africanfood</v>
+        <v>https://instagram.com/gurmati_vichar</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5247,7 +5233,7 @@
       </c>
       <c r="C238" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/ishaq.calligraphy</v>
+        <v>https://instagram.com/hasidiminusa</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5259,7 +5245,7 @@
       </c>
       <c r="C239" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/linkswien</v>
+        <v>https://instagram.com/hayaomiyazaki</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5271,7 +5257,7 @@
       </c>
       <c r="C240" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/jattisjattsaleo</v>
+        <v>https://instagram.com/hebrewmemes</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5283,7 +5269,7 @@
       </c>
       <c r="C241" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/sosyalistmizah</v>
+        <v>https://instagram.com/herbststrasse</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5295,7 +5281,7 @@
       </c>
       <c r="C242" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/moshiverse</v>
+        <v>https://instagram.com/herkessbirazdelidir</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5307,7 +5293,7 @@
       </c>
       <c r="C243" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/karen_millen</v>
+        <v>https://instagram.com/herzstaerkend</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5319,7 +5305,7 @@
       </c>
       <c r="C244" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/theturntjew</v>
+        <v>https://instagram.com/hey.alma</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5331,7 +5317,7 @@
       </c>
       <c r="C245" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/noway_srib</v>
+        <v>https://instagram.com/hiighholder</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5343,7 +5329,7 @@
       </c>
       <c r="C246" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/karimjamael</v>
+        <v>https://instagram.com/hillsong</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5355,7 +5341,7 @@
       </c>
       <c r="C247" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/ketodiettracker</v>
+        <v>https://instagram.com/hnaftali</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5367,7 +5353,7 @@
       </c>
       <c r="C248" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/wienzufuss</v>
+        <v>https://instagram.com/hodakatebi</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5379,7 +5365,7 @@
       </c>
       <c r="C249" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/izwien</v>
+        <v>https://instagram.com/hoenest</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5391,7 +5377,7 @@
       </c>
       <c r="C250" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/fcbayern</v>
+        <v>https://instagram.com/hoer.oesterreich</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5403,7 +5389,7 @@
       </c>
       <c r="C251" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/anthonyjoshua</v>
+        <v>https://instagram.com/homechurch_salzburg</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5415,7 +5401,7 @@
       </c>
       <c r="C252" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/shakira</v>
+        <v>https://instagram.com/horrordatestorys</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5427,7 +5413,7 @@
       </c>
       <c r="C253" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/asmaaiad</v>
+        <v>https://instagram.com/hram.vaskrsenja.bec</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5439,7 +5425,7 @@
       </c>
       <c r="C254" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/overflow.wrneustadt</v>
+        <v>https://instagram.com/hudas_welten_blog</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5451,7 +5437,7 @@
       </c>
       <c r="C255" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/bitch</v>
+        <v>https://instagram.com/humansofjudaism</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5463,7 +5449,7 @@
       </c>
       <c r="C256" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/ghantaa</v>
+        <v>https://instagram.com/iamchristlclear</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5475,7 +5461,7 @@
       </c>
       <c r="C257" t="str">
         <f t="shared" si="3"/>
-        <v>https://instagram.com/sikhi2go</v>
+        <v>https://instagram.com/iamstudent_at</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5487,7 +5473,7 @@
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="4">"https://instagram.com/"&amp;(RIGHT(B258,LEN(B258)-3))</f>
-        <v>https://instagram.com/memesforjesus</v>
+        <v>https://instagram.com/ibrahimtenekeci</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5499,7 +5485,7 @@
       </c>
       <c r="C259" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/success.portal</v>
+        <v>https://instagram.com/idf</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5511,7 +5497,7 @@
       </c>
       <c r="C260" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/ecoindianenfrance</v>
+        <v>https://instagram.com/idfonline</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5523,7 +5509,7 @@
       </c>
       <c r="C261" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/thom_bushcraftprotal_cz</v>
+        <v>https://instagram.com/ikartoglu</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5535,7 +5521,7 @@
       </c>
       <c r="C262" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/berviansworld</v>
+        <v>https://instagram.com/ilsedelangemusic</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5547,7 +5533,7 @@
       </c>
       <c r="C263" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/jeanettemokosch</v>
+        <v>https://instagram.com/imaginetrip__</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5559,7 +5545,7 @@
       </c>
       <c r="C264" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/towardseternity</v>
+        <v>https://instagram.com/imamomarsuleiman</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5571,7 +5557,7 @@
       </c>
       <c r="C265" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/seawatchcrew</v>
+        <v>https://instagram.com/imjustbesti</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5583,7 +5569,7 @@
       </c>
       <c r="C266" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/ornad.vienna</v>
+        <v>https://instagram.com/in_dubio_pro_mindermeinung</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5595,7 +5581,7 @@
       </c>
       <c r="C267" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/memeshiach</v>
+        <v>https://instagram.com/inesw.bs</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5607,7 +5593,7 @@
       </c>
       <c r="C268" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/angeladoe</v>
+        <v>https://instagram.com/insta.jews</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5619,7 +5605,7 @@
       </c>
       <c r="C269" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/hodakatebi</v>
+        <v>https://instagram.com/insta_desli</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5631,7 +5617,7 @@
       </c>
       <c r="C270" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/eyesneverliechico</v>
+        <v>https://instagram.com/insta_frum</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5643,7 +5629,7 @@
       </c>
       <c r="C271" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/womanslook</v>
+        <v>https://instagram.com/interestingengineering</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5655,7 +5641,7 @@
       </c>
       <c r="C272" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/jsud_official</v>
+        <v>https://instagram.com/iof_orienteering</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5667,7 +5653,7 @@
       </c>
       <c r="C273" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/exotiquetv</v>
+        <v>https://instagram.com/irg.sbg</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5679,7 +5665,7 @@
       </c>
       <c r="C274" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/neos_wien</v>
+        <v>https://instagram.com/ishaq.calligraphy</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5691,7 +5677,7 @@
       </c>
       <c r="C275" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/jrichardnoel</v>
+        <v>https://instagram.com/islamchanneltv</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5703,7 +5689,7 @@
       </c>
       <c r="C276" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/mmd</v>
+        <v>https://instagram.com/islamictreasures</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5715,7 +5701,7 @@
       </c>
       <c r="C277" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/presse_service_vie</v>
+        <v>https://instagram.com/islamify</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5727,7 +5713,7 @@
       </c>
       <c r="C278" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/abt.paisios</v>
+        <v>https://instagram.com/islamischeFakten</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5739,7 +5725,7 @@
       </c>
       <c r="C279" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/jugendtreffen</v>
+        <v>https://instagram.com/israelipm</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5751,7 +5737,7 @@
       </c>
       <c r="C280" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/jakob_koordinierungsstelle</v>
+        <v>https://instagram.com/isyoufunny</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5763,7 +5749,7 @@
       </c>
       <c r="C281" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/worldjewishcongress</v>
+        <v>https://instagram.com/izwien</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5775,7 +5761,7 @@
       </c>
       <c r="C282" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/pun_bible</v>
+        <v>https://instagram.com/j.community</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5787,7 +5773,7 @@
       </c>
       <c r="C283" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/ajdinewz</v>
+        <v>https://instagram.com/ja.und.amen</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5799,7 +5785,7 @@
       </c>
       <c r="C284" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/NBA</v>
+        <v>https://instagram.com/jad_bejad</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5811,7 +5797,7 @@
       </c>
       <c r="C285" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/saintverse</v>
+        <v>https://instagram.com/jakob_koordinierungsstelle</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5823,7 +5809,7 @@
       </c>
       <c r="C286" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/#architecture</v>
+        <v>https://instagram.com/jattisjattsaleo</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5835,7 +5821,7 @@
       </c>
       <c r="C287" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/sikhreddit</v>
+        <v>https://instagram.com/jeanettemokosch</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5847,7 +5833,7 @@
       </c>
       <c r="C288" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/natgeoadventures</v>
+        <v>https://instagram.com/jessicaoutofthecloset</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5859,7 +5845,7 @@
       </c>
       <c r="C289" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/bongo_juden</v>
+        <v>https://instagram.com/jesus.ch</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5871,7 +5857,7 @@
       </c>
       <c r="C290" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/srpskacast</v>
+        <v>https://instagram.com/jesusarmy.official</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5883,7 +5869,7 @@
       </c>
       <c r="C291" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/ikartoglu</v>
+        <v>https://instagram.com/jesusistmeinleben</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5895,7 +5881,7 @@
       </c>
       <c r="C292" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/kisanektamorcha</v>
+        <v>https://instagram.com/jesusmemes</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5907,7 +5893,7 @@
       </c>
       <c r="C293" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/punjabi______tadka</v>
+        <v>https://instagram.com/jewishbreakingnews</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5919,7 +5905,7 @@
       </c>
       <c r="C294" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/felleis_knittelfelder</v>
+        <v>https://instagram.com/jewishgirlprobs</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5931,7 +5917,7 @@
       </c>
       <c r="C295" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/vanderbellen</v>
+        <v>https://instagram.com/jewishmemes</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5943,7 +5929,7 @@
       </c>
       <c r="C296" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/dankjewish</v>
+        <v>https://instagram.com/jewishmuseumvienna</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5955,7 +5941,7 @@
       </c>
       <c r="C297" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/katholischejugendwien</v>
+        <v>https://instagram.com/jewishvibes</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5967,7 +5953,7 @@
       </c>
       <c r="C298" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/muftimenkofficial</v>
+        <v>https://instagram.com/jews_of_ny</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5979,7 +5965,7 @@
       </c>
       <c r="C299" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/#imthatjew</v>
+        <v>https://instagram.com/JimmySnowtss</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -5991,7 +5977,7 @@
       </c>
       <c r="C300" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/tomholland2013</v>
+        <v>https://instagram.com/joehwien</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6003,7 +5989,7 @@
       </c>
       <c r="C301" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/markruffalo</v>
+        <v>https://instagram.com/johanna.mikl.leitner</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6015,7 +6001,7 @@
       </c>
       <c r="C302" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/punjabiwebsite</v>
+        <v>https://instagram.com/johannesbartl</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6027,7 +6013,7 @@
       </c>
       <c r="C303" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/alexgreycosm</v>
+        <v>https://instagram.com/johnlcooper</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6039,7 +6025,7 @@
       </c>
       <c r="C304" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/bjennymontero</v>
+        <v>https://instagram.com/jokezar</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6051,7 +6037,7 @@
       </c>
       <c r="C305" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/filmup.co</v>
+        <v>https://instagram.com/jovlekaline</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6063,7 +6049,7 @@
       </c>
       <c r="C306" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/lacasadepapel</v>
+        <v>https://instagram.com/jrichardnoel</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6075,7 +6061,7 @@
       </c>
       <c r="C307" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/sarahmariepoetry</v>
+        <v>https://instagram.com/jsud_official</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6087,7 +6073,7 @@
       </c>
       <c r="C308" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/vice_de</v>
+        <v>https://instagram.com/juan_son_1210</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6099,7 +6085,7 @@
       </c>
       <c r="C309" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/esraxgram</v>
+        <v>https://instagram.com/jubileemedia</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6111,7 +6097,7 @@
       </c>
       <c r="C310" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/shakir.amena</v>
+        <v>https://instagram.com/jufodig</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6123,7 +6109,7 @@
       </c>
       <c r="C311" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/veganewunder</v>
+        <v>https://instagram.com/jugendtreffen</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6135,7 +6121,7 @@
       </c>
       <c r="C312" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/subwaytherapy</v>
+        <v>https://instagram.com/jukowien</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6147,7 +6133,7 @@
       </c>
       <c r="C313" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/yannickshetty</v>
+        <v>https://instagram.com/juliaandgil</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6159,7 +6145,7 @@
       </c>
       <c r="C314" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/wujs_official</v>
+        <v>https://instagram.com/juliandthechurch</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6171,7 +6157,7 @@
       </c>
       <c r="C315" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/pbfspc</v>
+        <v>https://instagram.com/jungekirchewien</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6183,7 +6169,7 @@
       </c>
       <c r="C316" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/memelord</v>
+        <v>https://instagram.com/jungmediziner</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6195,7 +6181,7 @@
       </c>
       <c r="C317" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/#westafricanfood</v>
+        <v>https://instagram.com/kakaotschifrau</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6207,7 +6193,7 @@
       </c>
       <c r="C318" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/sweatybetty</v>
+        <v>https://instagram.com/kaneki_kiss</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6219,7 +6205,7 @@
       </c>
       <c r="C319" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/dnevnadozabeograda</v>
+        <v>https://instagram.com/kardinalwien</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6231,7 +6217,7 @@
       </c>
       <c r="C320" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/topfakten</v>
+        <v>https://instagram.com/karen_millen</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6243,7 +6229,7 @@
       </c>
       <c r="C321" t="str">
         <f t="shared" si="4"/>
-        <v>https://instagram.com/crnogorcevic_ivan</v>
+        <v>https://instagram.com/karikaturhane</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6255,7 +6241,7 @@
       </c>
       <c r="C322" t="str">
         <f t="shared" ref="C322:C385" si="5">"https://instagram.com/"&amp;(RIGHT(B322,LEN(B322)-3))</f>
-        <v>https://instagram.com/herkessbirazdelidir</v>
+        <v>https://instagram.com/karimjamael</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6267,7 +6253,7 @@
       </c>
       <c r="C323" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/trollvid.s</v>
+        <v>https://instagram.com/karsudonmez</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6279,7 +6265,7 @@
       </c>
       <c r="C324" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/keshet_de</v>
+        <v>https://instagram.com/katholischejugendwien</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6291,7 +6277,7 @@
       </c>
       <c r="C325" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/velvetcoke</v>
+        <v>https://instagram.com/keineinsamerbaum</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6303,7 +6289,7 @@
       </c>
       <c r="C326" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/bneiakiva.wien</v>
+        <v>https://instagram.com/kelebackstage</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6315,7 +6301,7 @@
       </c>
       <c r="C327" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/aleviiyiiz</v>
+        <v>https://instagram.com/kentelamal</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6327,7 +6313,7 @@
       </c>
       <c r="C328" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/basicsofsikhi</v>
+        <v>https://instagram.com/keshet_de</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6339,7 +6325,7 @@
       </c>
       <c r="C329" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/alpenvereinaustria</v>
+        <v>https://instagram.com/keto.fit.meal</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6351,7 +6337,7 @@
       </c>
       <c r="C330" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/dasbibelprojekt</v>
+        <v>https://instagram.com/ketodiettracker</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6363,7 +6349,7 @@
       </c>
       <c r="C331" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/sikhexpo</v>
+        <v>https://instagram.com/key2life_festival</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6375,7 +6361,7 @@
       </c>
       <c r="C332" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/thenaughtytrolls</v>
+        <v>https://instagram.com/khabib_nurmagomedov</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6387,7 +6373,7 @@
       </c>
       <c r="C333" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/rafftar_rai</v>
+        <v>https://instagram.com/khalsa_aid</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6399,7 +6385,7 @@
       </c>
       <c r="C334" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/mindsetofgreatness</v>
+        <v>https://instagram.com/kirchgasser_photography</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6411,7 +6397,7 @@
       </c>
       <c r="C335" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/bbcnews</v>
+        <v>https://instagram.com/kisanektamorcha</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6423,7 +6409,7 @@
       </c>
       <c r="C336" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/yungblud</v>
+        <v>https://instagram.com/kizlarinicesesiiii</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6435,7 +6421,7 @@
       </c>
       <c r="C337" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/sankt.jugend</v>
+        <v>https://instagram.com/kjooe</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6447,7 +6433,7 @@
       </c>
       <c r="C338" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/s.ferox</v>
+        <v>https://instagram.com/kleinexpoetin</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6459,7 +6445,7 @@
       </c>
       <c r="C339" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/oxford_uni</v>
+        <v>https://instagram.com/kleinezeitungnext</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6471,7 +6457,7 @@
       </c>
       <c r="C340" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/zooviennaschonbrunn</v>
+        <v>https://instagram.com/klostermariaschutz</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6483,7 +6469,7 @@
       </c>
       <c r="C341" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/freundship</v>
+        <v>https://instagram.com/kochrezpete</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6495,7 +6481,7 @@
       </c>
       <c r="C342" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/epicchristianmemes</v>
+        <v>https://instagram.com/kspacewien</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6507,7 +6493,7 @@
       </c>
       <c r="C343" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/prageru</v>
+        <v>https://instagram.com/kumarskitchenaustria</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6519,7 +6505,7 @@
       </c>
       <c r="C344" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/berlinauslandermemes</v>
+        <v>https://instagram.com/kurtisconner</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6531,7 +6517,7 @@
       </c>
       <c r="C345" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/sostrenegrene</v>
+        <v>https://instagram.com/lacasadepapel</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6543,7 +6529,7 @@
       </c>
       <c r="C346" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/chandlerbingunofficialfriends</v>
+        <v>https://instagram.com/lachkrampfbilder</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6555,7 +6541,7 @@
       </c>
       <c r="C347" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/insta_frum</v>
+        <v>https://instagram.com/lafashionfiles</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6567,7 +6553,7 @@
       </c>
       <c r="C348" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/#plantbased</v>
+        <v>https://instagram.com/latenightberlin</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6579,7 +6565,7 @@
       </c>
       <c r="C349" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/pablohaseloficial</v>
+        <v>https://instagram.com/leanwithlilly</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6591,7 +6577,7 @@
       </c>
       <c r="C350" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/zahraa_muslim_lifestyle</v>
+        <v>https://instagram.com/leighturnerfcdo</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6603,7 +6589,7 @@
       </c>
       <c r="C351" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/followmeifyouarehappy</v>
+        <v>https://instagram.com/leni_lafayette</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6615,7 +6601,7 @@
       </c>
       <c r="C352" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/fdpbt</v>
+        <v>https://instagram.com/lesbiancinema</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6627,7 +6613,7 @@
       </c>
       <c r="C353" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/funk</v>
+        <v>https://instagram.com/Likrat_Austria</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6639,7 +6625,7 @@
       </c>
       <c r="C354" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/latenightberlin</v>
+        <v>https://instagram.com/linkswien</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6651,7 +6637,7 @@
       </c>
       <c r="C355" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/ajc.global</v>
+        <v>https://instagram.com/linlouuu</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6663,7 +6649,7 @@
       </c>
       <c r="C356" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/thegoodquote</v>
+        <v>https://instagram.com/liorsuchard</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6675,7 +6661,7 @@
       </c>
       <c r="C357" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/insta.jews</v>
+        <v>https://instagram.com/lisafasl</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6687,7 +6673,7 @@
       </c>
       <c r="C358" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/hoenest</v>
+        <v>https://instagram.com/lisamarie_schiffner</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6699,7 +6685,7 @@
       </c>
       <c r="C359" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/nazjuju</v>
+        <v>https://instagram.com/liverpoolfc</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6711,7 +6697,7 @@
       </c>
       <c r="C360" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/dr.raniaawaad</v>
+        <v>https://instagram.com/logos.ai</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6723,7 +6709,7 @@
       </c>
       <c r="C361" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/financialprofessional</v>
+        <v>https://instagram.com/lolmemesop</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6735,7 +6721,7 @@
       </c>
       <c r="C362" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/derzwuckundich</v>
+        <v>https://instagram.com/lordposts</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6747,7 +6733,7 @@
       </c>
       <c r="C363" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/championsleague</v>
+        <v>https://instagram.com/loretto_wiennoe</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6759,7 +6745,7 @@
       </c>
       <c r="C364" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/yugojokes</v>
+        <v>https://instagram.com/lorettogemeinschaft</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6771,7 +6757,7 @@
       </c>
       <c r="C365" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/lesbiancinema</v>
+        <v>https://instagram.com/lutherische_stadtkirche_wien</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6783,7 +6769,7 @@
       </c>
       <c r="C366" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/lordposts</v>
+        <v>https://instagram.com/m10_official</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6795,7 +6781,7 @@
       </c>
       <c r="C367" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/grupyorumofficial</v>
+        <v>https://instagram.com/m3_jugend</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6807,7 +6793,7 @@
       </c>
       <c r="C368" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/greenpeaceaustria</v>
+        <v>https://instagram.com/maapilim_vienna</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6819,7 +6805,7 @@
       </c>
       <c r="C369" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/tipgenelmerkez</v>
+        <v>https://instagram.com/magda.bachi</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6831,7 +6817,7 @@
       </c>
       <c r="C370" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/clips</v>
+        <v>https://instagram.com/makeupartvienna</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6843,7 +6829,7 @@
       </c>
       <c r="C371" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/tobiashiems</v>
+        <v>https://instagram.com/mallofmemes</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6855,7 +6841,7 @@
       </c>
       <c r="C372" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/kumarskitchenaustria</v>
+        <v>https://instagram.com/manitateroru</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6867,7 +6853,7 @@
       </c>
       <c r="C373" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/ofek_beratung</v>
+        <v>https://instagram.com/manshingaar</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6879,7 +6865,7 @@
       </c>
       <c r="C374" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/falakenoorboutique</v>
+        <v>https://instagram.com/markruffalo</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6891,7 +6877,7 @@
       </c>
       <c r="C375" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/svoboda.anton</v>
+        <v>https://instagram.com/marvel</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6903,7 +6889,7 @@
       </c>
       <c r="C376" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/redstarbelgrade.rs</v>
+        <v>https://instagram.com/marvelstudios</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6915,7 +6901,7 @@
       </c>
       <c r="C377" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/commentfasheee5</v>
+        <v>https://instagram.com/mateitulban</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6927,7 +6913,7 @@
       </c>
       <c r="C378" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/j.community</v>
+        <v>https://instagram.com/mati.randow</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6939,7 +6925,7 @@
       </c>
       <c r="C379" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/advice</v>
+        <v>https://instagram.com/matthewmeyerart</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6951,7 +6937,7 @@
       </c>
       <c r="C380" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/thecircle_sessions</v>
+        <v>https://instagram.com/maxfromtax</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6963,7 +6949,7 @@
       </c>
       <c r="C381" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/subwayhands</v>
+        <v>https://instagram.com/meduniwien</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6975,7 +6961,7 @@
       </c>
       <c r="C382" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/zeitimbild</v>
+        <v>https://instagram.com/meilechkohn</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6987,7 +6973,7 @@
       </c>
       <c r="C383" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/theinkquisites</v>
+        <v>https://instagram.com/memelord</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -6999,7 +6985,7 @@
       </c>
       <c r="C384" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/danaemercer</v>
+        <v>https://instagram.com/memesaz</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7011,7 +6997,7 @@
       </c>
       <c r="C385" t="str">
         <f t="shared" si="5"/>
-        <v>https://instagram.com/truth_israel</v>
+        <v>https://instagram.com/memesforjesus</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7023,7 +7009,7 @@
       </c>
       <c r="C386" t="str">
         <f t="shared" ref="C386:C449" si="6">"https://instagram.com/"&amp;(RIGHT(B386,LEN(B386)-3))</f>
-        <v>https://instagram.com/edgymemesforworthlessteens</v>
+        <v>https://instagram.com/memeshiach</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7035,7 +7021,7 @@
       </c>
       <c r="C387" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/seekersguidanceorg</v>
+        <v>https://instagram.com/memesofjudaism</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7047,7 +7033,7 @@
       </c>
       <c r="C388" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/#lesswaste</v>
+        <v>https://instagram.com/memezar</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7059,7 +7045,7 @@
       </c>
       <c r="C389" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/lachkrampfbilder</v>
+        <v>https://instagram.com/michaelbonvalot</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7071,7 +7057,7 @@
       </c>
       <c r="C390" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/the_protestant_christian</v>
+        <v>https://instagram.com/michaelludwig_official</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7083,7 +7069,7 @@
       </c>
       <c r="C391" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/bneiakivaschweiz</v>
+        <v>https://instagram.com/migrantifawien</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7095,7 +7081,7 @@
       </c>
       <c r="C392" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/linlouuu</v>
+        <v>https://instagram.com/mikiza.blog</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7107,7 +7093,7 @@
       </c>
       <c r="C393" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/meduniwien</v>
+        <v>https://instagram.com/millanefriesen</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7119,7 +7105,7 @@
       </c>
       <c r="C394" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/pakalupapitocamel</v>
+        <v>https://instagram.com/mindsetofgreatness</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7131,7 +7117,7 @@
       </c>
       <c r="C395" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/volim_pravoslavlje</v>
+        <v>https://instagram.com/miradadelasierra</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7143,7 +7129,7 @@
       </c>
       <c r="C396" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/fcbarcelona</v>
+        <v>https://instagram.com/mirafloresvienna</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7155,7 +7141,7 @@
       </c>
       <c r="C397" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/bischof_stephan</v>
+        <v>https://instagram.com/missio_at</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7167,7 +7153,7 @@
       </c>
       <c r="C398" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/aleviyizcan</v>
+        <v>https://instagram.com/mitchleeuwe</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7179,7 +7165,7 @@
       </c>
       <c r="C399" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/nissimofficial</v>
+        <v>https://instagram.com/mjoe_official</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7191,7 +7177,7 @@
       </c>
       <c r="C400" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/pubity</v>
+        <v>https://instagram.com/mmd</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7203,7 +7189,7 @@
       </c>
       <c r="C401" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/alevi_genclik_avusturya</v>
+        <v>https://instagram.com/modeblogg</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7215,7 +7201,7 @@
       </c>
       <c r="C402" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/islamictreasures</v>
+        <v>https://instagram.com/moralifashion</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7227,7 +7213,7 @@
       </c>
       <c r="C403" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/migrantifawien</v>
+        <v>https://instagram.com/moroccoworldnews</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7239,7 +7225,7 @@
       </c>
       <c r="C404" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/babyentenbackup</v>
+        <v>https://instagram.com/mosalah</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7251,7 +7237,7 @@
       </c>
       <c r="C405" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/moralifashion</v>
+        <v>https://instagram.com/moshiverse</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7263,7 +7249,7 @@
       </c>
       <c r="C406" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/dianagoldbergmusic</v>
+        <v>https://instagram.com/mosquitos_ultimate</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7275,7 +7261,7 @@
       </c>
       <c r="C407" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/jungekirchewien</v>
+        <v>https://instagram.com/motivationalmoments</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7287,7 +7273,7 @@
       </c>
       <c r="C408" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/erkeklerinicsesi</v>
+        <v>https://instagram.com/muftimenkofficial</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7299,7 +7285,7 @@
       </c>
       <c r="C409" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/lafashionfiles</v>
+        <v>https://instagram.com/muftimenkreminders</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7311,7 +7297,7 @@
       </c>
       <c r="C410" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/michaelludwig_official</v>
+        <v>https://instagram.com/muna.duzdar</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7323,7 +7309,7 @@
       </c>
       <c r="C411" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/schwarzenegger</v>
+        <v>https://instagram.com/musiciantee</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7335,7 +7321,7 @@
       </c>
       <c r="C412" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/astrology_daily_horoscopes</v>
+        <v>https://instagram.com/muslim</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7347,7 +7333,7 @@
       </c>
       <c r="C413" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/xaviernaidoo</v>
+        <v>https://instagram.com/muslimsoftheworld</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7359,7 +7345,7 @@
       </c>
       <c r="C414" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/hiighholder</v>
+        <v>https://instagram.com/mvslimhumor</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7371,7 +7357,7 @@
       </c>
       <c r="C415" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/andreea.balaban</v>
+        <v>https://instagram.com/nanolive_sa</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7383,7 +7369,7 @@
       </c>
       <c r="C416" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/#jewishmemes</v>
+        <v>https://instagram.com/natgeoadventures</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7395,7 +7381,7 @@
       </c>
       <c r="C417" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/mitchleeuwe</v>
+        <v>https://instagram.com/nazjuju</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7407,7 +7393,7 @@
       </c>
       <c r="C418" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/regloloji</v>
+        <v>https://instagram.com/NBA</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7419,7 +7405,7 @@
       </c>
       <c r="C419" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/#viennalove</v>
+        <v>https://instagram.com/nemouel_</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7431,7 +7417,7 @@
       </c>
       <c r="C420" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/hasidiminusa</v>
+        <v>https://instagram.com/neos_eu</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7443,7 +7429,7 @@
       </c>
       <c r="C421" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/ajplusarabi</v>
+        <v>https://instagram.com/neos_wien</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7455,7 +7441,7 @@
       </c>
       <c r="C422" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/erzbistumhamburg</v>
+        <v>https://instagram.com/netflixnmovies</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7467,7 +7453,7 @@
       </c>
       <c r="C423" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/standwithus</v>
+        <v>https://instagram.com/neumannsofie</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7479,7 +7465,7 @@
       </c>
       <c r="C424" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/enews</v>
+        <v>https://instagram.com/never.again.right.now</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7491,7 +7477,7 @@
       </c>
       <c r="C425" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/islamchanneltv</v>
+        <v>https://instagram.com/ninastrehl</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7503,7 +7489,7 @@
       </c>
       <c r="C426" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/derstandardat</v>
+        <v>https://instagram.com/nissimofficial</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7515,7 +7501,7 @@
       </c>
       <c r="C427" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/therealfatih</v>
+        <v>https://instagram.com/noodnik_</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7539,7 +7525,7 @@
       </c>
       <c r="C429" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/bischofstefanoster</v>
+        <v>https://instagram.com/novritsch</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7551,7 +7537,7 @@
       </c>
       <c r="C430" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/Likrat_Austria</v>
+        <v>https://instagram.com/now_you_see_me_moria</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7563,7 +7549,7 @@
       </c>
       <c r="C431" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/crimson_day_</v>
+        <v>https://instagram.com/noway_srib</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7575,7 +7561,7 @@
       </c>
       <c r="C432" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/crankbrothers</v>
+        <v>https://instagram.com/nowhitesaviors</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7587,7 +7573,7 @@
       </c>
       <c r="C433" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/espn</v>
+        <v>https://instagram.com/nugget</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7599,7 +7585,7 @@
       </c>
       <c r="C434" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/shop.LTK</v>
+        <v>https://instagram.com/obros_official</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7611,7 +7597,7 @@
       </c>
       <c r="C435" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/kirchgasser_photography</v>
+        <v>https://instagram.com/ofek_beratung</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7623,7 +7609,7 @@
       </c>
       <c r="C436" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/muslimsoftheworld</v>
+        <v>https://instagram.com/officialbenshapiro</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7635,7 +7621,7 @@
       </c>
       <c r="C437" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/addisonraee</v>
+        <v>https://instagram.com/ohlafrance</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7647,7 +7633,7 @@
       </c>
       <c r="C438" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/srpskapravoslavnacrkvagmunden</v>
+        <v>https://instagram.com/orf.at</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7659,7 +7645,7 @@
       </c>
       <c r="C439" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/kizlarinicesesiiii</v>
+        <v>https://instagram.com/ornad.vienna</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7671,7 +7657,7 @@
       </c>
       <c r="C440" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/Bundesjugendvertretung</v>
+        <v>https://instagram.com/otacastvo</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7683,7 +7669,7 @@
       </c>
       <c r="C441" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/jesusmemes</v>
+        <v>https://instagram.com/overflow.wrneustadt</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7695,7 +7681,7 @@
       </c>
       <c r="C442" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/wienerlinien</v>
+        <v>https://instagram.com/oxford_uni</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7707,7 +7693,7 @@
       </c>
       <c r="C443" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/atleticomadrid</v>
+        <v>https://instagram.com/pablohaseloficial</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7719,7 +7705,7 @@
       </c>
       <c r="C444" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/herbststrasse</v>
+        <v>https://instagram.com/pakalupapitocamel</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7731,7 +7717,7 @@
       </c>
       <c r="C445" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/tarek_bae</v>
+        <v>https://instagram.com/palidelights</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7743,7 +7729,7 @@
       </c>
       <c r="C446" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/amnesty</v>
+        <v>https://instagram.com/pamela_rf</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7755,7 +7741,7 @@
       </c>
       <c r="C447" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/raf_camora</v>
+        <v>https://instagram.com/papalpreet_singh</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7767,7 +7753,7 @@
       </c>
       <c r="C448" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/zaknotwack</v>
+        <v>https://instagram.com/pbfspc</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7779,7 +7765,7 @@
       </c>
       <c r="C449" t="str">
         <f t="shared" si="6"/>
-        <v>https://instagram.com/pilotviking</v>
+        <v>https://instagram.com/perla.danoch</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7791,7 +7777,7 @@
       </c>
       <c r="C450" t="str">
         <f t="shared" ref="C450:C513" si="7">"https://instagram.com/"&amp;(RIGHT(B450,LEN(B450)-3))</f>
-        <v>https://instagram.com/shonenworld_</v>
+        <v>https://instagram.com/persianpoetics</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7803,7 +7789,7 @@
       </c>
       <c r="C451" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/hillsong</v>
+        <v>https://instagram.com/peter_hacker_wien</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7815,7 +7801,7 @@
       </c>
       <c r="C452" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/annitheduck</v>
+        <v>https://instagram.com/pilotviking</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7827,7 +7813,7 @@
       </c>
       <c r="C453" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/idfonline</v>
+        <v>https://instagram.com/piques</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7839,7 +7825,7 @@
       </c>
       <c r="C454" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/johnlcooper</v>
+        <v>https://instagram.com/popcultureinpictures_</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7851,7 +7837,7 @@
       </c>
       <c r="C455" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/in_dubio_pro_mindermeinung</v>
+        <v>https://instagram.com/popserbian</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7863,7 +7849,7 @@
       </c>
       <c r="C456" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/garyvee</v>
+        <v>https://instagram.com/prageru</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7875,7 +7861,7 @@
       </c>
       <c r="C457" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/thevoicekids</v>
+        <v>https://instagram.com/premierleague</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7887,7 +7873,7 @@
       </c>
       <c r="C458" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/reneeelisegoldsberry</v>
+        <v>https://instagram.com/presse_service_vie</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7899,7 +7885,7 @@
       </c>
       <c r="C459" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/lolmemesop</v>
+        <v>https://instagram.com/priesterseminarregensburg</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7911,7 +7897,7 @@
       </c>
       <c r="C460" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/worldbneiakiva</v>
+        <v>https://instagram.com/prijatelji_manastira_hilandara</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7923,7 +7909,7 @@
       </c>
       <c r="C461" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/mosalah</v>
+        <v>https://instagram.com/pubity</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7935,7 +7921,7 @@
       </c>
       <c r="C462" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/hayaomiyazaki</v>
+        <v>https://instagram.com/pubitypets</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7947,7 +7933,7 @@
       </c>
       <c r="C463" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/alpha_leaders</v>
+        <v>https://instagram.com/pun_bible</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7959,7 +7945,7 @@
       </c>
       <c r="C464" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/thiememe_verlag</v>
+        <v>https://instagram.com/punjabi______tadka</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7971,7 +7957,7 @@
       </c>
       <c r="C465" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/magda.bachi</v>
+        <v>https://instagram.com/punjabiwebsite</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7983,7 +7969,7 @@
       </c>
       <c r="C466" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/interestingengineering</v>
+        <v>https://instagram.com/quransayings</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -7995,7 +7981,7 @@
       </c>
       <c r="C467" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/hudas_welten_blog</v>
+        <v>https://instagram.com/rachel0ates</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8007,7 +7993,7 @@
       </c>
       <c r="C468" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/carsisimsek1</v>
+        <v>https://instagram.com/raf_camora</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8019,7 +8005,7 @@
       </c>
       <c r="C469" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/teamdeefit</v>
+        <v>https://instagram.com/rafftar_rai</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8031,7 +8017,7 @@
       </c>
       <c r="C470" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/joehwien</v>
+        <v>https://instagram.com/rakic_ufc</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8043,7 +8029,7 @@
       </c>
       <c r="C471" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/arhiepiskopijatv</v>
+        <v>https://instagram.com/rav_albert_offiziell</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8055,7 +8041,7 @@
       </c>
       <c r="C472" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/imjustbesti</v>
+        <v>https://instagram.com/recordjet</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8067,7 +8053,7 @@
       </c>
       <c r="C473" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/diegruenen</v>
+        <v>https://instagram.com/redfishstream</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8079,7 +8065,7 @@
       </c>
       <c r="C474" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/nugget</v>
+        <v>https://instagram.com/redmediakollektiv</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8091,7 +8077,7 @@
       </c>
       <c r="C475" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/trtdeutsch</v>
+        <v>https://instagram.com/redstarbelgrade.rs</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8103,7 +8089,7 @@
       </c>
       <c r="C476" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/nowhitesaviors</v>
+        <v>https://instagram.com/reflab.ch</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8115,7 +8101,7 @@
       </c>
       <c r="C477" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/mosquitos_ultimate</v>
+        <v>https://instagram.com/regloloji</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8127,7 +8113,7 @@
       </c>
       <c r="C478" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/wafa.salam.kensho</v>
+        <v>https://instagram.com/reneeelisegoldsberry</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8139,7 +8125,7 @@
       </c>
       <c r="C479" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/coverageduo</v>
+        <v>https://instagram.com/renklii_mutfagmm</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8151,7 +8137,7 @@
       </c>
       <c r="C480" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/fkaustriawien</v>
+        <v>https://instagram.com/revolt_cg</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8163,7 +8149,7 @@
       </c>
       <c r="C481" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/salamfm.de</v>
+        <v>https://instagram.com/ruthe_offiziell</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8175,7 +8161,7 @@
       </c>
       <c r="C482" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/433</v>
+        <v>https://instagram.com/s.ferox</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8187,7 +8173,7 @@
       </c>
       <c r="C483" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/neos_eu</v>
+        <v>https://instagram.com/saintverse</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8199,7 +8185,7 @@
       </c>
       <c r="C484" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/ezhel06</v>
+        <v>https://instagram.com/salam.oida</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8211,7 +8197,7 @@
       </c>
       <c r="C485" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/bible.verses.a.day</v>
+        <v>https://instagram.com/salamfm.de</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8223,7 +8209,7 @@
       </c>
       <c r="C486" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/marvelstudios</v>
+        <v>https://instagram.com/sankt.jugend</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8235,7 +8221,7 @@
       </c>
       <c r="C487" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/miradadelasierra</v>
+        <v>https://instagram.com/sapphic_energy</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8247,7 +8233,7 @@
       </c>
       <c r="C488" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/lisafasl</v>
+        <v>https://instagram.com/sarahmariepoetry</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8259,7 +8245,7 @@
       </c>
       <c r="C489" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/simseklergrubu</v>
+        <v>https://instagram.com/sarkilardanparcalar</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8271,7 +8257,7 @@
       </c>
       <c r="C490" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/butchware</v>
+        <v>https://instagram.com/savastyanov71</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8283,7 +8269,7 @@
       </c>
       <c r="C491" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/bbyoaustria</v>
+        <v>https://instagram.com/saykoturkeys</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8295,7 +8281,7 @@
       </c>
       <c r="C492" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/discoverearth</v>
+        <v>https://instagram.com/schwarzenegger</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8307,7 +8293,7 @@
       </c>
       <c r="C493" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/motivationalmoments</v>
+        <v>https://instagram.com/science.jesus.memes</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8319,7 +8305,7 @@
       </c>
       <c r="C494" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/thom_wien</v>
+        <v>https://instagram.com/seawatchcrew</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8331,7 +8317,7 @@
       </c>
       <c r="C495" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/never.again.right.now</v>
+        <v>https://instagram.com/sebastiankurz</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8343,7 +8329,7 @@
       </c>
       <c r="C496" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/imamomarsuleiman</v>
+        <v>https://instagram.com/seekersguidanceorg</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8355,7 +8341,7 @@
       </c>
       <c r="C497" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/gurbani_n_quotes</v>
+        <v>https://instagram.com/seize_the_memes</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8367,7 +8353,7 @@
       </c>
       <c r="C498" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/elevationworship</v>
+        <v>https://instagram.com/seligkeitsdinge_</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8379,7 +8365,7 @@
       </c>
       <c r="C499" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/nanolive_sa</v>
+        <v>https://instagram.com/sewstine</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8391,7 +8377,7 @@
       </c>
       <c r="C500" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/beatthemiles</v>
+        <v>https://instagram.com/sgoe.at</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8403,7 +8389,7 @@
       </c>
       <c r="C501" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/churchmemesministry</v>
+        <v>https://instagram.com/shakir.amena</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8415,7 +8401,7 @@
       </c>
       <c r="C502" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/jesusarmy.official</v>
+        <v>https://instagram.com/shakira</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8427,7 +8413,7 @@
       </c>
       <c r="C503" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/gameofthronesnotofficial</v>
+        <v>https://instagram.com/sharghzadeh</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8439,7 +8425,7 @@
       </c>
       <c r="C504" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/johanna.mikl.leitner</v>
+        <v>https://instagram.com/shiurinternational</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8451,7 +8437,7 @@
       </c>
       <c r="C505" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/14mount8000</v>
+        <v>https://instagram.com/shonenworld_</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8463,7 +8449,7 @@
       </c>
       <c r="C506" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/chriswiederkehr</v>
+        <v>https://instagram.com/shop.LTK</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8475,7 +8461,7 @@
       </c>
       <c r="C507" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/juliaandgil</v>
+        <v>https://instagram.com/sigmundfreudprivatuni</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8487,7 +8473,7 @@
       </c>
       <c r="C508" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/taz.die_tageszeitung</v>
+        <v>https://instagram.com/sikhexpo</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8499,7 +8485,7 @@
       </c>
       <c r="C509" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/leighturnerfcdo</v>
+        <v>https://instagram.com/sikhi2go</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8511,7 +8497,7 @@
       </c>
       <c r="C510" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/thecakinggirl</v>
+        <v>https://instagram.com/sikhreddit</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8523,7 +8509,7 @@
       </c>
       <c r="C511" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/mjoe_official</v>
+        <v>https://instagram.com/sikhyouthuk</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8535,7 +8521,7 @@
       </c>
       <c r="C512" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/wearmoidancewear</v>
+        <v>https://instagram.com/simseklergrubu</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8547,7 +8533,7 @@
       </c>
       <c r="C513" t="str">
         <f t="shared" si="7"/>
-        <v>https://instagram.com/mateitulban</v>
+        <v>https://instagram.com/singh_speaks</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8559,7 +8545,7 @@
       </c>
       <c r="C514" t="str">
         <f t="shared" ref="C514:C577" si="8">"https://instagram.com/"&amp;(RIGHT(B514,LEN(B514)-3))</f>
-        <v>https://instagram.com/drjohanneshartl</v>
+        <v>https://instagram.com/skimania.it</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8571,7 +8557,7 @@
       </c>
       <c r="C515" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/tupoka.o</v>
+        <v>https://instagram.com/socmod</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8583,7 +8569,7 @@
       </c>
       <c r="C516" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/ilsedelangemusic</v>
+        <v>https://instagram.com/sonnenflume</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8595,7 +8581,7 @@
       </c>
       <c r="C517" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/downbadpolice</v>
+        <v>https://instagram.com/sostrenegrene</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8607,7 +8593,7 @@
       </c>
       <c r="C518" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/zentrumjp2</v>
+        <v>https://instagram.com/sosyalistmizah</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8619,7 +8605,7 @@
       </c>
       <c r="C519" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/papalpreet_singh</v>
+        <v>https://instagram.com/soulfood_cafe_wien</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8631,7 +8617,7 @@
       </c>
       <c r="C520" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/15cek</v>
+        <v>https://instagram.com/spongebob.memepage</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8643,7 +8629,7 @@
       </c>
       <c r="C521" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/alkoholmomente</v>
+        <v>https://instagram.com/srpskacast</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8655,7 +8641,7 @@
       </c>
       <c r="C522" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/crvenazvezdafk</v>
+        <v>https://instagram.com/srpskapravoslavnacrkvagmunden</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8667,7 +8653,7 @@
       </c>
       <c r="C523" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/jungmediziner</v>
+        <v>https://instagram.com/standwithus</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8679,7 +8665,7 @@
       </c>
       <c r="C524" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/idf</v>
+        <v>https://instagram.com/struthless69</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8691,7 +8677,7 @@
       </c>
       <c r="C525" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/israelipm</v>
+        <v>https://instagram.com/subwayhands</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8703,7 +8689,7 @@
       </c>
       <c r="C526" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/faridbangbang</v>
+        <v>https://instagram.com/subwaytherapy</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8715,7 +8701,7 @@
       </c>
       <c r="C527" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/esraezmecii</v>
+        <v>https://instagram.com/success.portal</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8727,7 +8713,7 @@
       </c>
       <c r="C528" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/247interiors</v>
+        <v>https://instagram.com/sumeyyelambrecht</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8739,7 +8725,7 @@
       </c>
       <c r="C529" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/ja.und.amen</v>
+        <v>https://instagram.com/svoboda.anton</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8751,7 +8737,7 @@
       </c>
       <c r="C530" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/getevidenced</v>
+        <v>https://instagram.com/sweatybetty</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8763,7 +8749,7 @@
       </c>
       <c r="C531" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/insta_desli</v>
+        <v>https://instagram.com/tagesschau</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8775,7 +8761,7 @@
       </c>
       <c r="C532" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/juliandthechurch</v>
+        <v>https://instagram.com/talhataskinsoyx</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8787,7 +8773,7 @@
       </c>
       <c r="C533" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/jesus.ch</v>
+        <v>https://instagram.com/tarek_bae</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8799,7 +8785,7 @@
       </c>
       <c r="C534" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/quransayings</v>
+        <v>https://instagram.com/tarik_mete</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8811,7 +8797,7 @@
       </c>
       <c r="C535" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/fitinn.at</v>
+        <v>https://instagram.com/taz.die_tageszeitung</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8823,7 +8809,7 @@
       </c>
       <c r="C536" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/veganbowls</v>
+        <v>https://instagram.com/teamcevans</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8835,7 +8821,7 @@
       </c>
       <c r="C537" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/renklii_mutfagmm</v>
+        <v>https://instagram.com/teamdeefit</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8847,7 +8833,7 @@
       </c>
       <c r="C538" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/recordjet</v>
+        <v>https://instagram.com/teddysphotos</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8859,7 +8845,7 @@
       </c>
       <c r="C539" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/kelebackstage</v>
+        <v>https://instagram.com/the.vulva.gallery</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8871,7 +8857,7 @@
       </c>
       <c r="C540" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/marvel</v>
+        <v>https://instagram.com/the_protestant_christian</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8883,7 +8869,7 @@
       </c>
       <c r="C541" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/klostermariaschutz</v>
+        <v>https://instagram.com/thebestchristianmemes</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8895,7 +8881,7 @@
       </c>
       <c r="C542" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/kjooe</v>
+        <v>https://instagram.com/thecakinggirl</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8907,7 +8893,7 @@
       </c>
       <c r="C543" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/gatewayworship</v>
+        <v>https://instagram.com/thecircle_sessions</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8919,7 +8905,7 @@
       </c>
       <c r="C544" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/eine.reise.ins.ungewisse</v>
+        <v>https://instagram.com/thegoodquote</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8931,7 +8917,7 @@
       </c>
       <c r="C545" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/premierleague</v>
+        <v>https://instagram.com/theinkquisites</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8943,7 +8929,7 @@
       </c>
       <c r="C546" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/come2stay</v>
+        <v>https://instagram.com/thejerusalem_post</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8955,7 +8941,7 @@
       </c>
       <c r="C547" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/keineinsamerbaum</v>
+        <v>https://instagram.com/thenaughtytrolls</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8967,7 +8953,7 @@
       </c>
       <c r="C548" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/unitednations</v>
+        <v>https://instagram.com/therealfatih</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8979,7 +8965,7 @@
       </c>
       <c r="C549" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/annagiambersio</v>
+        <v>https://instagram.com/therefinedwoman</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -8991,7 +8977,7 @@
       </c>
       <c r="C550" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/salam.oida</v>
+        <v>https://instagram.com/therock</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9003,7 +8989,7 @@
       </c>
       <c r="C551" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/horrordatestorys</v>
+        <v>https://instagram.com/thesweetfactory.at</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9015,7 +9001,7 @@
       </c>
       <c r="C552" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/danica_crnogorcevic</v>
+        <v>https://instagram.com/theturntjew</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9027,7 +9013,7 @@
       </c>
       <c r="C553" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/uyenthininh</v>
+        <v>https://instagram.com/thevoicekids</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9039,7 +9025,7 @@
       </c>
       <c r="C554" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/blairimani</v>
+        <v>https://instagram.com/thewonderofmercy</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9051,7 +9037,7 @@
       </c>
       <c r="C555" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/toogoodtogo.at</v>
+        <v>https://instagram.com/thiememe_verlag</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9063,7 +9049,7 @@
       </c>
       <c r="C556" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/manitateroru</v>
+        <v>https://instagram.com/thom_bushcraftprotal_cz</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9075,7 +9061,7 @@
       </c>
       <c r="C557" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/arabicwords_0</v>
+        <v>https://instagram.com/thom_wien</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9087,7 +9073,7 @@
       </c>
       <c r="C558" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/piques</v>
+        <v>https://instagram.com/thuglifeaustria</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9099,7 +9085,7 @@
       </c>
       <c r="C559" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/prijatelji_manastira_hilandara</v>
+        <v>https://instagram.com/tipgenelmerkez</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9111,7 +9097,7 @@
       </c>
       <c r="C560" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/antifascismapparel</v>
+        <v>https://instagram.com/tobiashiems</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9123,7 +9109,7 @@
       </c>
       <c r="C561" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/antifa_w</v>
+        <v>https://instagram.com/tomholland2013</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9135,7 +9121,7 @@
       </c>
       <c r="C562" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/andreschiebler</v>
+        <v>https://instagram.com/toogoodtogo.at</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9147,7 +9133,7 @@
       </c>
       <c r="C563" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/candik_lein</v>
+        <v>https://instagram.com/topfakten</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9159,7 +9145,7 @@
       </c>
       <c r="C564" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/_zaheerali</v>
+        <v>https://instagram.com/topsknives</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9171,7 +9157,7 @@
       </c>
       <c r="C565" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/viennawurstelstand</v>
+        <v>https://instagram.com/torahdaily</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9183,7 +9169,7 @@
       </c>
       <c r="C566" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/science.jesus.memes</v>
+        <v>https://instagram.com/towardseternity</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9195,7 +9181,7 @@
       </c>
       <c r="C567" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/anajohnson</v>
+        <v>https://instagram.com/trollpunjab</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9207,7 +9193,7 @@
       </c>
       <c r="C568" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/kspacewien</v>
+        <v>https://instagram.com/trollvid.s</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9219,7 +9205,7 @@
       </c>
       <c r="C569" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/key2life_festival</v>
+        <v>https://instagram.com/trtdeutsch</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9231,7 +9217,7 @@
       </c>
       <c r="C570" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/dariadaria</v>
+        <v>https://instagram.com/truth_israel</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9243,7 +9229,7 @@
       </c>
       <c r="C571" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/iamstudent_at</v>
+        <v>https://instagram.com/tubaerguen</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9255,7 +9241,7 @@
       </c>
       <c r="C572" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/andrewjacked</v>
+        <v>https://instagram.com/tupoka.o</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9267,7 +9253,7 @@
       </c>
       <c r="C573" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/bogorodicinhrambec</v>
+        <v>https://instagram.com/ufcbtsport</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9279,7 +9265,7 @@
       </c>
       <c r="C574" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/_skchhina</v>
+        <v>https://instagram.com/uglies</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9291,7 +9277,7 @@
       </c>
       <c r="C575" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/singh_speaks</v>
+        <v>https://instagram.com/unitednations</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9303,7 +9289,7 @@
       </c>
       <c r="C576" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/rav_albert_offiziell</v>
+        <v>https://instagram.com/uyenthininh</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9315,7 +9301,7 @@
       </c>
       <c r="C577" t="str">
         <f t="shared" si="8"/>
-        <v>https://instagram.com/antennesteiermark</v>
+        <v>https://instagram.com/vagt_1210</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9327,7 +9313,7 @@
       </c>
       <c r="C578" t="str">
         <f t="shared" ref="C578:C628" si="9">"https://instagram.com/"&amp;(RIGHT(B578,LEN(B578)-3))</f>
-        <v>https://instagram.com/bongoviennajuden</v>
+        <v>https://instagram.com/vanderbellen</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9339,7 +9325,7 @@
       </c>
       <c r="C579" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/eatinghealthytoday</v>
+        <v>https://instagram.com/vanillaholica</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9351,7 +9337,7 @@
       </c>
       <c r="C580" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/kleinexpoetin</v>
+        <v>https://instagram.com/veganbowls</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9363,7 +9349,7 @@
       </c>
       <c r="C581" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/deinbeichtstuhl</v>
+        <v>https://instagram.com/veganewunder</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9375,7 +9361,7 @@
       </c>
       <c r="C582" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/grg21.franklinstrasse21</v>
+        <v>https://instagram.com/velvetcoke</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9387,7 +9373,7 @@
       </c>
       <c r="C583" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/popcultureinpictures_</v>
+        <v>https://instagram.com/vicdeangelis</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9399,7 +9385,7 @@
       </c>
       <c r="C584" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/soulfood_cafe_wien</v>
+        <v>https://instagram.com/vice_de</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9411,7 +9397,7 @@
       </c>
       <c r="C585" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/hnaftali</v>
+        <v>https://instagram.com/vicky_spielfrau</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9423,7 +9409,7 @@
       </c>
       <c r="C586" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/canlilardunyasi</v>
+        <v>https://instagram.com/vienna.house.stories</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9435,7 +9421,7 @@
       </c>
       <c r="C587" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/the.vulva.gallery</v>
+        <v>https://instagram.com/viennawurstelstand</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9447,7 +9433,7 @@
       </c>
       <c r="C588" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/meilechkohn</v>
+        <v>https://instagram.com/viyana_aleviler_toplumu</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9459,7 +9445,7 @@
       </c>
       <c r="C589" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/asiri_kafagrup</v>
+        <v>https://instagram.com/volim_pravoslavlje</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9471,7 +9457,7 @@
       </c>
       <c r="C590" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/bviral</v>
+        <v>https://instagram.com/vshred</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9483,7 +9469,7 @@
       </c>
       <c r="C591" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/vshred</v>
+        <v>https://instagram.com/vtrakit.official</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9495,7 +9481,7 @@
       </c>
       <c r="C592" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/bneiakivade</v>
+        <v>https://instagram.com/vural.uemit</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9507,7 +9493,7 @@
       </c>
       <c r="C593" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/redfishstream</v>
+        <v>https://instagram.com/wafa.salam.kensho</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9519,7 +9505,7 @@
       </c>
       <c r="C594" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/mallofmemes</v>
+        <v>https://instagram.com/walking_through_history</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9531,7 +9517,7 @@
       </c>
       <c r="C595" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/khabib_nurmagomedov</v>
+        <v>https://instagram.com/wearmoidancewear</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9543,7 +9529,7 @@
       </c>
       <c r="C596" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/1newsnz</v>
+        <v>https://instagram.com/weedhumor</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9555,7 +9541,7 @@
       </c>
       <c r="C597" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/keto.fit.meal</v>
+        <v>https://instagram.com/weinausderhoelle</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9567,7 +9553,7 @@
       </c>
       <c r="C598" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/netflixnmovies</v>
+        <v>https://instagram.com/welsh_comrade</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9579,7 +9565,7 @@
       </c>
       <c r="C599" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/zendaya</v>
+        <v>https://instagram.com/westoestlicherpoet</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9591,7 +9577,7 @@
       </c>
       <c r="C600" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/yannick.chaumont</v>
+        <v>https://instagram.com/wieneralltagspoeten</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9603,7 +9589,7 @@
       </c>
       <c r="C601" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/#pagne</v>
+        <v>https://instagram.com/wienerlinien</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9615,7 +9601,7 @@
       </c>
       <c r="C602" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/juan_son_1210</v>
+        <v>https://instagram.com/wienzufuss</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9627,7 +9613,7 @@
       </c>
       <c r="C603" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/lutherische_stadtkirche_wien</v>
+        <v>https://instagram.com/wisdoms_of_vienna</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9639,7 +9625,7 @@
       </c>
       <c r="C604" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/alman_memes2.0</v>
+        <v>https://instagram.com/womanslook</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9651,7 +9637,7 @@
       </c>
       <c r="C605" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/desi.sarcasm</v>
+        <v>https://instagram.com/wordsbytaher</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9663,7 +9649,7 @@
       </c>
       <c r="C606" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/redmediakollektiv</v>
+        <v>https://instagram.com/worldbneiakiva</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9675,7 +9661,7 @@
       </c>
       <c r="C607" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/thejerusalem_post</v>
+        <v>https://instagram.com/worldjewishcongress</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9687,7 +9673,7 @@
       </c>
       <c r="C608" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/obros_official</v>
+        <v>https://instagram.com/worldofbrands</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9699,7 +9685,7 @@
       </c>
       <c r="C609" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/sarkilardanparcalar</v>
+        <v>https://instagram.com/wujs_official</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9711,7 +9697,7 @@
       </c>
       <c r="C610" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/islamischeFakten</v>
+        <v>https://instagram.com/xaviernaidoo</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9723,7 +9709,7 @@
       </c>
       <c r="C611" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/ninastrehl</v>
+        <v>https://instagram.com/yadvashem</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9735,7 +9721,7 @@
       </c>
       <c r="C612" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/champagnerkraft</v>
+        <v>https://instagram.com/yannick.chaumont</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9747,7 +9733,7 @@
       </c>
       <c r="C613" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/vicdeangelis</v>
+        <v>https://instagram.com/yannickshetty</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9759,7 +9745,7 @@
       </c>
       <c r="C614" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/zelophchads_toechter</v>
+        <v>https://instagram.com/yoelyweiss</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9771,7 +9757,7 @@
       </c>
       <c r="C615" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/#veganbudget</v>
+        <v>https://instagram.com/youcancallmeaz</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9783,7 +9769,7 @@
       </c>
       <c r="C616" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/dietagespresse</v>
+        <v>https://instagram.com/youmagazintherealstuff</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9795,7 +9781,7 @@
       </c>
       <c r="C617" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/memezar</v>
+        <v>https://instagram.com/younesjones</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9807,7 +9793,7 @@
       </c>
       <c r="C618" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/jessicaoutofthecloset</v>
+        <v>https://instagram.com/yudale_restaurant</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9819,7 +9805,7 @@
       </c>
       <c r="C619" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/corinnamilborn</v>
+        <v>https://instagram.com/yugojokes</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9831,7 +9817,7 @@
       </c>
       <c r="C620" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/weedhumor</v>
+        <v>https://instagram.com/yungblud</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9843,7 +9829,7 @@
       </c>
       <c r="C621" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/Cambridgemosque</v>
+        <v>https://instagram.com/zahraa_muslim_lifestyle</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9855,7 +9841,7 @@
       </c>
       <c r="C622" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/neumannsofie</v>
+        <v>https://instagram.com/zaknotwack</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9867,7 +9853,7 @@
       </c>
       <c r="C623" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/vicky_spielfrau</v>
+        <v>https://instagram.com/zdfheute</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9879,7 +9865,7 @@
       </c>
       <c r="C624" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/Amaniabuzahra</v>
+        <v>https://instagram.com/zeitimbild</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9891,7 +9877,7 @@
       </c>
       <c r="C625" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/espnmma</v>
+        <v>https://instagram.com/zelophchads_toechter</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9903,7 +9889,7 @@
       </c>
       <c r="C626" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/persianpoetics</v>
+        <v>https://instagram.com/zendaya</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9915,7 +9901,7 @@
       </c>
       <c r="C627" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/moroccoworldnews</v>
+        <v>https://instagram.com/zentrumjp2</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
@@ -9927,7 +9913,7 @@
       </c>
       <c r="C628" t="str">
         <f t="shared" si="9"/>
-        <v>https://instagram.com/ibrahimtenekeci</v>
+        <v>https://instagram.com/zooviennaschonbrunn</v>
       </c>
     </row>
   </sheetData>
@@ -9937,8 +9923,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CAF916-6AC9-469E-8907-671A92764031}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E8F5B-BD92-4BCC-A7AC-3E27A74FE22A}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9988,14 +9974,6 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -10003,8 +9981,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B20503A9E85A9A4D8704AD6DAB1F1010" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="e440d241f576dea698e2ea8cd237ea82">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05450bd9-eec5-42a8-85cc-afca79094646" xmlns:ns3="803a0e2a-20b6-4dfc-b857-1f30c27242b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="860fbdfbabf09ed8a19e786fdd27c92d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B20503A9E85A9A4D8704AD6DAB1F1010" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2a4c04a093f57345ba4e534a1861720">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05450bd9-eec5-42a8-85cc-afca79094646" xmlns:ns3="803a0e2a-20b6-4dfc-b857-1f30c27242b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98eb2637db90897aaef3e6ea02430fa4" ns2:_="" ns3:_="">
     <xsd:import namespace="05450bd9-eec5-42a8-85cc-afca79094646"/>
     <xsd:import namespace="803a0e2a-20b6-4dfc-b857-1f30c27242b3"/>
     <xsd:element name="properties">
@@ -10024,6 +10002,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10083,6 +10063,13 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d4a9df8e-f349-4444-a116-c467c435423c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="803a0e2a-20b6-4dfc-b857-1f30c27242b3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10112,6 +10099,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cbe572a7-bfc9-4bb3-b238-dc88d71865bc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="803a0e2a-20b6-4dfc-b857-1f30c27242b3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -10224,18 +10222,23 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05450bd9-eec5-42a8-85cc-afca79094646">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="803a0e2a-20b6-4dfc-b857-1f30c27242b3" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A3CC045-EFB0-4DDA-B192-618EB40103E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CAFF08C-3DBE-419F-9DDA-06BA11F3511A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5402DAC7-DF25-4FFF-8AAC-03CCCAD2605A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B7F9A0A-9741-4E43-819F-F1CBA824772F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72FAED62-3E62-45C2-B1DE-A56E076ACB03}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D58442-8427-4D25-AECE-DB26E9D86178}"/>
 </file>
--- a/data/accounts.xlsx
+++ b/data/accounts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6575F0E5-5DF3-43A5-95B8-4FAFDC3C2217}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6567BB50-2F9E-4BA7-A3AA-A21430BE0696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kode-Manager" sheetId="1" r:id="rId1"/>
@@ -1965,7 +1965,7 @@
     </r>
   </si>
   <si>
-    <t>Christoph Novak</t>
+    <t>Institut für Stadt und Regionalforschung Österreichische Akademie der Wissenschaften</t>
   </si>
   <si>
     <r>
@@ -1979,7 +1979,7 @@
     </r>
   </si>
   <si>
-    <t>24.01.2023 - 11:00:48</t>
+    <t>30.01.2023 - 13:55:10</t>
   </si>
   <si>
     <r>
@@ -2372,27 +2372,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24439223-6684-42F4-848A-DDB0233A83A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBFC2B0-BCB3-4724-95B3-EF4564AFF4EC}">
   <dimension ref="A1:C628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2:C628"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>https://instagram.com/#africanfood</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>https://instagram.com/#architecture</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>https://instagram.com/#blackouttuesday</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>https://instagram.com/#edw</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>https://instagram.com/#imthatjew</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>https://instagram.com/#jewishmemes</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>https://instagram.com/#kjwien</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>https://instagram.com/#kpalimé</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>https://instagram.com/#lesswaste</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>https://instagram.com/#mealprepping</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>https://instagram.com/#pagne</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>https://instagram.com/#plantbased</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>https://instagram.com/#secret</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>https://instagram.com/#veganbudget</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>https://instagram.com/#viennalove</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>https://instagram.com/#westafricanfood</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>https://instagram.com/#zerowaste</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>https://instagram.com/_blockaye</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>https://instagram.com/_cteen</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>https://instagram.com/_jual_bonsai_mini_</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>https://instagram.com/_nour.khelifi_</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>https://instagram.com/_skchhina</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>https://instagram.com/_zaheerali</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>https://instagram.com/14mount8000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>https://instagram.com/15cek</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>https://instagram.com/1newsnz</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>https://instagram.com/247interiors</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>https://instagram.com/433</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>https://instagram.com/8nd90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>https://instagram.com/9gag</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>https://instagram.com/9geiik</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>https://instagram.com/aaylingk</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>https://instagram.com/abt.paisios</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>https://instagram.com/addisonraee</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>https://instagram.com/adskulubu</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>https://instagram.com/advice</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>https://instagram.com/ajc.global</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>https://instagram.com/ajdinewz</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>https://instagram.com/ajplusarabi</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>https://instagram.com/aladinelmafaalani</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>https://instagram.com/alevi_genclik_avusturya</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>https://instagram.com/aleviiyiiz</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>https://instagram.com/aleviyizcan</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>https://instagram.com/alexgreycosm</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>https://instagram.com/alinnail_wien</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>https://instagram.com/alkoholmomente</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>https://instagram.com/allforonefulda</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>https://instagram.com/alman_memes2.0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>https://instagram.com/almazadic</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>https://instagram.com/alpbebecom</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>https://instagram.com/alpenvereinaustria</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>https://instagram.com/alpha_leaders</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>https://instagram.com/Amaniabuzahra</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>https://instagram.com/amnesty</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>https://instagram.com/anajohnson</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>https://instagram.com/andreea.balaban</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>https://instagram.com/andreschiebler</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>https://instagram.com/andrewjacked</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>https://instagram.com/angeladoe</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>https://instagram.com/angry_radical_feminist</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>https://instagram.com/annagiambersio</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>https://instagram.com/annitheduck</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>https://instagram.com/antennesteiermark</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>https://instagram.com/anthonyjoshua</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>https://instagram.com/antifa_w</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>https://instagram.com/antifascismapparel</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>https://instagram.com/antiflirting2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>https://instagram.com/appledsign</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>https://instagram.com/arabicwords_0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>https://instagram.com/arhiepiskopijatv</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>https://instagram.com/Ariandebose</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>https://instagram.com/arte.tv</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>https://instagram.com/asiri_kafagrup</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>https://instagram.com/asmaaiad</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>https://instagram.com/astrology_daily_horoscopes</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>https://instagram.com/astroolojim</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>https://instagram.com/atleticomadrid</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>https://instagram.com/awiblumenfeld</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>https://instagram.com/aylinkarabulut</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>https://instagram.com/b.netanyahu</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>https://instagram.com/baagiyodhey</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>https://instagram.com/baba.banta.singh.ji</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>https://instagram.com/babyentenbackup</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>https://instagram.com/baschly</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>https://instagram.com/baseberlin</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>https://instagram.com/basicsofsikhi</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>1</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>https://instagram.com/bbcnews</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>https://instagram.com/bbyoaustria</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>https://instagram.com/beatthemiles</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>1</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>https://instagram.com/berlinauslandermemes</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>https://instagram.com/berviansworld</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>https://instagram.com/bible.verses.a.day</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>1</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>https://instagram.com/bischof_stephan</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>https://instagram.com/bischofstefanoster</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>https://instagram.com/bitch</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>https://instagram.com/bitch.rising</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>https://instagram.com/bjennymontero</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>https://instagram.com/blairimani</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>https://instagram.com/bneiakiva.dorot</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>https://instagram.com/bneiakiva.wien</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>https://instagram.com/bneiakivade</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>https://instagram.com/bneiakivaschweiz</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>https://instagram.com/bnp.passau</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>https://instagram.com/boatico_yachting</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>https://instagram.com/bocadolobo</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>https://instagram.com/bodoschaefer</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>https://instagram.com/bodyengineers</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>https://instagram.com/bogorodicinhrambec</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>https://instagram.com/bongo_juden</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>https://instagram.com/bongoviennajuden</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>https://instagram.com/breakfastatfreddys</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>https://instagram.com/brittany_broski</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>https://instagram.com/brutalistbeton</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>https://instagram.com/bsiultimate</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>https://instagram.com/Bundesjugendvertretung</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>https://instagram.com/butchware</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>https://instagram.com/butunsirribozdun</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>https://instagram.com/bviral</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>https://instagram.com/cambridgecentralmosque</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>1</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>https://instagram.com/Cambridgemosque</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>https://instagram.com/candik_lein</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>https://instagram.com/canlilardunyasi</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>https://instagram.com/carryminati</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>https://instagram.com/carsisimsek1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>https://instagram.com/catholicfaithformation</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>https://instagram.com/celli_1000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>https://instagram.com/champagnerkraft</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>1</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>https://instagram.com/championsleague</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>https://instagram.com/chandlerbingunofficialfriends</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>https://instagram.com/changiyan_sachiyan_glaan</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>https://instagram.com/chatdiss_</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>1</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>https://instagram.com/chiaraseidl</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>https://instagram.com/chriswiederkehr</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>https://instagram.com/churchmemesministry</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>https://instagram.com/clips</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>https://instagram.com/come2stay</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>1</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>https://instagram.com/comm3mes</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>1</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>https://instagram.com/commentfasheee5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>https://instagram.com/corinnamilborn</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>1</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>https://instagram.com/coverageduo</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>https://instagram.com/crankbrothers</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>https://instagram.com/crimson_day_</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>https://instagram.com/crkva_diseldorf</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>1</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>https://instagram.com/crnogorcevic_ivan</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>https://instagram.com/crvenazvezdafk</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>https://instagram.com/csiriano</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>https://instagram.com/cznburak</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>https://instagram.com/danaemercer</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>https://instagram.com/danica_crnogorcevic</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>1</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>https://instagram.com/dankjewish</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>https://instagram.com/dariadaria</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>1</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>https://instagram.com/dasbibelprojekt</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>https://instagram.com/deinbeichtstuhl</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>https://instagram.com/derfunke.at</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>1</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>https://instagram.com/derstandardat</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>1</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>https://instagram.com/derzwuckundich</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>1</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>https://instagram.com/desi.sarcasm</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>1</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>https://instagram.com/dianagoldbergmusic</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>1</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>https://instagram.com/diegruenen</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>1</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>https://instagram.com/dietagespresse</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>https://instagram.com/dirkeggercrv</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>1</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>https://instagram.com/discoverearth</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>https://instagram.com/discoverwildlife</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>https://instagram.com/dissociadid</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>1</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>https://instagram.com/dnevnadozabeograda</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>https://instagram.com/downbadpolice</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>https://instagram.com/dr._ali_oezdil</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>1</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>https://instagram.com/dr.nikolausraab</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>1</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>https://instagram.com/dr.raniaawaad</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>https://instagram.com/drjohanneshartl</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>https://instagram.com/dtv_verlag</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>https://instagram.com/duhovne_pouke_</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>https://instagram.com/eatinghealthytoday</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>https://instagram.com/ecoindianenfrance</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>1</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>https://instagram.com/edgymemesforworthlessteens</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>https://instagram.com/eine.reise.ins.ungewisse</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>1</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>https://instagram.com/elevation_cycling</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>https://instagram.com/elevationworship</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>https://instagram.com/elhotzo</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>https://instagram.com/enews</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>https://instagram.com/englishwithnab</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>https://instagram.com/epicchristianmemes</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>1</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>https://instagram.com/erkeklerinicsesi</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>https://instagram.com/erzbistumhamburg</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>https://instagram.com/erzdioezesewien</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>1</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>https://instagram.com/espn</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>1</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>https://instagram.com/espnmma</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>https://instagram.com/esraezmecii</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>https://instagram.com/esraxgram</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>1</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>https://instagram.com/eujs_official</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>https://instagram.com/everydayrefugees</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>https://instagram.com/exotiquetv</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>1</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>https://instagram.com/eyesneverliechico</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>https://instagram.com/ezhel06</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>https://instagram.com/faktastisch</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>https://instagram.com/falakenoorboutique</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>https://instagram.com/faridbangbang</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>1</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>https://instagram.com/fathimehmettmacogluu</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>https://instagram.com/faz</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>https://instagram.com/fcbarcelona</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>https://instagram.com/fcbayern</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>1</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>https://instagram.com/fdpbt</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>1</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>https://instagram.com/felleis_knittelfelder</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>https://instagram.com/fenerbahce</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>https://instagram.com/fereidooni.karim</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>https://instagram.com/feridheider</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>https://instagram.com/ferithafez</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>https://instagram.com/filmup.co</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>https://instagram.com/filthy.meme.whore.v2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>https://instagram.com/financialprofessional</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>https://instagram.com/fitinn.at</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>https://instagram.com/fkaustriawien</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>https://instagram.com/followmeifyouarehappy</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>1</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>https://instagram.com/forbes</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>https://instagram.com/freundship</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>https://instagram.com/fuerstfoto</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>1</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>https://instagram.com/funk</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>1</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>https://instagram.com/furkan.perg</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>1</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>https://instagram.com/gameofthronesnotofficial</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>1</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>https://instagram.com/garyvee</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>https://instagram.com/gatewayworship</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>https://instagram.com/getevidenced</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>https://instagram.com/gfgmbh</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>https://instagram.com/ghantaa</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>1</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>https://instagram.com/giani_sant_singh_maskeen</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>https://instagram.com/gjmoesterreich</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>1</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>https://instagram.com/goalglobal</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>https://instagram.com/godisgrey</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>1</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>https://instagram.com/gottfriedundsoehne</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>1</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>https://instagram.com/greenpeaceaustria</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>1</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>https://instagram.com/grg21.franklinstrasse21</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>1</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>https://instagram.com/grupyorumofficial</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>https://instagram.com/guardian</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>1</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>https://instagram.com/gurbani.quotes_</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>https://instagram.com/gurbani_n_quotes</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>https://instagram.com/gurmati_vichar</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>https://instagram.com/hasidiminusa</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>https://instagram.com/hayaomiyazaki</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>https://instagram.com/hebrewmemes</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>https://instagram.com/herbststrasse</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>1</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>https://instagram.com/herkessbirazdelidir</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>https://instagram.com/herzstaerkend</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>https://instagram.com/hey.alma</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>1</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>https://instagram.com/hiighholder</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>https://instagram.com/hillsong</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>https://instagram.com/hnaftali</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>1</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>https://instagram.com/hodakatebi</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>1</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>https://instagram.com/hoenest</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>1</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>https://instagram.com/hoer.oesterreich</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>1</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>https://instagram.com/homechurch_salzburg</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>1</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>https://instagram.com/horrordatestorys</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>1</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>https://instagram.com/hram.vaskrsenja.bec</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>1</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>https://instagram.com/hudas_welten_blog</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>1</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>https://instagram.com/humansofjudaism</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>https://instagram.com/iamchristlclear</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>1</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>https://instagram.com/iamstudent_at</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>1</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>https://instagram.com/ibrahimtenekeci</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>1</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>https://instagram.com/idf</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>1</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>https://instagram.com/idfonline</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>https://instagram.com/ikartoglu</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>1</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>https://instagram.com/ilsedelangemusic</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>1</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>https://instagram.com/imaginetrip__</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>https://instagram.com/imamomarsuleiman</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>1</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>https://instagram.com/imjustbesti</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>1</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>https://instagram.com/in_dubio_pro_mindermeinung</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>1</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>https://instagram.com/inesw.bs</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>https://instagram.com/insta.jews</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>1</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>https://instagram.com/insta_desli</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>1</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>https://instagram.com/insta_frum</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>1</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>https://instagram.com/interestingengineering</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>1</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>https://instagram.com/iof_orienteering</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>1</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>https://instagram.com/irg.sbg</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>1</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>https://instagram.com/ishaq.calligraphy</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>1</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>https://instagram.com/islamchanneltv</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>1</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>https://instagram.com/islamictreasures</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>1</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>https://instagram.com/islamify</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>1</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>https://instagram.com/islamischeFakten</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>https://instagram.com/israelipm</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>1</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>https://instagram.com/isyoufunny</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>1</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>https://instagram.com/izwien</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>1</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>https://instagram.com/j.community</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>1</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>https://instagram.com/ja.und.amen</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>1</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>https://instagram.com/jad_bejad</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>1</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>https://instagram.com/jakob_koordinierungsstelle</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>https://instagram.com/jattisjattsaleo</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>https://instagram.com/jeanettemokosch</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>1</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>https://instagram.com/jessicaoutofthecloset</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>1</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>https://instagram.com/jesus.ch</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>https://instagram.com/jesusarmy.official</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>1</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>https://instagram.com/jesusistmeinleben</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>1</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>https://instagram.com/jesusmemes</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>1</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>https://instagram.com/jewishbreakingnews</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>https://instagram.com/jewishgirlprobs</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>1</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>https://instagram.com/jewishmemes</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>1</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>https://instagram.com/jewishmuseumvienna</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>1</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>https://instagram.com/jewishvibes</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>1</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>https://instagram.com/jews_of_ny</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>1</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>https://instagram.com/JimmySnowtss</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>1</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>https://instagram.com/joehwien</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>1</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>https://instagram.com/johanna.mikl.leitner</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>1</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>https://instagram.com/johannesbartl</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>1</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>https://instagram.com/johnlcooper</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>1</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>https://instagram.com/jokezar</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>https://instagram.com/jovlekaline</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>1</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>https://instagram.com/jrichardnoel</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>1</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>https://instagram.com/jsud_official</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>https://instagram.com/juan_son_1210</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>1</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>https://instagram.com/jubileemedia</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>1</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>https://instagram.com/jufodig</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>1</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>https://instagram.com/jugendtreffen</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>1</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>https://instagram.com/jukowien</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>1</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>https://instagram.com/juliaandgil</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>1</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>https://instagram.com/juliandthechurch</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>1</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>https://instagram.com/jungekirchewien</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>1</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>https://instagram.com/jungmediziner</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>1</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>https://instagram.com/kakaotschifrau</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>1</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>https://instagram.com/kaneki_kiss</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>1</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>https://instagram.com/kardinalwien</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>1</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>https://instagram.com/karen_millen</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>1</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>https://instagram.com/karikaturhane</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>1</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>https://instagram.com/karimjamael</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>https://instagram.com/karsudonmez</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>1</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>https://instagram.com/katholischejugendwien</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>https://instagram.com/keineinsamerbaum</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>1</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>https://instagram.com/kelebackstage</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>1</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>https://instagram.com/kentelamal</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>https://instagram.com/keshet_de</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>1</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>https://instagram.com/keto.fit.meal</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>1</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>https://instagram.com/ketodiettracker</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>1</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>https://instagram.com/key2life_festival</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>1</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>https://instagram.com/khabib_nurmagomedov</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>1</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>https://instagram.com/khalsa_aid</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>1</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>https://instagram.com/kirchgasser_photography</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>1</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>https://instagram.com/kisanektamorcha</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>1</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>https://instagram.com/kizlarinicesesiiii</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>1</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>https://instagram.com/kjooe</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>1</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>https://instagram.com/kleinexpoetin</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>1</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>https://instagram.com/kleinezeitungnext</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>1</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>https://instagram.com/klostermariaschutz</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>1</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>https://instagram.com/kochrezpete</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>1</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>https://instagram.com/kspacewien</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>1</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>https://instagram.com/kumarskitchenaustria</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>1</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>https://instagram.com/kurtisconner</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>1</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>https://instagram.com/lacasadepapel</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>1</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>https://instagram.com/lachkrampfbilder</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>1</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>https://instagram.com/lafashionfiles</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>1</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>https://instagram.com/latenightberlin</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>1</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>https://instagram.com/leanwithlilly</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>1</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>https://instagram.com/leighturnerfcdo</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>https://instagram.com/leni_lafayette</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>1</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>https://instagram.com/lesbiancinema</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>1</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>https://instagram.com/Likrat_Austria</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>1</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>https://instagram.com/linkswien</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>1</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>https://instagram.com/linlouuu</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>1</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>https://instagram.com/liorsuchard</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>1</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>https://instagram.com/lisafasl</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>1</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>https://instagram.com/lisamarie_schiffner</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>1</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>https://instagram.com/liverpoolfc</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>1</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>https://instagram.com/logos.ai</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>1</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>https://instagram.com/lolmemesop</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>1</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>https://instagram.com/lordposts</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>1</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>https://instagram.com/loretto_wiennoe</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>1</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>https://instagram.com/lorettogemeinschaft</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>1</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>https://instagram.com/lutherische_stadtkirche_wien</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>1</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>https://instagram.com/m10_official</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>1</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>https://instagram.com/m3_jugend</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>https://instagram.com/maapilim_vienna</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>1</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>https://instagram.com/magda.bachi</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>1</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>https://instagram.com/makeupartvienna</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>1</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>https://instagram.com/mallofmemes</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>1</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>https://instagram.com/manitateroru</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>1</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>https://instagram.com/manshingaar</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>1</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>https://instagram.com/markruffalo</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>1</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>https://instagram.com/marvel</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>1</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>https://instagram.com/marvelstudios</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>1</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>https://instagram.com/mateitulban</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>1</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>https://instagram.com/mati.randow</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>1</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>https://instagram.com/matthewmeyerart</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>1</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>https://instagram.com/maxfromtax</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>1</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>https://instagram.com/meduniwien</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>1</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>https://instagram.com/meilechkohn</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>1</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>https://instagram.com/memelord</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>1</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>https://instagram.com/memesaz</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>1</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>https://instagram.com/memesforjesus</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>1</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>https://instagram.com/memeshiach</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>1</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>https://instagram.com/memesofjudaism</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>https://instagram.com/memezar</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>1</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>https://instagram.com/michaelbonvalot</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>1</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>https://instagram.com/michaelludwig_official</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>1</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>https://instagram.com/migrantifawien</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>1</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>https://instagram.com/mikiza.blog</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>1</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>https://instagram.com/millanefriesen</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>1</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>https://instagram.com/mindsetofgreatness</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>1</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>https://instagram.com/miradadelasierra</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>https://instagram.com/mirafloresvienna</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>1</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>https://instagram.com/missio_at</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>1</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>https://instagram.com/mitchleeuwe</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>1</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>https://instagram.com/mjoe_official</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>1</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>https://instagram.com/mmd</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>1</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>https://instagram.com/modeblogg</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>1</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>https://instagram.com/moralifashion</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>1</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>https://instagram.com/moroccoworldnews</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>1</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>https://instagram.com/mosalah</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>1</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>https://instagram.com/moshiverse</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>1</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>https://instagram.com/mosquitos_ultimate</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>https://instagram.com/motivationalmoments</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>1</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>https://instagram.com/muftimenkofficial</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>1</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>https://instagram.com/muftimenkreminders</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>1</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>https://instagram.com/muna.duzdar</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>1</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>https://instagram.com/musiciantee</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>https://instagram.com/muslim</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>1</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>https://instagram.com/muslimsoftheworld</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>1</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>https://instagram.com/mvslimhumor</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>1</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>https://instagram.com/nanolive_sa</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>1</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>https://instagram.com/natgeoadventures</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>1</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>https://instagram.com/nazjuju</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>1</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>https://instagram.com/NBA</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>1</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>https://instagram.com/nemouel_</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>1</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>https://instagram.com/neos_eu</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>1</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>https://instagram.com/neos_wien</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>1</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>https://instagram.com/netflixnmovies</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>1</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>https://instagram.com/neumannsofie</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>https://instagram.com/never.again.right.now</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>1</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>https://instagram.com/ninastrehl</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>1</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>https://instagram.com/nissimofficial</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>1</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>https://instagram.com/noodnik_</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>1</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>https://instagram.com/noumanalikhanofficial</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>1</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>https://instagram.com/novritsch</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>1</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>https://instagram.com/now_you_see_me_moria</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>1</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>https://instagram.com/noway_srib</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>1</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>https://instagram.com/nowhitesaviors</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>1</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>https://instagram.com/nugget</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>1</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>https://instagram.com/obros_official</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>1</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>https://instagram.com/ofek_beratung</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>1</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>https://instagram.com/officialbenshapiro</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>1</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>https://instagram.com/ohlafrance</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>1</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>https://instagram.com/orf.at</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
         <v>1</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>https://instagram.com/ornad.vienna</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
         <v>1</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>https://instagram.com/otacastvo</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
         <v>1</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>https://instagram.com/overflow.wrneustadt</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
         <v>1</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>https://instagram.com/oxford_uni</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>1</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>https://instagram.com/pablohaseloficial</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>1</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>https://instagram.com/pakalupapitocamel</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>1</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>https://instagram.com/palidelights</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>1</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>https://instagram.com/pamela_rf</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>1</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>https://instagram.com/papalpreet_singh</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>1</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>https://instagram.com/pbfspc</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>1</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>https://instagram.com/perla.danoch</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>1</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>https://instagram.com/persianpoetics</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>1</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>https://instagram.com/peter_hacker_wien</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>1</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>https://instagram.com/pilotviking</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>1</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>https://instagram.com/piques</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>1</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>https://instagram.com/popcultureinpictures_</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>1</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>https://instagram.com/popserbian</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>1</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>https://instagram.com/prageru</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>1</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>https://instagram.com/premierleague</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>1</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>https://instagram.com/presse_service_vie</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>1</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>https://instagram.com/priesterseminarregensburg</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>1</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>https://instagram.com/prijatelji_manastira_hilandara</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>1</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>https://instagram.com/pubity</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>1</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>https://instagram.com/pubitypets</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>1</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>https://instagram.com/pun_bible</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>1</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>https://instagram.com/punjabi______tadka</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>1</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>https://instagram.com/punjabiwebsite</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>1</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>https://instagram.com/quransayings</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>https://instagram.com/rachel0ates</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>1</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>https://instagram.com/raf_camora</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>1</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>https://instagram.com/rafftar_rai</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>1</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>https://instagram.com/rakic_ufc</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>1</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>https://instagram.com/rav_albert_offiziell</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>1</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>https://instagram.com/recordjet</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>1</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>https://instagram.com/redfishstream</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>1</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>https://instagram.com/redmediakollektiv</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>https://instagram.com/redstarbelgrade.rs</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>1</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>https://instagram.com/reflab.ch</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>1</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>https://instagram.com/regloloji</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>1</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>https://instagram.com/reneeelisegoldsberry</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>1</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>https://instagram.com/renklii_mutfagmm</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>1</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>https://instagram.com/revolt_cg</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>1</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>https://instagram.com/ruthe_offiziell</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>1</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>https://instagram.com/s.ferox</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>1</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>https://instagram.com/saintverse</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>1</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>https://instagram.com/salam.oida</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>1</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>https://instagram.com/salamfm.de</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>https://instagram.com/sankt.jugend</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>1</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>https://instagram.com/sapphic_energy</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>1</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>https://instagram.com/sarahmariepoetry</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>1</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>https://instagram.com/sarkilardanparcalar</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>1</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>https://instagram.com/savastyanov71</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>1</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>https://instagram.com/saykoturkeys</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>1</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>https://instagram.com/schwarzenegger</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>1</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>https://instagram.com/science.jesus.memes</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>1</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>https://instagram.com/seawatchcrew</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>1</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>https://instagram.com/sebastiankurz</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>1</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>https://instagram.com/seekersguidanceorg</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>1</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>https://instagram.com/seize_the_memes</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>1</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>https://instagram.com/seligkeitsdinge_</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>1</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>https://instagram.com/sewstine</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>1</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>https://instagram.com/sgoe.at</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>1</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>https://instagram.com/shakir.amena</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>1</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>https://instagram.com/shakira</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>1</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>https://instagram.com/sharghzadeh</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>1</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>https://instagram.com/shiurinternational</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>1</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>https://instagram.com/shonenworld_</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>1</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>https://instagram.com/shop.LTK</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>1</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>https://instagram.com/sigmundfreudprivatuni</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>1</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>https://instagram.com/sikhexpo</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>1</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>https://instagram.com/sikhi2go</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>1</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>https://instagram.com/sikhreddit</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>1</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>https://instagram.com/sikhyouthuk</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>1</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>https://instagram.com/simseklergrubu</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>1</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>https://instagram.com/singh_speaks</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>1</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>https://instagram.com/skimania.it</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>1</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>https://instagram.com/socmod</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>1</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>https://instagram.com/sonnenflume</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>1</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>https://instagram.com/sostrenegrene</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>1</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>https://instagram.com/sosyalistmizah</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>1</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>https://instagram.com/soulfood_cafe_wien</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>1</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>https://instagram.com/spongebob.memepage</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>1</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>https://instagram.com/srpskacast</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>1</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>https://instagram.com/srpskapravoslavnacrkvagmunden</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>1</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>https://instagram.com/standwithus</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>1</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>https://instagram.com/struthless69</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>1</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>https://instagram.com/subwayhands</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>1</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>https://instagram.com/subwaytherapy</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>1</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>https://instagram.com/success.portal</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>1</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>https://instagram.com/sumeyyelambrecht</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>1</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>https://instagram.com/svoboda.anton</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>1</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>https://instagram.com/sweatybetty</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>1</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>https://instagram.com/tagesschau</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>1</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>https://instagram.com/talhataskinsoyx</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>1</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>https://instagram.com/tarek_bae</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>1</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>https://instagram.com/tarik_mete</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>1</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>https://instagram.com/taz.die_tageszeitung</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>1</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>https://instagram.com/teamcevans</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>1</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>https://instagram.com/teamdeefit</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>1</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>https://instagram.com/teddysphotos</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>1</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>https://instagram.com/the.vulva.gallery</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>1</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>https://instagram.com/the_protestant_christian</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>1</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>https://instagram.com/thebestchristianmemes</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>1</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>https://instagram.com/thecakinggirl</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>https://instagram.com/thecircle_sessions</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>1</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>https://instagram.com/thegoodquote</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>1</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>https://instagram.com/theinkquisites</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>1</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>https://instagram.com/thejerusalem_post</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>1</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>https://instagram.com/thenaughtytrolls</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>1</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>https://instagram.com/therealfatih</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>1</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>https://instagram.com/therefinedwoman</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>1</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>https://instagram.com/therock</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>1</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>https://instagram.com/thesweetfactory.at</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>1</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>https://instagram.com/theturntjew</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>1</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>https://instagram.com/thevoicekids</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>1</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>https://instagram.com/thewonderofmercy</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>1</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>https://instagram.com/thiememe_verlag</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>https://instagram.com/thom_bushcraftprotal_cz</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
         <v>1</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>https://instagram.com/thom_wien</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>1</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>https://instagram.com/thuglifeaustria</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
         <v>1</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>https://instagram.com/tipgenelmerkez</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
         <v>1</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>https://instagram.com/tobiashiems</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>1</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>https://instagram.com/tomholland2013</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>1</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>https://instagram.com/toogoodtogo.at</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>1</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>https://instagram.com/topfakten</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
         <v>1</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>https://instagram.com/topsknives</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
         <v>1</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>https://instagram.com/torahdaily</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>1</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>https://instagram.com/towardseternity</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>1</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>https://instagram.com/trollpunjab</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>https://instagram.com/trollvid.s</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
         <v>1</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>https://instagram.com/trtdeutsch</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
         <v>1</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>https://instagram.com/truth_israel</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>1</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>https://instagram.com/tubaerguen</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>1</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>https://instagram.com/tupoka.o</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>1</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>https://instagram.com/ufcbtsport</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
         <v>1</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>https://instagram.com/uglies</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
         <v>1</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>https://instagram.com/unitednations</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
         <v>1</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>https://instagram.com/uyenthininh</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>1</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>https://instagram.com/vagt_1210</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
         <v>1</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>https://instagram.com/vanderbellen</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
         <v>1</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>https://instagram.com/vanillaholica</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
         <v>1</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>https://instagram.com/veganbowls</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
         <v>1</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>https://instagram.com/veganewunder</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
         <v>1</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>https://instagram.com/velvetcoke</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
         <v>1</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>https://instagram.com/vicdeangelis</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
         <v>1</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>https://instagram.com/vice_de</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
         <v>1</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>https://instagram.com/vicky_spielfrau</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>1</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>https://instagram.com/vienna.house.stories</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>1</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>https://instagram.com/viennawurstelstand</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>1</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>https://instagram.com/viyana_aleviler_toplumu</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
         <v>1</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>https://instagram.com/volim_pravoslavlje</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>1</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>https://instagram.com/vshred</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
         <v>1</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>https://instagram.com/vtrakit.official</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
         <v>1</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>https://instagram.com/vural.uemit</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
         <v>1</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>https://instagram.com/wafa.salam.kensho</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
         <v>1</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>https://instagram.com/walking_through_history</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
         <v>1</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>https://instagram.com/wearmoidancewear</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
         <v>1</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>https://instagram.com/weedhumor</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
         <v>1</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>https://instagram.com/weinausderhoelle</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
         <v>1</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>https://instagram.com/welsh_comrade</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
         <v>1</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>https://instagram.com/westoestlicherpoet</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
         <v>1</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>https://instagram.com/wieneralltagspoeten</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>1</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>https://instagram.com/wienerlinien</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
         <v>1</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>https://instagram.com/wienzufuss</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>1</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>https://instagram.com/wisdoms_of_vienna</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
         <v>1</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>https://instagram.com/womanslook</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
         <v>1</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>https://instagram.com/wordsbytaher</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
         <v>1</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>https://instagram.com/worldbneiakiva</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
         <v>1</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>https://instagram.com/worldjewishcongress</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
         <v>1</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>https://instagram.com/worldofbrands</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>https://instagram.com/wujs_official</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
         <v>1</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>https://instagram.com/xaviernaidoo</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
         <v>1</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>https://instagram.com/yadvashem</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
         <v>1</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>https://instagram.com/yannick.chaumont</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
         <v>1</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>https://instagram.com/yannickshetty</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
         <v>1</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>https://instagram.com/yoelyweiss</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
         <v>1</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>https://instagram.com/youcancallmeaz</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>1</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>https://instagram.com/youmagazintherealstuff</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
         <v>1</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>https://instagram.com/younesjones</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
         <v>1</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>https://instagram.com/yudale_restaurant</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
         <v>1</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>https://instagram.com/yugojokes</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="s">
         <v>1</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>https://instagram.com/yungblud</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
         <v>1</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>https://instagram.com/zahraa_muslim_lifestyle</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="s">
         <v>1</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>https://instagram.com/zaknotwack</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
         <v>1</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>https://instagram.com/zdfheute</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
         <v>1</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>https://instagram.com/zeitimbild</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>1</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>https://instagram.com/zelophchads_toechter</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>https://instagram.com/zendaya</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>1</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>https://instagram.com/zentrumjp2</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
         <v>1</v>
       </c>
@@ -9923,18 +9923,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7E8F5B-BD92-4BCC-A7AC-3E27A74FE22A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AC674D-923F-4B96-AA1E-0788A0705C29}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>629</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>631</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>633</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>635</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>637</v>
       </c>
@@ -10232,13 +10232,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CAFF08C-3DBE-419F-9DDA-06BA11F3511A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A122CCA7-2888-4669-851E-616E5B65EAF8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B7F9A0A-9741-4E43-819F-F1CBA824772F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6E0F20-8999-4F0E-8D14-E90D889FE146}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95D58442-8427-4D25-AECE-DB26E9D86178}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEAE7C0A-BD0C-4202-863B-5FA2D5C2FC60}"/>
 </file>